--- a/docs/NorthPolePatrol-Maps.xlsx
+++ b/docs/NorthPolePatrol-Maps.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\BOOTCAMP\FINALPROJECT\Project3\gamegame\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\BOOTCAMP\FINALPROJECT\Project3\elftacular\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="12090" tabRatio="408" firstSheet="7" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="12090" tabRatio="408" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1-Original" sheetId="1" r:id="rId1"/>
-    <sheet name="1-New" sheetId="2" r:id="rId2"/>
+    <sheet name="1-WF" sheetId="1" r:id="rId1"/>
+    <sheet name="1-NPP" sheetId="2" r:id="rId2"/>
     <sheet name="2-Original" sheetId="3" r:id="rId3"/>
     <sheet name="2-New" sheetId="4" r:id="rId4"/>
     <sheet name="3-Original" sheetId="7" r:id="rId5"/>
@@ -33,48 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>OPEN PATH</t>
   </si>
   <si>
-    <t>STAIRS</t>
-  </si>
-  <si>
     <t>TREES</t>
-  </si>
-  <si>
-    <t>WELL</t>
-  </si>
-  <si>
-    <t>FLAME</t>
   </si>
   <si>
     <t>CHEST/ STUMP</t>
   </si>
   <si>
     <t>Start</t>
-  </si>
-  <si>
-    <t>PUMPKIN</t>
-  </si>
-  <si>
-    <t>WHEAT</t>
-  </si>
-  <si>
-    <t>WINDMILL</t>
-  </si>
-  <si>
-    <t>BARN</t>
-  </si>
-  <si>
-    <t>SCHOOL</t>
-  </si>
-  <si>
-    <t>BAKERY</t>
-  </si>
-  <si>
-    <t>BOOK SHOP</t>
   </si>
   <si>
     <t>CHESTS</t>
@@ -103,12 +73,180 @@
   <si>
     <t>STONE-GOLEMS</t>
   </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>REINDEER</t>
+  </si>
+  <si>
+    <t>XMASTREE1</t>
+  </si>
+  <si>
+    <t>SLEIGH</t>
+  </si>
+  <si>
+    <t>LAMP1</t>
+  </si>
+  <si>
+    <t>SNOWGLOBE1</t>
+  </si>
+  <si>
+    <t>TOWER</t>
+  </si>
+  <si>
+    <t>SNOWMAN1</t>
+  </si>
+  <si>
+    <t>SNOWCOTTAGE</t>
+  </si>
+  <si>
+    <t>XMASTREE2</t>
+  </si>
+  <si>
+    <t>CANDYCOTTAGE</t>
+  </si>
+  <si>
+    <t>XMASTREE3</t>
+  </si>
+  <si>
+    <t>SNOWMAN2</t>
+  </si>
+  <si>
+    <t>SNOWMAN3</t>
+  </si>
+  <si>
+    <t>SNOWMAN4</t>
+  </si>
+  <si>
+    <t>TEDDYBEAR</t>
+  </si>
+  <si>
+    <t>MAILBOX</t>
+  </si>
+  <si>
+    <t>SNOWGLOBE2</t>
+  </si>
+  <si>
+    <t>SNOWGLOBE3</t>
+  </si>
+  <si>
+    <t>SNOWGLOBE4</t>
+  </si>
+  <si>
+    <t>COTTAGE1</t>
+  </si>
+  <si>
+    <t>COTTAGE3</t>
+  </si>
+  <si>
+    <t>BUNNY</t>
+  </si>
+  <si>
+    <t>SQUIRREL</t>
+  </si>
+  <si>
+    <t>XMASTREE4</t>
+  </si>
+  <si>
+    <t>TRAIN1</t>
+  </si>
+  <si>
+    <t>TRAIN2</t>
+  </si>
+  <si>
+    <t>TRAIN3</t>
+  </si>
+  <si>
+    <t>BEAR1B</t>
+  </si>
+  <si>
+    <t>FOX3</t>
+  </si>
+  <si>
+    <t>FOX4</t>
+  </si>
+  <si>
+    <t>CASTLE</t>
+  </si>
+  <si>
+    <t>COTTAGE7</t>
+  </si>
+  <si>
+    <t>COTTAGE6</t>
+  </si>
+  <si>
+    <t>IGLOO</t>
+  </si>
+  <si>
+    <t>ELF1</t>
+  </si>
+  <si>
+    <t>ELF2</t>
+  </si>
+  <si>
+    <t>ELF3</t>
+  </si>
+  <si>
+    <t>ELF5</t>
+  </si>
+  <si>
+    <t>ELF6</t>
+  </si>
+  <si>
+    <t>FENCE</t>
+  </si>
+  <si>
+    <t>ELF11</t>
+  </si>
+  <si>
+    <t>NORTHPOLESIGN4</t>
+  </si>
+  <si>
+    <t>LAMP6</t>
+  </si>
+  <si>
+    <t>LAMP7</t>
+  </si>
+  <si>
+    <t>LAMP8</t>
+  </si>
+  <si>
+    <t>LAMP9</t>
+  </si>
+  <si>
+    <t>LAMP10</t>
+  </si>
+  <si>
+    <t>SANTA1</t>
+  </si>
+  <si>
+    <t>SANTA2</t>
+  </si>
+  <si>
+    <t>SLEIGH5</t>
+  </si>
+  <si>
+    <t>SLEIGH3</t>
+  </si>
+  <si>
+    <t>REINDEER2</t>
+  </si>
+  <si>
+    <t>REINDEER3</t>
+  </si>
+  <si>
+    <t>REINDEER4</t>
+  </si>
+  <si>
+    <t>YETI1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -155,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,19 +337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,6 +350,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF926A9A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,18 +582,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -430,32 +591,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,7 +633,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,22 +654,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -538,8 +672,107 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,8 +782,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF926A9A"/>
+      <color rgb="FFE81CBC"/>
+      <color rgb="FF33CCCC"/>
+      <color rgb="FFA5A5A5"/>
+      <color rgb="FF9966FF"/>
       <color rgb="FFFF6600"/>
-      <color rgb="FFE81CBC"/>
       <color rgb="FFFF9900"/>
     </mruColors>
   </colors>
@@ -1881,7 +2118,7 @@
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="24">
         <v>0</v>
       </c>
       <c r="G2" s="4">
@@ -1967,10 +2204,10 @@
       <c r="E3" s="12">
         <v>0</v>
       </c>
-      <c r="F3" s="40">
-        <v>0</v>
-      </c>
-      <c r="G3" s="36">
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
         <v>5</v>
       </c>
       <c r="H3" s="4">
@@ -2021,7 +2258,7 @@
       <c r="W3" s="9">
         <v>5</v>
       </c>
-      <c r="X3" s="48">
+      <c r="X3" s="38">
         <v>5</v>
       </c>
       <c r="Y3" s="2">
@@ -2053,13 +2290,13 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="31">
         <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="27">
         <v>5</v>
       </c>
       <c r="I4" s="4">
@@ -2074,7 +2311,7 @@
       <c r="L4" s="4">
         <v>5</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="24">
         <v>0</v>
       </c>
       <c r="N4" s="3">
@@ -2107,10 +2344,10 @@
       <c r="W4" s="12">
         <v>0</v>
       </c>
-      <c r="X4" s="40">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="33">
+      <c r="X4" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="23">
         <v>0</v>
       </c>
       <c r="Z4" s="3">
@@ -2145,10 +2382,10 @@
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="40">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
         <v>4</v>
       </c>
       <c r="J5" s="4">
@@ -2160,10 +2397,10 @@
       <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="42">
         <v>4</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="23">
         <v>0</v>
       </c>
       <c r="O5" s="4">
@@ -2193,7 +2430,7 @@
       <c r="W5" s="3">
         <v>0</v>
       </c>
-      <c r="X5" s="49">
+      <c r="X5" s="39">
         <v>5</v>
       </c>
       <c r="Y5" s="2">
@@ -2216,7 +2453,7 @@
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
       <c r="D6" s="4">
@@ -2231,7 +2468,7 @@
       <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="25">
         <v>5</v>
       </c>
       <c r="I6" s="4">
@@ -2246,7 +2483,7 @@
       <c r="L6" s="4">
         <v>5</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="25">
         <v>5</v>
       </c>
       <c r="N6" s="4">
@@ -2285,7 +2522,7 @@
       <c r="Y6" s="9">
         <v>5</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6" s="24">
         <v>0</v>
       </c>
       <c r="AA6" s="9">
@@ -2302,10 +2539,10 @@
       <c r="B7" s="12">
         <v>0</v>
       </c>
-      <c r="C7" s="40">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23">
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -2350,7 +2587,7 @@
       <c r="R7" s="4">
         <v>5</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="24">
         <v>0</v>
       </c>
       <c r="T7" s="4">
@@ -2371,10 +2608,10 @@
       <c r="Y7" s="15">
         <v>5</v>
       </c>
-      <c r="Z7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="47">
+      <c r="Z7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="37">
         <v>5</v>
       </c>
       <c r="AB7" s="9">
@@ -2388,7 +2625,7 @@
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="25">
         <v>5</v>
       </c>
       <c r="D8" s="4">
@@ -2400,7 +2637,7 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="27">
         <v>5</v>
       </c>
       <c r="H8" s="4">
@@ -2436,10 +2673,10 @@
       <c r="R8" s="11">
         <v>5</v>
       </c>
-      <c r="S8" s="40">
-        <v>0</v>
-      </c>
-      <c r="T8" s="36">
+      <c r="S8" s="30">
+        <v>0</v>
+      </c>
+      <c r="T8" s="26">
         <v>5</v>
       </c>
       <c r="U8" s="9">
@@ -2457,7 +2694,7 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="41">
+      <c r="Z8" s="31">
         <v>0</v>
       </c>
       <c r="AA8" s="9">
@@ -2486,10 +2723,10 @@
       <c r="F9" s="12">
         <v>0</v>
       </c>
-      <c r="G9" s="40">
-        <v>0</v>
-      </c>
-      <c r="H9" s="33">
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
         <v>0</v>
       </c>
       <c r="I9" s="3">
@@ -2507,7 +2744,7 @@
       <c r="M9" s="4">
         <v>5</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="27">
         <v>5</v>
       </c>
       <c r="O9" s="4">
@@ -2522,7 +2759,7 @@
       <c r="R9" s="4">
         <v>5</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="31">
         <v>0</v>
       </c>
       <c r="T9" s="4">
@@ -2557,7 +2794,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="27">
         <v>5</v>
       </c>
       <c r="C10" s="4">
@@ -2566,13 +2803,13 @@
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="24">
         <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="25">
         <v>5</v>
       </c>
       <c r="H10" s="4">
@@ -2588,15 +2825,15 @@
         <v>5</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="24">
+        <v>3</v>
+      </c>
+      <c r="M10" s="20">
         <v>2</v>
       </c>
-      <c r="N10" s="40">
-        <v>0</v>
-      </c>
-      <c r="O10" s="45">
+      <c r="N10" s="30">
+        <v>0</v>
+      </c>
+      <c r="O10" s="35">
         <v>4</v>
       </c>
       <c r="P10" s="3">
@@ -2640,22 +2877,22 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="29">
         <v>4</v>
       </c>
-      <c r="B11" s="40">
-        <v>0</v>
-      </c>
-      <c r="C11" s="33">
+      <c r="B11" s="30">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
         <v>0</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
       </c>
-      <c r="E11" s="40">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
         <v>0</v>
       </c>
       <c r="G11" s="4">
@@ -2679,7 +2916,7 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="31">
         <v>0</v>
       </c>
       <c r="O11" s="3">
@@ -2715,7 +2952,7 @@
       <c r="Y11" s="3">
         <v>0</v>
       </c>
-      <c r="Z11" s="34">
+      <c r="Z11" s="24">
         <v>0</v>
       </c>
       <c r="AA11" s="9">
@@ -2729,7 +2966,7 @@
       <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="25">
         <v>5</v>
       </c>
       <c r="C12" s="4">
@@ -2738,7 +2975,7 @@
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="31">
         <v>0</v>
       </c>
       <c r="F12" s="3">
@@ -2801,10 +3038,10 @@
       <c r="Y12" s="15">
         <v>5</v>
       </c>
-      <c r="Z12" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="47">
+      <c r="Z12" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="37">
         <v>5</v>
       </c>
       <c r="AB12" s="9">
@@ -2887,7 +3124,7 @@
       <c r="Y13" s="9">
         <v>5</v>
       </c>
-      <c r="Z13" s="41">
+      <c r="Z13" s="31">
         <v>0</v>
       </c>
       <c r="AA13" s="9">
@@ -2907,7 +3144,7 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="27">
         <v>5</v>
       </c>
       <c r="E14" s="3">
@@ -2976,7 +3213,7 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="34">
+      <c r="AA14" s="24">
         <v>0</v>
       </c>
       <c r="AB14" s="9">
@@ -2993,10 +3230,10 @@
       <c r="C15" s="12">
         <v>0</v>
       </c>
-      <c r="D15" s="40">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23">
         <v>0</v>
       </c>
       <c r="F15" s="3">
@@ -3008,7 +3245,7 @@
       <c r="H15" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="27">
         <v>5</v>
       </c>
       <c r="J15" s="4">
@@ -3062,10 +3299,10 @@
       <c r="Z15" s="12">
         <v>0</v>
       </c>
-      <c r="AA15" s="40">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="47">
+      <c r="AA15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="37">
         <v>5</v>
       </c>
     </row>
@@ -3079,7 +3316,7 @@
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="25">
         <v>5</v>
       </c>
       <c r="E16" s="3">
@@ -3094,10 +3331,10 @@
       <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="I16" s="40">
-        <v>0</v>
-      </c>
-      <c r="J16" s="45">
+      <c r="I16" s="30">
+        <v>0</v>
+      </c>
+      <c r="J16" s="35">
         <v>4</v>
       </c>
       <c r="K16" s="4">
@@ -3148,7 +3385,7 @@
       <c r="Z16" s="9">
         <v>5</v>
       </c>
-      <c r="AA16" s="49">
+      <c r="AA16" s="39">
         <v>5</v>
       </c>
       <c r="AB16" s="9">
@@ -3157,11 +3394,11 @@
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>15</v>
+      <c r="A18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>5</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -3174,14 +3411,14 @@
       <c r="A19" s="2">
         <v>20</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="28">
         <v>15</v>
       </c>
       <c r="F19" s="6">
         <v>2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3189,31 +3426,31 @@
         <v>3</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="21">
+      <c r="F21" s="17">
         <v>4</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>5</v>
+      <c r="G21" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="23">
-        <v>5</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>2</v>
+      <c r="F22" s="19">
+        <v>5</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="27">
+      <c r="F23" s="21">
         <v>9</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>20</v>
+      <c r="G23" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3224,17 +3461,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3">
         <v>0</v>
@@ -3242,13 +3479,13 @@
       <c r="C1" s="3">
         <v>0</v>
       </c>
-      <c r="D1" s="3">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4">
+      <c r="D1" s="5">
+        <v>60</v>
+      </c>
+      <c r="E1" s="59">
+        <v>5</v>
+      </c>
+      <c r="F1" s="59">
         <v>5</v>
       </c>
       <c r="G1" s="3">
@@ -3257,64 +3494,64 @@
       <c r="H1" s="3">
         <v>0</v>
       </c>
-      <c r="I1" s="4">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4">
-        <v>5</v>
-      </c>
-      <c r="K1" s="4">
-        <v>5</v>
-      </c>
-      <c r="L1" s="4">
-        <v>5</v>
-      </c>
-      <c r="M1" s="4">
-        <v>5</v>
-      </c>
-      <c r="N1" s="4">
-        <v>5</v>
-      </c>
-      <c r="O1" s="4">
-        <v>5</v>
-      </c>
-      <c r="P1" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>5</v>
-      </c>
-      <c r="R1" s="4">
-        <v>5</v>
-      </c>
-      <c r="S1" s="4">
-        <v>5</v>
-      </c>
-      <c r="T1" s="11">
-        <v>5</v>
-      </c>
-      <c r="U1" s="9">
-        <v>5</v>
-      </c>
-      <c r="V1" s="9">
-        <v>5</v>
-      </c>
-      <c r="W1" s="9">
-        <v>5</v>
-      </c>
-      <c r="X1" s="9">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="9">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="9">
+      <c r="I1" s="59">
+        <v>5</v>
+      </c>
+      <c r="J1" s="59">
+        <v>5</v>
+      </c>
+      <c r="K1" s="59">
+        <v>5</v>
+      </c>
+      <c r="L1" s="59">
+        <v>5</v>
+      </c>
+      <c r="M1" s="59">
+        <v>5</v>
+      </c>
+      <c r="N1" s="59">
+        <v>5</v>
+      </c>
+      <c r="O1" s="59">
+        <v>5</v>
+      </c>
+      <c r="P1" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="59">
+        <v>5</v>
+      </c>
+      <c r="R1" s="68">
+        <v>47</v>
+      </c>
+      <c r="S1" s="59">
+        <v>5</v>
+      </c>
+      <c r="T1" s="61">
+        <v>5</v>
+      </c>
+      <c r="U1" s="60">
+        <v>5</v>
+      </c>
+      <c r="V1" s="60">
+        <v>5</v>
+      </c>
+      <c r="W1" s="60">
+        <v>5</v>
+      </c>
+      <c r="X1" s="60">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="60">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="60">
         <v>5</v>
       </c>
     </row>
@@ -3343,19 +3580,19 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4">
-        <v>5</v>
-      </c>
-      <c r="K2" s="25">
-        <v>12</v>
-      </c>
-      <c r="L2" s="25">
-        <v>12</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="I2" s="59">
+        <v>5</v>
+      </c>
+      <c r="J2" s="59">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="74">
         <v>3</v>
       </c>
       <c r="N2" s="3">
@@ -3364,43 +3601,43 @@
       <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="65">
         <v>4</v>
       </c>
-      <c r="Q2" s="4">
-        <v>5</v>
-      </c>
-      <c r="R2" s="4">
-        <v>5</v>
-      </c>
-      <c r="S2" s="4">
-        <v>5</v>
-      </c>
-      <c r="T2" s="11">
-        <v>5</v>
-      </c>
-      <c r="U2" s="9">
-        <v>5</v>
-      </c>
-      <c r="V2" s="9">
-        <v>5</v>
-      </c>
-      <c r="W2" s="9">
-        <v>5</v>
-      </c>
-      <c r="X2" s="9">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="9">
+      <c r="Q2" s="5">
+        <v>60</v>
+      </c>
+      <c r="R2" s="59">
+        <v>5</v>
+      </c>
+      <c r="S2" s="59">
+        <v>5</v>
+      </c>
+      <c r="T2" s="61">
+        <v>5</v>
+      </c>
+      <c r="U2" s="60">
+        <v>5</v>
+      </c>
+      <c r="V2" s="60">
+        <v>5</v>
+      </c>
+      <c r="W2" s="60">
+        <v>5</v>
+      </c>
+      <c r="X2" s="60">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="60">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="60">
         <v>5</v>
       </c>
     </row>
@@ -3417,10 +3654,10 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="59">
+        <v>5</v>
+      </c>
+      <c r="F3" s="59">
         <v>5</v>
       </c>
       <c r="G3" s="3">
@@ -3429,17 +3666,17 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4">
-        <v>5</v>
-      </c>
-      <c r="K3" s="25">
-        <v>12</v>
-      </c>
-      <c r="L3" s="25">
-        <v>12</v>
+      <c r="I3" s="59">
+        <v>5</v>
+      </c>
+      <c r="J3" s="59">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -3477,21 +3714,21 @@
       <c r="X3" s="10">
         <v>0</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="74">
         <v>21</v>
       </c>
-      <c r="Z3" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="9">
+      <c r="Z3" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+      <c r="A4" s="22">
         <v>20</v>
       </c>
       <c r="B4" s="3">
@@ -3500,13 +3737,13 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="65">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="59">
+        <v>5</v>
+      </c>
+      <c r="F4" s="59">
         <v>5</v>
       </c>
       <c r="G4" s="3">
@@ -3515,10 +3752,10 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="59">
+        <v>5</v>
+      </c>
+      <c r="J4" s="59">
         <v>5</v>
       </c>
       <c r="K4" s="3">
@@ -3533,7 +3770,7 @@
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="24">
         <v>0</v>
       </c>
       <c r="P4" s="3">
@@ -3563,48 +3800,48 @@
       <c r="X4" s="10">
         <v>0</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="65">
         <v>4</v>
       </c>
-      <c r="Z4" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="9">
+      <c r="Z4" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="34">
+      <c r="A5" s="59">
+        <v>5</v>
+      </c>
+      <c r="B5" s="59">
+        <v>5</v>
+      </c>
+      <c r="C5" s="59">
+        <v>5</v>
+      </c>
+      <c r="D5" s="59">
+        <v>5</v>
+      </c>
+      <c r="E5" s="59">
+        <v>5</v>
+      </c>
+      <c r="F5" s="59">
+        <v>5</v>
+      </c>
+      <c r="G5" s="24">
         <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="5">
+        <v>60</v>
+      </c>
+      <c r="J5" s="59">
         <v>5</v>
       </c>
       <c r="K5" s="3">
@@ -3616,19 +3853,19 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="66">
         <v>4</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="41">
         <v>22</v>
       </c>
-      <c r="P5" s="36">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>5</v>
-      </c>
-      <c r="R5" s="2">
+      <c r="P5" s="63">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>5</v>
+      </c>
+      <c r="R5" s="65">
         <v>4</v>
       </c>
       <c r="S5" s="3">
@@ -3643,75 +3880,75 @@
       <c r="V5" s="16">
         <v>19</v>
       </c>
-      <c r="W5" s="9">
-        <v>5</v>
-      </c>
-      <c r="X5" s="9">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="9">
+      <c r="W5" s="60">
+        <v>5</v>
+      </c>
+      <c r="X5" s="76">
+        <v>60</v>
+      </c>
+      <c r="Y5" s="60">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="11">
-        <v>5</v>
-      </c>
-      <c r="G6" s="40">
-        <v>0</v>
-      </c>
-      <c r="H6" s="33">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>5</v>
-      </c>
-      <c r="M6" s="4">
-        <v>5</v>
-      </c>
-      <c r="N6" s="4">
-        <v>5</v>
-      </c>
-      <c r="O6" s="35">
-        <v>5</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59">
+        <v>5</v>
+      </c>
+      <c r="C6" s="59">
+        <v>5</v>
+      </c>
+      <c r="D6" s="59">
+        <v>5</v>
+      </c>
+      <c r="E6" s="59">
+        <v>5</v>
+      </c>
+      <c r="F6" s="61">
+        <v>5</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
+      <c r="I6" s="59">
+        <v>5</v>
+      </c>
+      <c r="J6" s="59">
+        <v>5</v>
+      </c>
+      <c r="K6" s="59">
+        <v>5</v>
+      </c>
+      <c r="L6" s="59">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="59">
+        <v>5</v>
+      </c>
+      <c r="O6" s="62">
+        <v>5</v>
+      </c>
+      <c r="P6" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="59">
         <v>5</v>
       </c>
       <c r="R6" s="16">
@@ -3726,84 +3963,84 @@
       <c r="U6" s="10">
         <v>0</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="65">
         <v>4</v>
       </c>
-      <c r="W6" s="9">
-        <v>5</v>
-      </c>
-      <c r="X6" s="9">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="9">
+      <c r="W6" s="60">
+        <v>5</v>
+      </c>
+      <c r="X6" s="60">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="60">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="41">
+      <c r="A7" s="59">
+        <v>5</v>
+      </c>
+      <c r="B7" s="59">
+        <v>5</v>
+      </c>
+      <c r="C7" s="59">
+        <v>5</v>
+      </c>
+      <c r="D7" s="59">
+        <v>5</v>
+      </c>
+      <c r="E7" s="59">
+        <v>5</v>
+      </c>
+      <c r="F7" s="59">
+        <v>5</v>
+      </c>
+      <c r="G7" s="31">
         <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4">
-        <v>5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>5</v>
-      </c>
-      <c r="M7" s="4">
-        <v>5</v>
-      </c>
-      <c r="N7" s="4">
-        <v>5</v>
-      </c>
-      <c r="O7" s="4">
-        <v>5</v>
-      </c>
-      <c r="P7" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>5</v>
-      </c>
-      <c r="R7" s="4">
-        <v>5</v>
-      </c>
-      <c r="S7" s="4">
+      <c r="I7" s="59">
+        <v>5</v>
+      </c>
+      <c r="J7" s="59">
+        <v>5</v>
+      </c>
+      <c r="K7" s="68">
+        <v>50</v>
+      </c>
+      <c r="L7" s="59">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="59">
+        <v>5</v>
+      </c>
+      <c r="O7" s="59">
+        <v>5</v>
+      </c>
+      <c r="P7" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>5</v>
+      </c>
+      <c r="R7" s="59">
+        <v>5</v>
+      </c>
+      <c r="S7" s="59">
         <v>5</v>
       </c>
       <c r="T7" s="12">
@@ -3824,13 +4061,13 @@
       <c r="Y7" s="16">
         <v>17</v>
       </c>
-      <c r="Z7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="9">
+      <c r="Z7" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="60">
         <v>5</v>
       </c>
     </row>
@@ -3838,19 +4075,19 @@
       <c r="A8" s="7">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="65">
         <v>4</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D8" s="59">
+        <v>5</v>
+      </c>
+      <c r="E8" s="59">
+        <v>5</v>
+      </c>
+      <c r="F8" s="59">
         <v>5</v>
       </c>
       <c r="G8" s="3">
@@ -3859,37 +4096,37 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
-      <c r="K8" s="4">
-        <v>5</v>
-      </c>
-      <c r="L8" s="4">
-        <v>5</v>
-      </c>
-      <c r="M8" s="4">
-        <v>5</v>
-      </c>
-      <c r="N8" s="4">
-        <v>5</v>
-      </c>
-      <c r="O8" s="4">
-        <v>5</v>
-      </c>
-      <c r="P8" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>5</v>
-      </c>
-      <c r="R8" s="4">
-        <v>5</v>
-      </c>
-      <c r="S8" s="4">
+      <c r="I8" s="59">
+        <v>5</v>
+      </c>
+      <c r="J8" s="59">
+        <v>5</v>
+      </c>
+      <c r="K8" s="59">
+        <v>5</v>
+      </c>
+      <c r="L8" s="59">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="59">
+        <v>5</v>
+      </c>
+      <c r="O8" s="59">
+        <v>5</v>
+      </c>
+      <c r="P8" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>5</v>
+      </c>
+      <c r="R8" s="59">
+        <v>5</v>
+      </c>
+      <c r="S8" s="59">
         <v>5</v>
       </c>
       <c r="T8" s="12">
@@ -3910,13 +4147,13 @@
       <c r="Y8" s="10">
         <v>0</v>
       </c>
-      <c r="Z8" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="9">
+      <c r="Z8" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="60">
         <v>5</v>
       </c>
     </row>
@@ -3930,13 +4167,13 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="D9" s="59">
+        <v>5</v>
+      </c>
+      <c r="E9" s="59">
+        <v>5</v>
+      </c>
+      <c r="F9" s="59">
         <v>5</v>
       </c>
       <c r="G9" s="3">
@@ -3945,17 +4182,17 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="4">
-        <v>5</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5</v>
-      </c>
-      <c r="L9" s="7">
-        <v>11</v>
+      <c r="I9" s="59">
+        <v>5</v>
+      </c>
+      <c r="J9" s="59">
+        <v>5</v>
+      </c>
+      <c r="K9" s="59">
+        <v>5</v>
+      </c>
+      <c r="L9" s="5">
+        <v>60</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -3972,10 +4209,10 @@
       <c r="Q9" s="7">
         <v>23</v>
       </c>
-      <c r="R9" s="4">
-        <v>5</v>
-      </c>
-      <c r="S9" s="4">
+      <c r="R9" s="59">
+        <v>5</v>
+      </c>
+      <c r="S9" s="59">
         <v>5</v>
       </c>
       <c r="T9" s="12">
@@ -3984,25 +4221,25 @@
       <c r="U9" s="10">
         <v>0</v>
       </c>
-      <c r="V9" s="17">
-        <v>13</v>
-      </c>
-      <c r="W9" s="17">
-        <v>13</v>
-      </c>
-      <c r="X9" s="16">
-        <v>15</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="9">
+      <c r="V9" s="60">
+        <v>5</v>
+      </c>
+      <c r="W9" s="60">
+        <v>5</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="60">
         <v>5</v>
       </c>
     </row>
@@ -4016,13 +4253,13 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="D10" s="59">
+        <v>5</v>
+      </c>
+      <c r="E10" s="59">
+        <v>5</v>
+      </c>
+      <c r="F10" s="59">
         <v>5</v>
       </c>
       <c r="G10" s="3">
@@ -4052,48 +4289,48 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
+      <c r="P10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="65">
         <v>4</v>
       </c>
-      <c r="R10" s="4">
-        <v>5</v>
-      </c>
-      <c r="S10" s="4">
-        <v>5</v>
-      </c>
-      <c r="T10" s="12">
-        <v>0</v>
-      </c>
-      <c r="U10" s="10">
-        <v>0</v>
-      </c>
-      <c r="V10" s="17">
-        <v>13</v>
-      </c>
-      <c r="W10" s="17">
-        <v>13</v>
-      </c>
-      <c r="X10" s="17">
-        <v>13</v>
-      </c>
-      <c r="Y10" s="17">
-        <v>13</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="9">
+      <c r="R10" s="59">
+        <v>5</v>
+      </c>
+      <c r="S10" s="59">
+        <v>5</v>
+      </c>
+      <c r="T10" s="60">
+        <v>5</v>
+      </c>
+      <c r="U10" s="60">
+        <v>5</v>
+      </c>
+      <c r="V10" s="69">
+        <v>44</v>
+      </c>
+      <c r="W10" s="60">
+        <v>5</v>
+      </c>
+      <c r="X10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="59">
         <v>5</v>
       </c>
       <c r="B11" s="3">
@@ -4102,19 +4339,19 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="D11" s="68">
+        <v>42</v>
+      </c>
+      <c r="E11" s="59">
+        <v>5</v>
+      </c>
+      <c r="F11" s="59">
         <v>5</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="24">
         <v>0</v>
       </c>
       <c r="I11" s="3">
@@ -4138,48 +4375,48 @@
       <c r="O11" s="12">
         <v>0</v>
       </c>
-      <c r="P11" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="33">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>5</v>
-      </c>
-      <c r="S11" s="4">
-        <v>5</v>
-      </c>
-      <c r="T11" s="12">
-        <v>0</v>
+      <c r="P11" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0</v>
+      </c>
+      <c r="R11" s="59">
+        <v>5</v>
+      </c>
+      <c r="S11" s="59">
+        <v>5</v>
+      </c>
+      <c r="T11" s="59">
+        <v>5</v>
       </c>
       <c r="U11" s="10">
         <v>0</v>
       </c>
-      <c r="V11" s="17">
-        <v>13</v>
-      </c>
-      <c r="W11" s="17">
-        <v>13</v>
-      </c>
-      <c r="X11" s="17">
-        <v>13</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>13</v>
-      </c>
-      <c r="Z11" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB11" s="9">
+      <c r="V11" s="60">
+        <v>5</v>
+      </c>
+      <c r="W11" s="76">
+        <v>60</v>
+      </c>
+      <c r="X11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="59">
         <v>5</v>
       </c>
       <c r="B12" s="3">
@@ -4188,31 +4425,31 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="D12" s="59">
+        <v>5</v>
+      </c>
+      <c r="E12" s="59">
+        <v>5</v>
+      </c>
+      <c r="F12" s="59">
         <v>5</v>
       </c>
       <c r="G12" s="12">
         <v>0</v>
       </c>
-      <c r="H12" s="40">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4">
-        <v>5</v>
-      </c>
-      <c r="K12" s="4">
-        <v>5</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="H12" s="30">
+        <v>0</v>
+      </c>
+      <c r="I12" s="63">
+        <v>5</v>
+      </c>
+      <c r="J12" s="59">
+        <v>5</v>
+      </c>
+      <c r="K12" s="59">
+        <v>5</v>
+      </c>
+      <c r="L12" s="65">
         <v>4</v>
       </c>
       <c r="M12" s="3">
@@ -4224,48 +4461,48 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="31">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="12">
-        <v>0</v>
+      <c r="R12" s="59">
+        <v>5</v>
+      </c>
+      <c r="S12" s="59">
+        <v>5</v>
+      </c>
+      <c r="T12" s="59">
+        <v>5</v>
       </c>
       <c r="U12" s="10">
         <v>0</v>
       </c>
-      <c r="V12" s="17">
-        <v>13</v>
-      </c>
-      <c r="W12" s="17">
-        <v>13</v>
-      </c>
-      <c r="X12" s="17">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA12" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB12" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="V12" s="10">
+        <v>0</v>
+      </c>
+      <c r="W12" s="10">
+        <v>0</v>
+      </c>
+      <c r="X12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59">
         <v>5</v>
       </c>
       <c r="B13" s="3">
@@ -4286,23 +4523,23 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="41">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4">
-        <v>5</v>
-      </c>
-      <c r="K13" s="4">
-        <v>5</v>
-      </c>
-      <c r="L13" s="18">
-        <v>13</v>
-      </c>
-      <c r="M13" s="52">
-        <v>13</v>
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="59">
+        <v>5</v>
+      </c>
+      <c r="J13" s="59">
+        <v>5</v>
+      </c>
+      <c r="K13" s="59">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -4316,42 +4553,42 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="12">
-        <v>0</v>
+      <c r="R13" s="59">
+        <v>5</v>
+      </c>
+      <c r="S13" s="59">
+        <v>5</v>
+      </c>
+      <c r="T13" s="59">
+        <v>5</v>
       </c>
       <c r="U13" s="10">
         <v>0</v>
       </c>
-      <c r="V13" s="17">
-        <v>13</v>
-      </c>
-      <c r="W13" s="17">
-        <v>13</v>
-      </c>
-      <c r="X13" s="17">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="17">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="V13" s="10">
+        <v>0</v>
+      </c>
+      <c r="W13" s="10">
+        <v>0</v>
+      </c>
+      <c r="X13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="69">
+        <v>45</v>
+      </c>
+      <c r="AB13" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59">
         <v>5</v>
       </c>
       <c r="B14" s="3">
@@ -4375,22 +4612,22 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="4">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4">
-        <v>5</v>
-      </c>
-      <c r="K14" s="4">
-        <v>5</v>
-      </c>
-      <c r="L14" s="51">
-        <v>13</v>
-      </c>
-      <c r="M14" s="53">
-        <v>13</v>
-      </c>
-      <c r="N14" s="33">
+      <c r="I14" s="59">
+        <v>5</v>
+      </c>
+      <c r="J14" s="59">
+        <v>5</v>
+      </c>
+      <c r="K14" s="59">
+        <v>5</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="M14" s="74">
+        <v>0</v>
+      </c>
+      <c r="N14" s="23">
         <v>0</v>
       </c>
       <c r="O14" s="3">
@@ -4402,57 +4639,57 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="4">
-        <v>5</v>
-      </c>
-      <c r="S14" s="4">
-        <v>5</v>
-      </c>
-      <c r="T14" s="11">
-        <v>5</v>
-      </c>
-      <c r="U14" s="9">
-        <v>5</v>
-      </c>
-      <c r="V14" s="9">
-        <v>5</v>
-      </c>
-      <c r="W14" s="9">
-        <v>5</v>
-      </c>
-      <c r="X14" s="9">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="9">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="R14" s="59">
+        <v>5</v>
+      </c>
+      <c r="S14" s="59">
+        <v>5</v>
+      </c>
+      <c r="T14" s="61">
+        <v>5</v>
+      </c>
+      <c r="U14" s="82">
+        <v>66</v>
+      </c>
+      <c r="V14" s="82">
+        <v>66</v>
+      </c>
+      <c r="W14" s="82">
+        <v>66</v>
+      </c>
+      <c r="X14" s="82">
+        <v>66</v>
+      </c>
+      <c r="Y14" s="82">
+        <v>66</v>
+      </c>
+      <c r="Z14" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>60</v>
+      </c>
+      <c r="C15" s="59">
+        <v>5</v>
+      </c>
+      <c r="D15" s="59">
+        <v>5</v>
+      </c>
+      <c r="E15" s="59">
+        <v>5</v>
+      </c>
+      <c r="F15" s="59">
         <v>5</v>
       </c>
       <c r="G15" s="3">
@@ -4461,154 +4698,154 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4">
-        <v>5</v>
-      </c>
-      <c r="K15" s="4">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4">
-        <v>5</v>
-      </c>
-      <c r="M15" s="35">
-        <v>5</v>
-      </c>
-      <c r="N15" s="4">
-        <v>5</v>
-      </c>
-      <c r="O15" s="4">
-        <v>5</v>
-      </c>
-      <c r="P15" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>5</v>
-      </c>
-      <c r="R15" s="4">
-        <v>5</v>
-      </c>
-      <c r="S15" s="4">
-        <v>5</v>
-      </c>
-      <c r="T15" s="11">
-        <v>5</v>
-      </c>
-      <c r="U15" s="9">
-        <v>5</v>
-      </c>
-      <c r="V15" s="9">
-        <v>5</v>
-      </c>
-      <c r="W15" s="9">
-        <v>5</v>
-      </c>
-      <c r="X15" s="9">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="9">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="9">
+      <c r="I15" s="59">
+        <v>5</v>
+      </c>
+      <c r="J15" s="59">
+        <v>5</v>
+      </c>
+      <c r="K15" s="59">
+        <v>5</v>
+      </c>
+      <c r="L15" s="59">
+        <v>5</v>
+      </c>
+      <c r="M15" s="62">
+        <v>5</v>
+      </c>
+      <c r="N15" s="59">
+        <v>5</v>
+      </c>
+      <c r="O15" s="59">
+        <v>5</v>
+      </c>
+      <c r="P15" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>60</v>
+      </c>
+      <c r="R15" s="59">
+        <v>5</v>
+      </c>
+      <c r="S15" s="59">
+        <v>5</v>
+      </c>
+      <c r="T15" s="61">
+        <v>5</v>
+      </c>
+      <c r="U15" s="60">
+        <v>5</v>
+      </c>
+      <c r="V15" s="60">
+        <v>5</v>
+      </c>
+      <c r="W15" s="60">
+        <v>5</v>
+      </c>
+      <c r="X15" s="60">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="60">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>5</v>
-      </c>
-      <c r="B16" s="9">
-        <v>5</v>
-      </c>
-      <c r="C16" s="9">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9">
-        <v>5</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="A16" s="60">
+        <v>5</v>
+      </c>
+      <c r="B16" s="60">
+        <v>5</v>
+      </c>
+      <c r="C16" s="60">
+        <v>5</v>
+      </c>
+      <c r="D16" s="60">
+        <v>5</v>
+      </c>
+      <c r="E16" s="60">
+        <v>5</v>
+      </c>
+      <c r="F16" s="60">
         <v>5</v>
       </c>
       <c r="G16" s="7">
-        <v>21</v>
-      </c>
-      <c r="H16" s="2">
+        <v>34</v>
+      </c>
+      <c r="H16" s="65">
         <v>4</v>
       </c>
-      <c r="I16" s="9">
-        <v>5</v>
-      </c>
-      <c r="J16" s="9">
-        <v>5</v>
-      </c>
-      <c r="K16" s="9">
-        <v>5</v>
-      </c>
-      <c r="L16" s="9">
-        <v>5</v>
-      </c>
-      <c r="M16" s="9">
-        <v>5</v>
-      </c>
-      <c r="N16" s="9">
-        <v>5</v>
-      </c>
-      <c r="O16" s="9">
-        <v>5</v>
-      </c>
-      <c r="P16" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>5</v>
-      </c>
-      <c r="R16" s="9">
-        <v>5</v>
-      </c>
-      <c r="S16" s="9">
-        <v>5</v>
-      </c>
-      <c r="T16" s="15">
-        <v>5</v>
-      </c>
-      <c r="U16" s="9">
-        <v>5</v>
-      </c>
-      <c r="V16" s="9">
-        <v>5</v>
-      </c>
-      <c r="W16" s="9">
-        <v>5</v>
-      </c>
-      <c r="X16" s="9">
-        <v>5</v>
-      </c>
-      <c r="Y16" s="9">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="9">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="60">
+        <v>5</v>
+      </c>
+      <c r="J16" s="60">
+        <v>5</v>
+      </c>
+      <c r="K16" s="60">
+        <v>5</v>
+      </c>
+      <c r="L16" s="60">
+        <v>5</v>
+      </c>
+      <c r="M16" s="60">
+        <v>5</v>
+      </c>
+      <c r="N16" s="60">
+        <v>5</v>
+      </c>
+      <c r="O16" s="60">
+        <v>5</v>
+      </c>
+      <c r="P16" s="60">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="60">
+        <v>5</v>
+      </c>
+      <c r="R16" s="60">
+        <v>5</v>
+      </c>
+      <c r="S16" s="60">
+        <v>5</v>
+      </c>
+      <c r="T16" s="64">
+        <v>5</v>
+      </c>
+      <c r="U16" s="60">
+        <v>5</v>
+      </c>
+      <c r="V16" s="60">
+        <v>5</v>
+      </c>
+      <c r="W16" s="60">
+        <v>5</v>
+      </c>
+      <c r="X16" s="60">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="60">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="60">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="60">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4635,116 +4872,413 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
-    <row r="18" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>0</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="50" t="s">
+    <row r="18" spans="1:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V18" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" s="33"/>
+      <c r="X18" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50">
+        <v>0</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="56">
+        <v>27</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="58">
+        <v>47</v>
+      </c>
+      <c r="L19" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
+        <v>2</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="77">
+        <v>28</v>
+      </c>
+      <c r="G20" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="58">
+        <v>48</v>
+      </c>
+      <c r="L20" s="67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50">
+        <v>3</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="77">
+        <v>29</v>
+      </c>
+      <c r="G21" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="58">
+        <v>49</v>
+      </c>
+      <c r="L21" s="67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51">
+        <v>4</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="77">
+        <v>30</v>
+      </c>
+      <c r="G22" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="58">
+        <v>50</v>
+      </c>
+      <c r="L22" s="67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52">
+        <v>5</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="77">
+        <v>31</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="70">
+        <v>51</v>
+      </c>
+      <c r="L23" s="71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="77">
+        <v>11</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="77">
+        <v>32</v>
+      </c>
+      <c r="G24" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="70">
+        <v>52</v>
+      </c>
+      <c r="L24" s="71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54">
+        <v>12</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="56">
+        <v>33</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="70">
+        <v>53</v>
+      </c>
+      <c r="L25" s="71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54">
+        <v>13</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="77">
+        <v>34</v>
+      </c>
+      <c r="G26" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="70">
+        <v>54</v>
+      </c>
+      <c r="L26" s="71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54">
+        <v>14</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="77">
+        <v>35</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="70">
+        <v>55</v>
+      </c>
+      <c r="L27" s="71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54">
+        <v>15</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="77">
+        <v>36</v>
+      </c>
+      <c r="G28" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="70">
+        <v>56</v>
+      </c>
+      <c r="L28" s="71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="77">
         <v>16</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="21" t="s">
+      <c r="B29" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="77">
+        <v>37</v>
+      </c>
+      <c r="G29" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="77">
+        <v>57</v>
+      </c>
+      <c r="L29" s="79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="72">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>4</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>5</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
-        <v>11</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
-        <v>12</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <v>13</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
-        <v>14</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
-        <v>15</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
-        <v>16</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="B30" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="77">
+        <v>38</v>
+      </c>
+      <c r="G30" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="77">
+        <v>58</v>
+      </c>
+      <c r="L30" s="79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72">
         <v>18</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="B31" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="77">
+        <v>39</v>
+      </c>
+      <c r="G31" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="77">
+        <v>59</v>
+      </c>
+      <c r="L31" s="79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="72">
         <v>19</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
-        <v>20</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>4</v>
+      <c r="B32" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="77">
+        <v>40</v>
+      </c>
+      <c r="G32" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="48">
+        <v>60</v>
+      </c>
+      <c r="L32" s="75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="72">
+        <v>21</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="58">
+        <v>41</v>
+      </c>
+      <c r="G33" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="48">
+        <v>61</v>
+      </c>
+      <c r="L33" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="72">
+        <v>22</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="58">
+        <v>42</v>
+      </c>
+      <c r="G34" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="48">
+        <v>62</v>
+      </c>
+      <c r="L34" s="49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="72">
+        <v>23</v>
+      </c>
+      <c r="B35" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="58">
+        <v>43</v>
+      </c>
+      <c r="G35" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="48">
+        <v>63</v>
+      </c>
+      <c r="L35" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="72">
+        <v>24</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="58">
+        <v>44</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="48">
+        <v>64</v>
+      </c>
+      <c r="L36" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="72">
+        <v>25</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="58">
+        <v>45</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="48">
+        <v>65</v>
+      </c>
+      <c r="L37" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="72">
+        <v>26</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="58">
+        <v>46</v>
+      </c>
+      <c r="G38" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" s="80">
+        <v>66</v>
+      </c>
+      <c r="L38" s="81" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4986,7 +5520,7 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="20">
         <v>2</v>
       </c>
       <c r="N4" s="3">
@@ -5702,7 +6236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -5810,7 +6344,7 @@
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="24">
         <v>0</v>
       </c>
       <c r="G2" s="4">
@@ -5832,9 +6366,9 @@
         <v>5</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="24">
+        <v>3</v>
+      </c>
+      <c r="N2" s="20">
         <v>2</v>
       </c>
       <c r="O2" s="4">
@@ -5896,10 +6430,10 @@
       <c r="E3" s="12">
         <v>0</v>
       </c>
-      <c r="F3" s="40">
-        <v>0</v>
-      </c>
-      <c r="G3" s="36">
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
         <v>5</v>
       </c>
       <c r="H3" s="4">
@@ -5950,7 +6484,7 @@
       <c r="W3" s="9">
         <v>5</v>
       </c>
-      <c r="X3" s="48">
+      <c r="X3" s="38">
         <v>5</v>
       </c>
       <c r="Y3" s="2">
@@ -5982,13 +6516,13 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="31">
         <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="27">
         <v>5</v>
       </c>
       <c r="I4" s="4">
@@ -6003,7 +6537,7 @@
       <c r="L4" s="4">
         <v>5</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="24">
         <v>0</v>
       </c>
       <c r="N4" s="3">
@@ -6036,10 +6570,10 @@
       <c r="W4" s="12">
         <v>0</v>
       </c>
-      <c r="X4" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="33">
+      <c r="X4" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="23">
         <v>0</v>
       </c>
       <c r="Z4" s="3">
@@ -6074,10 +6608,10 @@
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="40">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
         <v>4</v>
       </c>
       <c r="J5" s="4">
@@ -6089,10 +6623,10 @@
       <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="42">
         <v>4</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="23">
         <v>0</v>
       </c>
       <c r="O5" s="4">
@@ -6122,7 +6656,7 @@
       <c r="W5" s="3">
         <v>0</v>
       </c>
-      <c r="X5" s="49">
+      <c r="X5" s="39">
         <v>5</v>
       </c>
       <c r="Y5" s="2">
@@ -6145,7 +6679,7 @@
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
       <c r="D6" s="4">
@@ -6160,7 +6694,7 @@
       <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="25">
         <v>5</v>
       </c>
       <c r="I6" s="4">
@@ -6175,7 +6709,7 @@
       <c r="L6" s="4">
         <v>5</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="25">
         <v>5</v>
       </c>
       <c r="N6" s="4">
@@ -6214,7 +6748,7 @@
       <c r="Y6" s="9">
         <v>5</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6" s="24">
         <v>0</v>
       </c>
       <c r="AA6" s="9">
@@ -6231,10 +6765,10 @@
       <c r="B7" s="12">
         <v>0</v>
       </c>
-      <c r="C7" s="40">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23">
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -6279,7 +6813,7 @@
       <c r="R7" s="4">
         <v>5</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="24">
         <v>0</v>
       </c>
       <c r="T7" s="4">
@@ -6300,10 +6834,10 @@
       <c r="Y7" s="15">
         <v>5</v>
       </c>
-      <c r="Z7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="47">
+      <c r="Z7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="37">
         <v>5</v>
       </c>
       <c r="AB7" s="9">
@@ -6317,7 +6851,7 @@
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="25">
         <v>5</v>
       </c>
       <c r="D8" s="4">
@@ -6329,7 +6863,7 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="27">
         <v>5</v>
       </c>
       <c r="H8" s="4">
@@ -6365,10 +6899,10 @@
       <c r="R8" s="11">
         <v>5</v>
       </c>
-      <c r="S8" s="40">
-        <v>0</v>
-      </c>
-      <c r="T8" s="36">
+      <c r="S8" s="30">
+        <v>0</v>
+      </c>
+      <c r="T8" s="26">
         <v>5</v>
       </c>
       <c r="U8" s="9">
@@ -6386,7 +6920,7 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="41">
+      <c r="Z8" s="31">
         <v>0</v>
       </c>
       <c r="AA8" s="9">
@@ -6415,10 +6949,10 @@
       <c r="F9" s="12">
         <v>0</v>
       </c>
-      <c r="G9" s="40">
-        <v>0</v>
-      </c>
-      <c r="H9" s="33">
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
         <v>0</v>
       </c>
       <c r="I9" s="3">
@@ -6436,7 +6970,7 @@
       <c r="M9" s="4">
         <v>5</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="27">
         <v>5</v>
       </c>
       <c r="O9" s="4">
@@ -6451,7 +6985,7 @@
       <c r="R9" s="4">
         <v>5</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="31">
         <v>0</v>
       </c>
       <c r="T9" s="4">
@@ -6486,7 +7020,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="27">
         <v>5</v>
       </c>
       <c r="C10" s="4">
@@ -6495,13 +7029,13 @@
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="24">
         <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="25">
         <v>5</v>
       </c>
       <c r="H10" s="4">
@@ -6522,10 +7056,10 @@
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="40">
-        <v>0</v>
-      </c>
-      <c r="O10" s="45">
+      <c r="N10" s="30">
+        <v>0</v>
+      </c>
+      <c r="O10" s="35">
         <v>4</v>
       </c>
       <c r="P10" s="3">
@@ -6569,22 +7103,22 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="29">
         <v>4</v>
       </c>
-      <c r="B11" s="40">
-        <v>0</v>
-      </c>
-      <c r="C11" s="33">
+      <c r="B11" s="30">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
         <v>0</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
       </c>
-      <c r="E11" s="40">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
         <v>0</v>
       </c>
       <c r="G11" s="4">
@@ -6608,7 +7142,7 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="31">
         <v>0</v>
       </c>
       <c r="O11" s="3">
@@ -6644,7 +7178,7 @@
       <c r="Y11" s="3">
         <v>0</v>
       </c>
-      <c r="Z11" s="34">
+      <c r="Z11" s="24">
         <v>0</v>
       </c>
       <c r="AA11" s="9">
@@ -6658,7 +7192,7 @@
       <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="25">
         <v>5</v>
       </c>
       <c r="C12" s="4">
@@ -6667,7 +7201,7 @@
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="31">
         <v>0</v>
       </c>
       <c r="F12" s="3">
@@ -6730,10 +7264,10 @@
       <c r="Y12" s="15">
         <v>5</v>
       </c>
-      <c r="Z12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="47">
+      <c r="Z12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="37">
         <v>5</v>
       </c>
       <c r="AB12" s="9">
@@ -6816,10 +7350,10 @@
       <c r="Y13" s="15">
         <v>5</v>
       </c>
-      <c r="Z13" s="58">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="47">
+      <c r="Z13" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="37">
         <v>5</v>
       </c>
       <c r="AB13" s="9">
@@ -6836,7 +7370,7 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="27">
         <v>5</v>
       </c>
       <c r="E14" s="3">
@@ -6902,10 +7436,10 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="34">
+      <c r="Z14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="24">
         <v>0</v>
       </c>
       <c r="AB14" s="9">
@@ -6922,10 +7456,10 @@
       <c r="C15" s="12">
         <v>0</v>
       </c>
-      <c r="D15" s="40">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23">
         <v>0</v>
       </c>
       <c r="F15" s="3">
@@ -6937,7 +7471,7 @@
       <c r="H15" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="27">
         <v>5</v>
       </c>
       <c r="J15" s="4">
@@ -6991,10 +7525,10 @@
       <c r="Z15" s="12">
         <v>0</v>
       </c>
-      <c r="AA15" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="47">
+      <c r="AA15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="37">
         <v>5</v>
       </c>
     </row>
@@ -7008,7 +7542,7 @@
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="25">
         <v>5</v>
       </c>
       <c r="E16" s="3">
@@ -7023,10 +7557,10 @@
       <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="I16" s="40">
-        <v>0</v>
-      </c>
-      <c r="J16" s="45">
+      <c r="I16" s="30">
+        <v>0</v>
+      </c>
+      <c r="J16" s="35">
         <v>4</v>
       </c>
       <c r="K16" s="4">
@@ -7077,7 +7611,7 @@
       <c r="Z16" s="9">
         <v>5</v>
       </c>
-      <c r="AA16" s="49">
+      <c r="AA16" s="39">
         <v>5</v>
       </c>
       <c r="AB16" s="9">
@@ -7086,14 +7620,14 @@
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>21</v>
+      <c r="A18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -7106,17 +7640,17 @@
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="28">
         <v>11</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="44">
         <v>4</v>
       </c>
       <c r="G19" s="6">
         <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7124,23 +7658,23 @@
         <v>3</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="21">
+      <c r="G21" s="17">
         <v>4</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>5</v>
+      <c r="H21" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="23">
-        <v>5</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>2</v>
+      <c r="G22" s="19">
+        <v>5</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7160,64 +7694,64 @@
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56">
-        <v>6</v>
-      </c>
-      <c r="B1" s="56">
-        <v>6</v>
-      </c>
-      <c r="C1" s="56">
-        <v>6</v>
-      </c>
-      <c r="D1" s="56">
-        <v>6</v>
-      </c>
-      <c r="E1" s="56">
-        <v>6</v>
-      </c>
-      <c r="F1" s="56">
-        <v>6</v>
-      </c>
-      <c r="G1" s="56">
-        <v>6</v>
-      </c>
-      <c r="H1" s="56">
-        <v>6</v>
-      </c>
-      <c r="I1" s="56">
-        <v>6</v>
-      </c>
-      <c r="J1" s="56">
-        <v>6</v>
-      </c>
-      <c r="K1" s="56">
-        <v>6</v>
-      </c>
-      <c r="L1" s="56">
-        <v>6</v>
-      </c>
-      <c r="M1" s="56">
-        <v>6</v>
-      </c>
-      <c r="N1" s="56">
-        <v>6</v>
-      </c>
-      <c r="O1" s="56">
-        <v>6</v>
-      </c>
-      <c r="P1" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="56">
-        <v>6</v>
-      </c>
-      <c r="R1" s="56">
-        <v>6</v>
-      </c>
-      <c r="S1" s="56">
-        <v>6</v>
-      </c>
-      <c r="T1" s="56">
+      <c r="A1" s="43">
+        <v>6</v>
+      </c>
+      <c r="B1" s="43">
+        <v>6</v>
+      </c>
+      <c r="C1" s="43">
+        <v>6</v>
+      </c>
+      <c r="D1" s="43">
+        <v>6</v>
+      </c>
+      <c r="E1" s="43">
+        <v>6</v>
+      </c>
+      <c r="F1" s="43">
+        <v>6</v>
+      </c>
+      <c r="G1" s="43">
+        <v>6</v>
+      </c>
+      <c r="H1" s="43">
+        <v>6</v>
+      </c>
+      <c r="I1" s="43">
+        <v>6</v>
+      </c>
+      <c r="J1" s="43">
+        <v>6</v>
+      </c>
+      <c r="K1" s="43">
+        <v>6</v>
+      </c>
+      <c r="L1" s="43">
+        <v>6</v>
+      </c>
+      <c r="M1" s="43">
+        <v>6</v>
+      </c>
+      <c r="N1" s="43">
+        <v>6</v>
+      </c>
+      <c r="O1" s="43">
+        <v>6</v>
+      </c>
+      <c r="P1" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="43">
+        <v>6</v>
+      </c>
+      <c r="R1" s="43">
+        <v>6</v>
+      </c>
+      <c r="S1" s="43">
+        <v>6</v>
+      </c>
+      <c r="T1" s="43">
         <v>6</v>
       </c>
     </row>
@@ -7249,37 +7783,37 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="56">
-        <v>6</v>
-      </c>
-      <c r="K2" s="56">
-        <v>6</v>
-      </c>
-      <c r="L2" s="56">
-        <v>6</v>
-      </c>
-      <c r="M2" s="56">
-        <v>6</v>
-      </c>
-      <c r="N2" s="56">
-        <v>6</v>
-      </c>
-      <c r="O2" s="56">
-        <v>6</v>
-      </c>
-      <c r="P2" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="56">
-        <v>6</v>
-      </c>
-      <c r="R2" s="56">
-        <v>6</v>
-      </c>
-      <c r="S2" s="56">
-        <v>6</v>
-      </c>
-      <c r="T2" s="56">
+      <c r="J2" s="43">
+        <v>6</v>
+      </c>
+      <c r="K2" s="43">
+        <v>6</v>
+      </c>
+      <c r="L2" s="43">
+        <v>6</v>
+      </c>
+      <c r="M2" s="43">
+        <v>6</v>
+      </c>
+      <c r="N2" s="43">
+        <v>6</v>
+      </c>
+      <c r="O2" s="43">
+        <v>6</v>
+      </c>
+      <c r="P2" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>6</v>
+      </c>
+      <c r="R2" s="43">
+        <v>6</v>
+      </c>
+      <c r="S2" s="43">
+        <v>6</v>
+      </c>
+      <c r="T2" s="43">
         <v>6</v>
       </c>
     </row>
@@ -7290,13 +7824,13 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="56">
-        <v>6</v>
-      </c>
-      <c r="D3" s="56">
-        <v>6</v>
-      </c>
-      <c r="E3" s="56">
+      <c r="C3" s="43">
+        <v>6</v>
+      </c>
+      <c r="D3" s="43">
+        <v>6</v>
+      </c>
+      <c r="E3" s="43">
         <v>6</v>
       </c>
       <c r="F3" s="3">
@@ -7323,25 +7857,25 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="22">
         <v>9</v>
       </c>
-      <c r="O3" s="56">
-        <v>6</v>
-      </c>
-      <c r="P3" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="56">
-        <v>6</v>
-      </c>
-      <c r="R3" s="56">
-        <v>6</v>
-      </c>
-      <c r="S3" s="56">
-        <v>6</v>
-      </c>
-      <c r="T3" s="56">
+      <c r="O3" s="43">
+        <v>6</v>
+      </c>
+      <c r="P3" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="43">
+        <v>6</v>
+      </c>
+      <c r="R3" s="43">
+        <v>6</v>
+      </c>
+      <c r="S3" s="43">
+        <v>6</v>
+      </c>
+      <c r="T3" s="43">
         <v>6</v>
       </c>
     </row>
@@ -7352,13 +7886,13 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="56">
-        <v>6</v>
-      </c>
-      <c r="D4" s="56">
-        <v>6</v>
-      </c>
-      <c r="E4" s="56">
+      <c r="C4" s="43">
+        <v>6</v>
+      </c>
+      <c r="D4" s="43">
+        <v>6</v>
+      </c>
+      <c r="E4" s="43">
         <v>6</v>
       </c>
       <c r="F4" s="3">
@@ -7373,37 +7907,37 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="56">
-        <v>6</v>
-      </c>
-      <c r="K4" s="56">
-        <v>6</v>
-      </c>
-      <c r="L4" s="56">
-        <v>6</v>
-      </c>
-      <c r="M4" s="56">
-        <v>6</v>
-      </c>
-      <c r="N4" s="56">
-        <v>6</v>
-      </c>
-      <c r="O4" s="56">
-        <v>6</v>
-      </c>
-      <c r="P4" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="56">
-        <v>6</v>
-      </c>
-      <c r="R4" s="56">
-        <v>6</v>
-      </c>
-      <c r="S4" s="56">
-        <v>6</v>
-      </c>
-      <c r="T4" s="56">
+      <c r="J4" s="43">
+        <v>6</v>
+      </c>
+      <c r="K4" s="43">
+        <v>6</v>
+      </c>
+      <c r="L4" s="43">
+        <v>6</v>
+      </c>
+      <c r="M4" s="43">
+        <v>6</v>
+      </c>
+      <c r="N4" s="43">
+        <v>6</v>
+      </c>
+      <c r="O4" s="43">
+        <v>6</v>
+      </c>
+      <c r="P4" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>6</v>
+      </c>
+      <c r="R4" s="43">
+        <v>6</v>
+      </c>
+      <c r="S4" s="43">
+        <v>6</v>
+      </c>
+      <c r="T4" s="43">
         <v>6</v>
       </c>
     </row>
@@ -7414,13 +7948,13 @@
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="56">
-        <v>6</v>
-      </c>
-      <c r="D5" s="56">
-        <v>6</v>
-      </c>
-      <c r="E5" s="56">
+      <c r="C5" s="43">
+        <v>6</v>
+      </c>
+      <c r="D5" s="43">
+        <v>6</v>
+      </c>
+      <c r="E5" s="43">
         <v>6</v>
       </c>
       <c r="F5" s="2">
@@ -7435,22 +7969,22 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="56">
-        <v>6</v>
-      </c>
-      <c r="K5" s="56">
-        <v>6</v>
-      </c>
-      <c r="L5" s="56">
-        <v>6</v>
-      </c>
-      <c r="M5" s="56">
-        <v>6</v>
-      </c>
-      <c r="N5" s="56">
-        <v>6</v>
-      </c>
-      <c r="O5" s="56">
+      <c r="J5" s="43">
+        <v>6</v>
+      </c>
+      <c r="K5" s="43">
+        <v>6</v>
+      </c>
+      <c r="L5" s="43">
+        <v>6</v>
+      </c>
+      <c r="M5" s="43">
+        <v>6</v>
+      </c>
+      <c r="N5" s="43">
+        <v>6</v>
+      </c>
+      <c r="O5" s="43">
         <v>6</v>
       </c>
       <c r="P5" s="3">
@@ -7465,7 +7999,7 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="56">
+      <c r="T5" s="43">
         <v>6</v>
       </c>
     </row>
@@ -7476,43 +8010,43 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="56">
-        <v>6</v>
-      </c>
-      <c r="D6" s="56">
-        <v>6</v>
-      </c>
-      <c r="E6" s="56">
-        <v>6</v>
-      </c>
-      <c r="F6" s="56">
-        <v>6</v>
-      </c>
-      <c r="G6" s="56">
-        <v>6</v>
-      </c>
-      <c r="H6" s="56">
+      <c r="C6" s="43">
+        <v>6</v>
+      </c>
+      <c r="D6" s="43">
+        <v>6</v>
+      </c>
+      <c r="E6" s="43">
+        <v>6</v>
+      </c>
+      <c r="F6" s="43">
+        <v>6</v>
+      </c>
+      <c r="G6" s="43">
+        <v>6</v>
+      </c>
+      <c r="H6" s="43">
         <v>6</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="56">
-        <v>6</v>
-      </c>
-      <c r="K6" s="56">
-        <v>6</v>
-      </c>
-      <c r="L6" s="56">
-        <v>6</v>
-      </c>
-      <c r="M6" s="56">
-        <v>6</v>
-      </c>
-      <c r="N6" s="56">
-        <v>6</v>
-      </c>
-      <c r="O6" s="56">
+      <c r="J6" s="43">
+        <v>6</v>
+      </c>
+      <c r="K6" s="43">
+        <v>6</v>
+      </c>
+      <c r="L6" s="43">
+        <v>6</v>
+      </c>
+      <c r="M6" s="43">
+        <v>6</v>
+      </c>
+      <c r="N6" s="43">
+        <v>6</v>
+      </c>
+      <c r="O6" s="43">
         <v>6</v>
       </c>
       <c r="P6" s="3">
@@ -7527,54 +8061,54 @@
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="56">
+      <c r="T6" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="20">
         <v>2</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="56">
-        <v>6</v>
-      </c>
-      <c r="D7" s="56">
-        <v>6</v>
-      </c>
-      <c r="E7" s="56">
-        <v>6</v>
-      </c>
-      <c r="F7" s="56">
-        <v>6</v>
-      </c>
-      <c r="G7" s="56">
-        <v>6</v>
-      </c>
-      <c r="H7" s="56">
+      <c r="C7" s="43">
+        <v>6</v>
+      </c>
+      <c r="D7" s="43">
+        <v>6</v>
+      </c>
+      <c r="E7" s="43">
+        <v>6</v>
+      </c>
+      <c r="F7" s="43">
+        <v>6</v>
+      </c>
+      <c r="G7" s="43">
+        <v>6</v>
+      </c>
+      <c r="H7" s="43">
         <v>6</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="56">
-        <v>6</v>
-      </c>
-      <c r="K7" s="56">
-        <v>6</v>
-      </c>
-      <c r="L7" s="56">
-        <v>6</v>
-      </c>
-      <c r="M7" s="56">
-        <v>6</v>
-      </c>
-      <c r="N7" s="56">
-        <v>6</v>
-      </c>
-      <c r="O7" s="56">
+      <c r="J7" s="43">
+        <v>6</v>
+      </c>
+      <c r="K7" s="43">
+        <v>6</v>
+      </c>
+      <c r="L7" s="43">
+        <v>6</v>
+      </c>
+      <c r="M7" s="43">
+        <v>6</v>
+      </c>
+      <c r="N7" s="43">
+        <v>6</v>
+      </c>
+      <c r="O7" s="43">
         <v>6</v>
       </c>
       <c r="P7" s="3">
@@ -7589,7 +8123,7 @@
       <c r="S7" s="3">
         <v>0</v>
       </c>
-      <c r="T7" s="56">
+      <c r="T7" s="43">
         <v>6</v>
       </c>
     </row>
@@ -7600,43 +8134,43 @@
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="56">
-        <v>6</v>
-      </c>
-      <c r="D8" s="56">
-        <v>6</v>
-      </c>
-      <c r="E8" s="56">
-        <v>6</v>
-      </c>
-      <c r="F8" s="56">
-        <v>6</v>
-      </c>
-      <c r="G8" s="56">
-        <v>6</v>
-      </c>
-      <c r="H8" s="56">
+      <c r="C8" s="43">
+        <v>6</v>
+      </c>
+      <c r="D8" s="43">
+        <v>6</v>
+      </c>
+      <c r="E8" s="43">
+        <v>6</v>
+      </c>
+      <c r="F8" s="43">
+        <v>6</v>
+      </c>
+      <c r="G8" s="43">
+        <v>6</v>
+      </c>
+      <c r="H8" s="43">
         <v>6</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="56">
-        <v>6</v>
-      </c>
-      <c r="K8" s="56">
-        <v>6</v>
-      </c>
-      <c r="L8" s="56">
-        <v>6</v>
-      </c>
-      <c r="M8" s="56">
-        <v>6</v>
-      </c>
-      <c r="N8" s="56">
-        <v>6</v>
-      </c>
-      <c r="O8" s="56">
+      <c r="J8" s="43">
+        <v>6</v>
+      </c>
+      <c r="K8" s="43">
+        <v>6</v>
+      </c>
+      <c r="L8" s="43">
+        <v>6</v>
+      </c>
+      <c r="M8" s="43">
+        <v>6</v>
+      </c>
+      <c r="N8" s="43">
+        <v>6</v>
+      </c>
+      <c r="O8" s="43">
         <v>6</v>
       </c>
       <c r="P8" s="2">
@@ -7651,21 +8185,21 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="56">
+      <c r="T8" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
-        <v>6</v>
-      </c>
-      <c r="B9" s="56">
-        <v>6</v>
-      </c>
-      <c r="C9" s="56">
-        <v>6</v>
-      </c>
-      <c r="D9" s="56">
+      <c r="A9" s="43">
+        <v>6</v>
+      </c>
+      <c r="B9" s="43">
+        <v>6</v>
+      </c>
+      <c r="C9" s="43">
+        <v>6</v>
+      </c>
+      <c r="D9" s="43">
         <v>6</v>
       </c>
       <c r="E9" s="3">
@@ -7683,22 +8217,22 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="56">
-        <v>6</v>
-      </c>
-      <c r="K9" s="56">
-        <v>6</v>
-      </c>
-      <c r="L9" s="56">
-        <v>6</v>
-      </c>
-      <c r="M9" s="56">
-        <v>6</v>
-      </c>
-      <c r="N9" s="56">
-        <v>6</v>
-      </c>
-      <c r="O9" s="56">
+      <c r="J9" s="43">
+        <v>6</v>
+      </c>
+      <c r="K9" s="43">
+        <v>6</v>
+      </c>
+      <c r="L9" s="43">
+        <v>6</v>
+      </c>
+      <c r="M9" s="43">
+        <v>6</v>
+      </c>
+      <c r="N9" s="43">
+        <v>6</v>
+      </c>
+      <c r="O9" s="43">
         <v>6</v>
       </c>
       <c r="P9" s="3">
@@ -7713,54 +8247,54 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="56">
+      <c r="T9" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
-        <v>6</v>
-      </c>
-      <c r="B10" s="56">
-        <v>6</v>
-      </c>
-      <c r="C10" s="56">
-        <v>6</v>
-      </c>
-      <c r="D10" s="56">
+      <c r="A10" s="43">
+        <v>6</v>
+      </c>
+      <c r="B10" s="43">
+        <v>6</v>
+      </c>
+      <c r="C10" s="43">
+        <v>6</v>
+      </c>
+      <c r="D10" s="43">
         <v>6</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="56">
-        <v>6</v>
-      </c>
-      <c r="G10" s="56">
-        <v>6</v>
-      </c>
-      <c r="H10" s="56">
-        <v>6</v>
-      </c>
-      <c r="I10" s="56">
-        <v>6</v>
-      </c>
-      <c r="J10" s="56">
-        <v>6</v>
-      </c>
-      <c r="K10" s="56">
-        <v>6</v>
-      </c>
-      <c r="L10" s="56">
-        <v>6</v>
-      </c>
-      <c r="M10" s="56">
-        <v>6</v>
-      </c>
-      <c r="N10" s="56">
-        <v>6</v>
-      </c>
-      <c r="O10" s="56">
+      <c r="F10" s="43">
+        <v>6</v>
+      </c>
+      <c r="G10" s="43">
+        <v>6</v>
+      </c>
+      <c r="H10" s="43">
+        <v>6</v>
+      </c>
+      <c r="I10" s="43">
+        <v>6</v>
+      </c>
+      <c r="J10" s="43">
+        <v>6</v>
+      </c>
+      <c r="K10" s="43">
+        <v>6</v>
+      </c>
+      <c r="L10" s="43">
+        <v>6</v>
+      </c>
+      <c r="M10" s="43">
+        <v>6</v>
+      </c>
+      <c r="N10" s="43">
+        <v>6</v>
+      </c>
+      <c r="O10" s="43">
         <v>6</v>
       </c>
       <c r="P10" s="3">
@@ -7775,54 +8309,54 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="56">
+      <c r="T10" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
-        <v>6</v>
-      </c>
-      <c r="B11" s="56">
-        <v>6</v>
-      </c>
-      <c r="C11" s="56">
-        <v>6</v>
-      </c>
-      <c r="D11" s="56">
+      <c r="A11" s="43">
+        <v>6</v>
+      </c>
+      <c r="B11" s="43">
+        <v>6</v>
+      </c>
+      <c r="C11" s="43">
+        <v>6</v>
+      </c>
+      <c r="D11" s="43">
         <v>6</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="56">
-        <v>6</v>
-      </c>
-      <c r="G11" s="56">
-        <v>6</v>
-      </c>
-      <c r="H11" s="56">
-        <v>6</v>
-      </c>
-      <c r="I11" s="56">
-        <v>6</v>
-      </c>
-      <c r="J11" s="56">
-        <v>6</v>
-      </c>
-      <c r="K11" s="56">
-        <v>6</v>
-      </c>
-      <c r="L11" s="56">
-        <v>6</v>
-      </c>
-      <c r="M11" s="56">
-        <v>6</v>
-      </c>
-      <c r="N11" s="56">
-        <v>6</v>
-      </c>
-      <c r="O11" s="56">
+      <c r="F11" s="43">
+        <v>6</v>
+      </c>
+      <c r="G11" s="43">
+        <v>6</v>
+      </c>
+      <c r="H11" s="43">
+        <v>6</v>
+      </c>
+      <c r="I11" s="43">
+        <v>6</v>
+      </c>
+      <c r="J11" s="43">
+        <v>6</v>
+      </c>
+      <c r="K11" s="43">
+        <v>6</v>
+      </c>
+      <c r="L11" s="43">
+        <v>6</v>
+      </c>
+      <c r="M11" s="43">
+        <v>6</v>
+      </c>
+      <c r="N11" s="43">
+        <v>6</v>
+      </c>
+      <c r="O11" s="43">
         <v>6</v>
       </c>
       <c r="P11" s="3">
@@ -7837,15 +8371,15 @@
       <c r="S11" s="3">
         <v>0</v>
       </c>
-      <c r="T11" s="56">
+      <c r="T11" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
-        <v>6</v>
-      </c>
-      <c r="B12" s="56">
+      <c r="A12" s="43">
+        <v>6</v>
+      </c>
+      <c r="B12" s="43">
         <v>6</v>
       </c>
       <c r="C12" s="3">
@@ -7866,25 +8400,25 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="56">
-        <v>6</v>
-      </c>
-      <c r="J12" s="56">
-        <v>6</v>
-      </c>
-      <c r="K12" s="56">
-        <v>6</v>
-      </c>
-      <c r="L12" s="56">
-        <v>6</v>
-      </c>
-      <c r="M12" s="56">
-        <v>6</v>
-      </c>
-      <c r="N12" s="56">
-        <v>6</v>
-      </c>
-      <c r="O12" s="56">
+      <c r="I12" s="43">
+        <v>6</v>
+      </c>
+      <c r="J12" s="43">
+        <v>6</v>
+      </c>
+      <c r="K12" s="43">
+        <v>6</v>
+      </c>
+      <c r="L12" s="43">
+        <v>6</v>
+      </c>
+      <c r="M12" s="43">
+        <v>6</v>
+      </c>
+      <c r="N12" s="43">
+        <v>6</v>
+      </c>
+      <c r="O12" s="43">
         <v>6</v>
       </c>
       <c r="P12" s="3">
@@ -7899,15 +8433,15 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-      <c r="T12" s="56">
+      <c r="T12" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
-        <v>6</v>
-      </c>
-      <c r="B13" s="56">
+      <c r="A13" s="43">
+        <v>6</v>
+      </c>
+      <c r="B13" s="43">
         <v>6</v>
       </c>
       <c r="C13" s="3">
@@ -7961,15 +8495,15 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-      <c r="T13" s="56">
+      <c r="T13" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
-        <v>6</v>
-      </c>
-      <c r="B14" s="56">
+      <c r="A14" s="43">
+        <v>6</v>
+      </c>
+      <c r="B14" s="43">
         <v>6</v>
       </c>
       <c r="C14" s="3">
@@ -7990,102 +8524,102 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="56">
-        <v>6</v>
-      </c>
-      <c r="J14" s="56">
-        <v>6</v>
-      </c>
-      <c r="K14" s="56">
-        <v>6</v>
-      </c>
-      <c r="L14" s="56">
-        <v>6</v>
-      </c>
-      <c r="M14" s="56">
-        <v>6</v>
-      </c>
-      <c r="N14" s="56">
-        <v>6</v>
-      </c>
-      <c r="O14" s="56">
-        <v>6</v>
-      </c>
-      <c r="P14" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="56">
-        <v>6</v>
-      </c>
-      <c r="R14" s="56">
-        <v>6</v>
-      </c>
-      <c r="S14" s="56">
-        <v>6</v>
-      </c>
-      <c r="T14" s="56">
+      <c r="I14" s="43">
+        <v>6</v>
+      </c>
+      <c r="J14" s="43">
+        <v>6</v>
+      </c>
+      <c r="K14" s="43">
+        <v>6</v>
+      </c>
+      <c r="L14" s="43">
+        <v>6</v>
+      </c>
+      <c r="M14" s="43">
+        <v>6</v>
+      </c>
+      <c r="N14" s="43">
+        <v>6</v>
+      </c>
+      <c r="O14" s="43">
+        <v>6</v>
+      </c>
+      <c r="P14" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="43">
+        <v>6</v>
+      </c>
+      <c r="R14" s="43">
+        <v>6</v>
+      </c>
+      <c r="S14" s="43">
+        <v>6</v>
+      </c>
+      <c r="T14" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
-        <v>6</v>
-      </c>
-      <c r="B15" s="56">
-        <v>6</v>
-      </c>
-      <c r="C15" s="56">
-        <v>6</v>
-      </c>
-      <c r="D15" s="56">
-        <v>6</v>
-      </c>
-      <c r="E15" s="56">
-        <v>6</v>
-      </c>
-      <c r="F15" s="56">
-        <v>6</v>
-      </c>
-      <c r="G15" s="56">
-        <v>6</v>
-      </c>
-      <c r="H15" s="56">
-        <v>6</v>
-      </c>
-      <c r="I15" s="56">
-        <v>6</v>
-      </c>
-      <c r="J15" s="56">
-        <v>6</v>
-      </c>
-      <c r="K15" s="56">
-        <v>6</v>
-      </c>
-      <c r="L15" s="56">
-        <v>6</v>
-      </c>
-      <c r="M15" s="56">
-        <v>6</v>
-      </c>
-      <c r="N15" s="56">
-        <v>6</v>
-      </c>
-      <c r="O15" s="56">
-        <v>6</v>
-      </c>
-      <c r="P15" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="56">
-        <v>6</v>
-      </c>
-      <c r="R15" s="56">
-        <v>6</v>
-      </c>
-      <c r="S15" s="56">
-        <v>6</v>
-      </c>
-      <c r="T15" s="56">
+      <c r="A15" s="43">
+        <v>6</v>
+      </c>
+      <c r="B15" s="43">
+        <v>6</v>
+      </c>
+      <c r="C15" s="43">
+        <v>6</v>
+      </c>
+      <c r="D15" s="43">
+        <v>6</v>
+      </c>
+      <c r="E15" s="43">
+        <v>6</v>
+      </c>
+      <c r="F15" s="43">
+        <v>6</v>
+      </c>
+      <c r="G15" s="43">
+        <v>6</v>
+      </c>
+      <c r="H15" s="43">
+        <v>6</v>
+      </c>
+      <c r="I15" s="43">
+        <v>6</v>
+      </c>
+      <c r="J15" s="43">
+        <v>6</v>
+      </c>
+      <c r="K15" s="43">
+        <v>6</v>
+      </c>
+      <c r="L15" s="43">
+        <v>6</v>
+      </c>
+      <c r="M15" s="43">
+        <v>6</v>
+      </c>
+      <c r="N15" s="43">
+        <v>6</v>
+      </c>
+      <c r="O15" s="43">
+        <v>6</v>
+      </c>
+      <c r="P15" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="43">
+        <v>6</v>
+      </c>
+      <c r="R15" s="43">
+        <v>6</v>
+      </c>
+      <c r="S15" s="43">
+        <v>6</v>
+      </c>
+      <c r="T15" s="43">
         <v>6</v>
       </c>
     </row>
@@ -8132,7 +8666,7 @@
       <c r="I1" s="3">
         <v>0</v>
       </c>
-      <c r="J1" s="24">
+      <c r="J1" s="20">
         <v>2</v>
       </c>
       <c r="K1" s="4">
@@ -8206,7 +8740,7 @@
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="24">
         <v>0</v>
       </c>
       <c r="G2" s="4">
@@ -8219,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K2" s="4">
         <v>5</v>
@@ -8292,10 +8826,10 @@
       <c r="E3" s="12">
         <v>0</v>
       </c>
-      <c r="F3" s="40">
-        <v>0</v>
-      </c>
-      <c r="G3" s="36">
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
         <v>5</v>
       </c>
       <c r="H3" s="4">
@@ -8346,7 +8880,7 @@
       <c r="W3" s="9">
         <v>5</v>
       </c>
-      <c r="X3" s="48">
+      <c r="X3" s="38">
         <v>5</v>
       </c>
       <c r="Y3" s="2">
@@ -8378,13 +8912,13 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="31">
         <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="27">
         <v>5</v>
       </c>
       <c r="I4" s="4">
@@ -8399,7 +8933,7 @@
       <c r="L4" s="4">
         <v>5</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="24">
         <v>0</v>
       </c>
       <c r="N4" s="3">
@@ -8420,7 +8954,7 @@
       <c r="S4" s="3">
         <v>0</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="22">
         <v>9</v>
       </c>
       <c r="U4" s="9">
@@ -8432,10 +8966,10 @@
       <c r="W4" s="12">
         <v>0</v>
       </c>
-      <c r="X4" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="33">
+      <c r="X4" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="23">
         <v>0</v>
       </c>
       <c r="Z4" s="3">
@@ -8470,10 +9004,10 @@
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="40">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
         <v>4</v>
       </c>
       <c r="J5" s="4">
@@ -8485,10 +9019,10 @@
       <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="46">
         <v>4</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="23">
         <v>0</v>
       </c>
       <c r="O5" s="4">
@@ -8518,7 +9052,7 @@
       <c r="W5" s="3">
         <v>0</v>
       </c>
-      <c r="X5" s="49">
+      <c r="X5" s="39">
         <v>5</v>
       </c>
       <c r="Y5" s="2">
@@ -8541,7 +9075,7 @@
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
       <c r="D6" s="4">
@@ -8556,7 +9090,7 @@
       <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="25">
         <v>5</v>
       </c>
       <c r="I6" s="4">
@@ -8571,7 +9105,7 @@
       <c r="L6" s="4">
         <v>5</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="25">
         <v>5</v>
       </c>
       <c r="N6" s="4">
@@ -8610,7 +9144,7 @@
       <c r="Y6" s="9">
         <v>5</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6" s="24">
         <v>0</v>
       </c>
       <c r="AA6" s="9">
@@ -8627,10 +9161,10 @@
       <c r="B7" s="12">
         <v>0</v>
       </c>
-      <c r="C7" s="40">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23">
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -8675,7 +9209,7 @@
       <c r="R7" s="4">
         <v>5</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="24">
         <v>0</v>
       </c>
       <c r="T7" s="4">
@@ -8696,10 +9230,10 @@
       <c r="Y7" s="15">
         <v>5</v>
       </c>
-      <c r="Z7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="47">
+      <c r="Z7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="37">
         <v>5</v>
       </c>
       <c r="AB7" s="9">
@@ -8713,7 +9247,7 @@
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="25">
         <v>5</v>
       </c>
       <c r="D8" s="4">
@@ -8725,7 +9259,7 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="27">
         <v>5</v>
       </c>
       <c r="H8" s="4">
@@ -8761,10 +9295,10 @@
       <c r="R8" s="11">
         <v>5</v>
       </c>
-      <c r="S8" s="40">
-        <v>0</v>
-      </c>
-      <c r="T8" s="36">
+      <c r="S8" s="30">
+        <v>0</v>
+      </c>
+      <c r="T8" s="26">
         <v>5</v>
       </c>
       <c r="U8" s="9">
@@ -8782,7 +9316,7 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="41">
+      <c r="Z8" s="31">
         <v>0</v>
       </c>
       <c r="AA8" s="9">
@@ -8811,10 +9345,10 @@
       <c r="F9" s="12">
         <v>0</v>
       </c>
-      <c r="G9" s="58">
-        <v>0</v>
-      </c>
-      <c r="H9" s="33">
+      <c r="G9" s="45">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
         <v>0</v>
       </c>
       <c r="I9" s="3">
@@ -8832,7 +9366,7 @@
       <c r="M9" s="4">
         <v>5</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="27">
         <v>5</v>
       </c>
       <c r="O9" s="4">
@@ -8847,7 +9381,7 @@
       <c r="R9" s="4">
         <v>5</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="31">
         <v>0</v>
       </c>
       <c r="T9" s="4">
@@ -8882,7 +9416,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="27">
         <v>5</v>
       </c>
       <c r="C10" s="4">
@@ -8891,13 +9425,13 @@
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="24">
         <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="25">
         <v>5</v>
       </c>
       <c r="H10" s="4">
@@ -8918,10 +9452,10 @@
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="58">
-        <v>0</v>
-      </c>
-      <c r="O10" s="45">
+      <c r="N10" s="45">
+        <v>0</v>
+      </c>
+      <c r="O10" s="35">
         <v>4</v>
       </c>
       <c r="P10" s="3">
@@ -8965,22 +9499,22 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="29">
         <v>4</v>
       </c>
-      <c r="B11" s="40">
-        <v>0</v>
-      </c>
-      <c r="C11" s="33">
+      <c r="B11" s="30">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
         <v>0</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
       </c>
-      <c r="E11" s="58">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="45">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
         <v>0</v>
       </c>
       <c r="G11" s="4">
@@ -9004,7 +9538,7 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="31">
         <v>0</v>
       </c>
       <c r="O11" s="3">
@@ -9040,7 +9574,7 @@
       <c r="Y11" s="3">
         <v>0</v>
       </c>
-      <c r="Z11" s="34">
+      <c r="Z11" s="24">
         <v>0</v>
       </c>
       <c r="AA11" s="9">
@@ -9054,7 +9588,7 @@
       <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="25">
         <v>5</v>
       </c>
       <c r="C12" s="4">
@@ -9063,7 +9597,7 @@
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="31">
         <v>0</v>
       </c>
       <c r="F12" s="3">
@@ -9126,10 +9660,10 @@
       <c r="Y12" s="15">
         <v>5</v>
       </c>
-      <c r="Z12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="47">
+      <c r="Z12" s="45">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="37">
         <v>5</v>
       </c>
       <c r="AB12" s="9">
@@ -9212,7 +9746,7 @@
       <c r="Y13" s="9">
         <v>5</v>
       </c>
-      <c r="Z13" s="41">
+      <c r="Z13" s="31">
         <v>0</v>
       </c>
       <c r="AA13" s="9">
@@ -9232,7 +9766,7 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="27">
         <v>5</v>
       </c>
       <c r="E14" s="3">
@@ -9301,7 +9835,7 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="34">
+      <c r="AA14" s="24">
         <v>0</v>
       </c>
       <c r="AB14" s="9">
@@ -9318,10 +9852,10 @@
       <c r="C15" s="12">
         <v>0</v>
       </c>
-      <c r="D15" s="58">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D15" s="45">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23">
         <v>0</v>
       </c>
       <c r="F15" s="3">
@@ -9333,7 +9867,7 @@
       <c r="H15" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="27">
         <v>5</v>
       </c>
       <c r="J15" s="4">
@@ -9390,7 +9924,7 @@
       <c r="AA15" s="5">
         <v>3</v>
       </c>
-      <c r="AB15" s="47">
+      <c r="AB15" s="37">
         <v>5</v>
       </c>
     </row>
@@ -9404,7 +9938,7 @@
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="25">
         <v>5</v>
       </c>
       <c r="E16" s="3">
@@ -9419,10 +9953,10 @@
       <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="I16" s="40">
-        <v>0</v>
-      </c>
-      <c r="J16" s="45">
+      <c r="I16" s="30">
+        <v>0</v>
+      </c>
+      <c r="J16" s="35">
         <v>4</v>
       </c>
       <c r="K16" s="4">
@@ -9473,7 +10007,7 @@
       <c r="Z16" s="9">
         <v>5</v>
       </c>
-      <c r="AA16" s="49">
+      <c r="AA16" s="39">
         <v>5</v>
       </c>
       <c r="AB16" s="9">
@@ -9482,14 +10016,14 @@
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>21</v>
+      <c r="A18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -9502,17 +10036,17 @@
       <c r="A19" s="2">
         <v>20</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="28">
         <v>7</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="44">
         <v>8</v>
       </c>
       <c r="G19" s="6">
         <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -9520,31 +10054,31 @@
         <v>3</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="21">
+      <c r="G21" s="17">
         <v>4</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>5</v>
+      <c r="H21" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="23">
-        <v>5</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>2</v>
+      <c r="G22" s="19">
+        <v>5</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="27">
+      <c r="G23" s="21">
         <v>9</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>20</v>
+      <c r="H23" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9564,69 +10098,69 @@
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56">
-        <v>6</v>
-      </c>
-      <c r="B1" s="56">
-        <v>6</v>
-      </c>
-      <c r="C1" s="56">
-        <v>6</v>
-      </c>
-      <c r="D1" s="56">
-        <v>6</v>
-      </c>
-      <c r="E1" s="56">
-        <v>6</v>
-      </c>
-      <c r="F1" s="56">
-        <v>6</v>
-      </c>
-      <c r="G1" s="56">
-        <v>6</v>
-      </c>
-      <c r="H1" s="56">
-        <v>6</v>
-      </c>
-      <c r="I1" s="56">
-        <v>6</v>
-      </c>
-      <c r="J1" s="56">
-        <v>6</v>
-      </c>
-      <c r="K1" s="56">
-        <v>6</v>
-      </c>
-      <c r="L1" s="56">
-        <v>6</v>
-      </c>
-      <c r="M1" s="56">
-        <v>6</v>
-      </c>
-      <c r="N1" s="56">
-        <v>6</v>
-      </c>
-      <c r="O1" s="56">
-        <v>6</v>
-      </c>
-      <c r="P1" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="56">
-        <v>6</v>
-      </c>
-      <c r="R1" s="56">
-        <v>6</v>
-      </c>
-      <c r="S1" s="56">
-        <v>6</v>
-      </c>
-      <c r="T1" s="56">
+      <c r="A1" s="43">
+        <v>6</v>
+      </c>
+      <c r="B1" s="43">
+        <v>6</v>
+      </c>
+      <c r="C1" s="43">
+        <v>6</v>
+      </c>
+      <c r="D1" s="43">
+        <v>6</v>
+      </c>
+      <c r="E1" s="43">
+        <v>6</v>
+      </c>
+      <c r="F1" s="43">
+        <v>6</v>
+      </c>
+      <c r="G1" s="43">
+        <v>6</v>
+      </c>
+      <c r="H1" s="43">
+        <v>6</v>
+      </c>
+      <c r="I1" s="43">
+        <v>6</v>
+      </c>
+      <c r="J1" s="43">
+        <v>6</v>
+      </c>
+      <c r="K1" s="43">
+        <v>6</v>
+      </c>
+      <c r="L1" s="43">
+        <v>6</v>
+      </c>
+      <c r="M1" s="43">
+        <v>6</v>
+      </c>
+      <c r="N1" s="43">
+        <v>6</v>
+      </c>
+      <c r="O1" s="43">
+        <v>6</v>
+      </c>
+      <c r="P1" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="43">
+        <v>6</v>
+      </c>
+      <c r="R1" s="43">
+        <v>6</v>
+      </c>
+      <c r="S1" s="43">
+        <v>6</v>
+      </c>
+      <c r="T1" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="43">
         <v>6</v>
       </c>
       <c r="B2" s="2">
@@ -9638,19 +10172,19 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="56">
-        <v>6</v>
-      </c>
-      <c r="F2" s="56">
-        <v>6</v>
-      </c>
-      <c r="G2" s="56">
-        <v>6</v>
-      </c>
-      <c r="H2" s="56">
-        <v>6</v>
-      </c>
-      <c r="I2" s="56">
+      <c r="E2" s="43">
+        <v>6</v>
+      </c>
+      <c r="F2" s="43">
+        <v>6</v>
+      </c>
+      <c r="G2" s="43">
+        <v>6</v>
+      </c>
+      <c r="H2" s="43">
+        <v>6</v>
+      </c>
+      <c r="I2" s="43">
         <v>6</v>
       </c>
       <c r="J2" s="3">
@@ -9659,36 +10193,36 @@
       <c r="K2" s="5">
         <v>3</v>
       </c>
-      <c r="L2" s="56">
-        <v>6</v>
-      </c>
-      <c r="M2" s="56">
-        <v>6</v>
-      </c>
-      <c r="N2" s="56">
-        <v>6</v>
-      </c>
-      <c r="O2" s="56">
-        <v>6</v>
-      </c>
-      <c r="P2" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="56">
-        <v>6</v>
-      </c>
-      <c r="R2" s="56">
-        <v>6</v>
-      </c>
-      <c r="S2" s="56">
-        <v>6</v>
-      </c>
-      <c r="T2" s="56">
+      <c r="L2" s="43">
+        <v>6</v>
+      </c>
+      <c r="M2" s="43">
+        <v>6</v>
+      </c>
+      <c r="N2" s="43">
+        <v>6</v>
+      </c>
+      <c r="O2" s="43">
+        <v>6</v>
+      </c>
+      <c r="P2" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>6</v>
+      </c>
+      <c r="R2" s="43">
+        <v>6</v>
+      </c>
+      <c r="S2" s="43">
+        <v>6</v>
+      </c>
+      <c r="T2" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+      <c r="A3" s="43">
         <v>6</v>
       </c>
       <c r="B3" s="3">
@@ -9700,19 +10234,19 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="56">
-        <v>6</v>
-      </c>
-      <c r="F3" s="56">
-        <v>6</v>
-      </c>
-      <c r="G3" s="56">
-        <v>6</v>
-      </c>
-      <c r="H3" s="56">
-        <v>6</v>
-      </c>
-      <c r="I3" s="56">
+      <c r="E3" s="43">
+        <v>6</v>
+      </c>
+      <c r="F3" s="43">
+        <v>6</v>
+      </c>
+      <c r="G3" s="43">
+        <v>6</v>
+      </c>
+      <c r="H3" s="43">
+        <v>6</v>
+      </c>
+      <c r="I3" s="43">
         <v>6</v>
       </c>
       <c r="J3" s="3">
@@ -9721,36 +10255,36 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="56">
-        <v>6</v>
-      </c>
-      <c r="M3" s="56">
-        <v>6</v>
-      </c>
-      <c r="N3" s="56">
-        <v>6</v>
-      </c>
-      <c r="O3" s="56">
-        <v>6</v>
-      </c>
-      <c r="P3" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="56">
-        <v>6</v>
-      </c>
-      <c r="R3" s="56">
-        <v>6</v>
-      </c>
-      <c r="S3" s="56">
-        <v>6</v>
-      </c>
-      <c r="T3" s="56">
+      <c r="L3" s="43">
+        <v>6</v>
+      </c>
+      <c r="M3" s="43">
+        <v>6</v>
+      </c>
+      <c r="N3" s="43">
+        <v>6</v>
+      </c>
+      <c r="O3" s="43">
+        <v>6</v>
+      </c>
+      <c r="P3" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="43">
+        <v>6</v>
+      </c>
+      <c r="R3" s="43">
+        <v>6</v>
+      </c>
+      <c r="S3" s="43">
+        <v>6</v>
+      </c>
+      <c r="T3" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="43">
         <v>6</v>
       </c>
       <c r="B4" s="3">
@@ -9762,57 +10296,57 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="56">
-        <v>6</v>
-      </c>
-      <c r="F4" s="56">
-        <v>6</v>
-      </c>
-      <c r="G4" s="56">
-        <v>6</v>
-      </c>
-      <c r="H4" s="56">
-        <v>6</v>
-      </c>
-      <c r="I4" s="56">
+      <c r="E4" s="43">
+        <v>6</v>
+      </c>
+      <c r="F4" s="43">
+        <v>6</v>
+      </c>
+      <c r="G4" s="43">
+        <v>6</v>
+      </c>
+      <c r="H4" s="43">
+        <v>6</v>
+      </c>
+      <c r="I4" s="43">
         <v>6</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="56">
-        <v>6</v>
-      </c>
-      <c r="L4" s="56">
-        <v>6</v>
-      </c>
-      <c r="M4" s="56">
-        <v>6</v>
-      </c>
-      <c r="N4" s="56">
-        <v>6</v>
-      </c>
-      <c r="O4" s="56">
-        <v>6</v>
-      </c>
-      <c r="P4" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="56">
-        <v>6</v>
-      </c>
-      <c r="R4" s="56">
-        <v>6</v>
-      </c>
-      <c r="S4" s="56">
-        <v>6</v>
-      </c>
-      <c r="T4" s="56">
+      <c r="K4" s="43">
+        <v>6</v>
+      </c>
+      <c r="L4" s="43">
+        <v>6</v>
+      </c>
+      <c r="M4" s="43">
+        <v>6</v>
+      </c>
+      <c r="N4" s="43">
+        <v>6</v>
+      </c>
+      <c r="O4" s="43">
+        <v>6</v>
+      </c>
+      <c r="P4" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>6</v>
+      </c>
+      <c r="R4" s="43">
+        <v>6</v>
+      </c>
+      <c r="S4" s="43">
+        <v>6</v>
+      </c>
+      <c r="T4" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="43">
         <v>6</v>
       </c>
       <c r="B5" s="3">
@@ -9824,40 +10358,40 @@
       <c r="D5" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="56">
-        <v>6</v>
-      </c>
-      <c r="F5" s="56">
-        <v>6</v>
-      </c>
-      <c r="G5" s="56">
-        <v>6</v>
-      </c>
-      <c r="H5" s="56">
-        <v>6</v>
-      </c>
-      <c r="I5" s="56">
+      <c r="E5" s="43">
+        <v>6</v>
+      </c>
+      <c r="F5" s="43">
+        <v>6</v>
+      </c>
+      <c r="G5" s="43">
+        <v>6</v>
+      </c>
+      <c r="H5" s="43">
+        <v>6</v>
+      </c>
+      <c r="I5" s="43">
         <v>6</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="56">
-        <v>6</v>
-      </c>
-      <c r="L5" s="56">
-        <v>6</v>
-      </c>
-      <c r="M5" s="56">
-        <v>6</v>
-      </c>
-      <c r="N5" s="56">
-        <v>6</v>
-      </c>
-      <c r="O5" s="56">
-        <v>6</v>
-      </c>
-      <c r="P5" s="56">
+      <c r="K5" s="43">
+        <v>6</v>
+      </c>
+      <c r="L5" s="43">
+        <v>6</v>
+      </c>
+      <c r="M5" s="43">
+        <v>6</v>
+      </c>
+      <c r="N5" s="43">
+        <v>6</v>
+      </c>
+      <c r="O5" s="43">
+        <v>6</v>
+      </c>
+      <c r="P5" s="43">
         <v>6</v>
       </c>
       <c r="Q5" s="3">
@@ -9869,30 +10403,30 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="56">
+      <c r="T5" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
-        <v>6</v>
-      </c>
-      <c r="B6" s="56">
+      <c r="A6" s="43">
+        <v>6</v>
+      </c>
+      <c r="B6" s="43">
         <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="56">
-        <v>6</v>
-      </c>
-      <c r="E6" s="56">
-        <v>6</v>
-      </c>
-      <c r="F6" s="56">
-        <v>6</v>
-      </c>
-      <c r="G6" s="56">
+      <c r="D6" s="43">
+        <v>6</v>
+      </c>
+      <c r="E6" s="43">
+        <v>6</v>
+      </c>
+      <c r="F6" s="43">
+        <v>6</v>
+      </c>
+      <c r="G6" s="43">
         <v>6</v>
       </c>
       <c r="H6" s="3">
@@ -9904,84 +10438,84 @@
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="56">
-        <v>6</v>
-      </c>
-      <c r="L6" s="56">
-        <v>6</v>
-      </c>
-      <c r="M6" s="56">
-        <v>6</v>
-      </c>
-      <c r="N6" s="56">
-        <v>6</v>
-      </c>
-      <c r="O6" s="56">
-        <v>6</v>
-      </c>
-      <c r="P6" s="56">
+      <c r="K6" s="43">
+        <v>6</v>
+      </c>
+      <c r="L6" s="43">
+        <v>6</v>
+      </c>
+      <c r="M6" s="43">
+        <v>6</v>
+      </c>
+      <c r="N6" s="43">
+        <v>6</v>
+      </c>
+      <c r="O6" s="43">
+        <v>6</v>
+      </c>
+      <c r="P6" s="43">
         <v>6</v>
       </c>
       <c r="Q6" s="3">
         <v>0</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="20">
         <v>2</v>
       </c>
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="56">
+      <c r="T6" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
-        <v>6</v>
-      </c>
-      <c r="B7" s="56">
+      <c r="A7" s="43">
+        <v>6</v>
+      </c>
+      <c r="B7" s="43">
         <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="56">
-        <v>6</v>
-      </c>
-      <c r="E7" s="56">
-        <v>6</v>
-      </c>
-      <c r="F7" s="56">
-        <v>6</v>
-      </c>
-      <c r="G7" s="56">
+      <c r="D7" s="43">
+        <v>6</v>
+      </c>
+      <c r="E7" s="43">
+        <v>6</v>
+      </c>
+      <c r="F7" s="43">
+        <v>6</v>
+      </c>
+      <c r="G7" s="43">
         <v>6</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="56">
-        <v>6</v>
-      </c>
-      <c r="J7" s="56">
-        <v>6</v>
-      </c>
-      <c r="K7" s="56">
-        <v>6</v>
-      </c>
-      <c r="L7" s="56">
-        <v>6</v>
-      </c>
-      <c r="M7" s="56">
-        <v>6</v>
-      </c>
-      <c r="N7" s="56">
-        <v>6</v>
-      </c>
-      <c r="O7" s="56">
-        <v>6</v>
-      </c>
-      <c r="P7" s="56">
+      <c r="I7" s="43">
+        <v>6</v>
+      </c>
+      <c r="J7" s="43">
+        <v>6</v>
+      </c>
+      <c r="K7" s="43">
+        <v>6</v>
+      </c>
+      <c r="L7" s="43">
+        <v>6</v>
+      </c>
+      <c r="M7" s="43">
+        <v>6</v>
+      </c>
+      <c r="N7" s="43">
+        <v>6</v>
+      </c>
+      <c r="O7" s="43">
+        <v>6</v>
+      </c>
+      <c r="P7" s="43">
         <v>6</v>
       </c>
       <c r="Q7" s="3">
@@ -9993,77 +10527,77 @@
       <c r="S7" s="3">
         <v>0</v>
       </c>
-      <c r="T7" s="56">
+      <c r="T7" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
-        <v>6</v>
-      </c>
-      <c r="B8" s="56">
+      <c r="A8" s="43">
+        <v>6</v>
+      </c>
+      <c r="B8" s="43">
         <v>6</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="56">
-        <v>6</v>
-      </c>
-      <c r="E8" s="56">
-        <v>6</v>
-      </c>
-      <c r="F8" s="56">
-        <v>6</v>
-      </c>
-      <c r="G8" s="56">
+      <c r="D8" s="43">
+        <v>6</v>
+      </c>
+      <c r="E8" s="43">
+        <v>6</v>
+      </c>
+      <c r="F8" s="43">
+        <v>6</v>
+      </c>
+      <c r="G8" s="43">
         <v>6</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="56">
-        <v>6</v>
-      </c>
-      <c r="J8" s="56">
-        <v>6</v>
-      </c>
-      <c r="K8" s="56">
-        <v>6</v>
-      </c>
-      <c r="L8" s="56">
-        <v>6</v>
-      </c>
-      <c r="M8" s="56">
-        <v>6</v>
-      </c>
-      <c r="N8" s="56">
-        <v>6</v>
-      </c>
-      <c r="O8" s="56">
-        <v>6</v>
-      </c>
-      <c r="P8" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="56">
+      <c r="I8" s="43">
+        <v>6</v>
+      </c>
+      <c r="J8" s="43">
+        <v>6</v>
+      </c>
+      <c r="K8" s="43">
+        <v>6</v>
+      </c>
+      <c r="L8" s="43">
+        <v>6</v>
+      </c>
+      <c r="M8" s="43">
+        <v>6</v>
+      </c>
+      <c r="N8" s="43">
+        <v>6</v>
+      </c>
+      <c r="O8" s="43">
+        <v>6</v>
+      </c>
+      <c r="P8" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="43">
         <v>6</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="56">
-        <v>6</v>
-      </c>
-      <c r="T8" s="56">
+      <c r="S8" s="43">
+        <v>6</v>
+      </c>
+      <c r="T8" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
-        <v>6</v>
-      </c>
-      <c r="B9" s="56">
+      <c r="A9" s="43">
+        <v>6</v>
+      </c>
+      <c r="B9" s="43">
         <v>6</v>
       </c>
       <c r="C9" s="3">
@@ -10084,134 +10618,134 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="56">
-        <v>6</v>
-      </c>
-      <c r="J9" s="56">
-        <v>6</v>
-      </c>
-      <c r="K9" s="56">
-        <v>6</v>
-      </c>
-      <c r="L9" s="56">
-        <v>6</v>
-      </c>
-      <c r="M9" s="56">
-        <v>6</v>
-      </c>
-      <c r="N9" s="56">
-        <v>6</v>
-      </c>
-      <c r="O9" s="56">
-        <v>6</v>
-      </c>
-      <c r="P9" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="56">
+      <c r="I9" s="43">
+        <v>6</v>
+      </c>
+      <c r="J9" s="43">
+        <v>6</v>
+      </c>
+      <c r="K9" s="43">
+        <v>6</v>
+      </c>
+      <c r="L9" s="43">
+        <v>6</v>
+      </c>
+      <c r="M9" s="43">
+        <v>6</v>
+      </c>
+      <c r="N9" s="43">
+        <v>6</v>
+      </c>
+      <c r="O9" s="43">
+        <v>6</v>
+      </c>
+      <c r="P9" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="43">
         <v>6</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="56">
-        <v>6</v>
-      </c>
-      <c r="T9" s="56">
+      <c r="S9" s="43">
+        <v>6</v>
+      </c>
+      <c r="T9" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
-        <v>6</v>
-      </c>
-      <c r="B10" s="56">
+      <c r="A10" s="43">
+        <v>6</v>
+      </c>
+      <c r="B10" s="43">
         <v>6</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="56">
-        <v>6</v>
-      </c>
-      <c r="E10" s="56">
-        <v>6</v>
-      </c>
-      <c r="F10" s="56">
-        <v>6</v>
-      </c>
-      <c r="G10" s="56">
-        <v>6</v>
-      </c>
-      <c r="H10" s="56">
-        <v>6</v>
-      </c>
-      <c r="I10" s="56">
-        <v>6</v>
-      </c>
-      <c r="J10" s="56">
-        <v>6</v>
-      </c>
-      <c r="K10" s="56">
-        <v>6</v>
-      </c>
-      <c r="L10" s="56">
-        <v>6</v>
-      </c>
-      <c r="M10" s="56">
-        <v>6</v>
-      </c>
-      <c r="N10" s="56">
-        <v>6</v>
-      </c>
-      <c r="O10" s="56">
-        <v>6</v>
-      </c>
-      <c r="P10" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="56">
+      <c r="D10" s="43">
+        <v>6</v>
+      </c>
+      <c r="E10" s="43">
+        <v>6</v>
+      </c>
+      <c r="F10" s="43">
+        <v>6</v>
+      </c>
+      <c r="G10" s="43">
+        <v>6</v>
+      </c>
+      <c r="H10" s="43">
+        <v>6</v>
+      </c>
+      <c r="I10" s="43">
+        <v>6</v>
+      </c>
+      <c r="J10" s="43">
+        <v>6</v>
+      </c>
+      <c r="K10" s="43">
+        <v>6</v>
+      </c>
+      <c r="L10" s="43">
+        <v>6</v>
+      </c>
+      <c r="M10" s="43">
+        <v>6</v>
+      </c>
+      <c r="N10" s="43">
+        <v>6</v>
+      </c>
+      <c r="O10" s="43">
+        <v>6</v>
+      </c>
+      <c r="P10" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="43">
         <v>6</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="56">
-        <v>6</v>
-      </c>
-      <c r="T10" s="56">
+      <c r="S10" s="43">
+        <v>6</v>
+      </c>
+      <c r="T10" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
-        <v>6</v>
-      </c>
-      <c r="B11" s="56">
+      <c r="A11" s="43">
+        <v>6</v>
+      </c>
+      <c r="B11" s="43">
         <v>6</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="56">
-        <v>6</v>
-      </c>
-      <c r="E11" s="56">
-        <v>6</v>
-      </c>
-      <c r="F11" s="56">
-        <v>6</v>
-      </c>
-      <c r="G11" s="56">
-        <v>6</v>
-      </c>
-      <c r="H11" s="56">
-        <v>6</v>
-      </c>
-      <c r="I11" s="56">
-        <v>6</v>
-      </c>
-      <c r="J11" s="56">
+      <c r="D11" s="43">
+        <v>6</v>
+      </c>
+      <c r="E11" s="43">
+        <v>6</v>
+      </c>
+      <c r="F11" s="43">
+        <v>6</v>
+      </c>
+      <c r="G11" s="43">
+        <v>6</v>
+      </c>
+      <c r="H11" s="43">
+        <v>6</v>
+      </c>
+      <c r="I11" s="43">
+        <v>6</v>
+      </c>
+      <c r="J11" s="43">
         <v>6</v>
       </c>
       <c r="K11" s="3">
@@ -10238,42 +10772,42 @@
       <c r="R11" s="3">
         <v>0</v>
       </c>
-      <c r="S11" s="56">
-        <v>6</v>
-      </c>
-      <c r="T11" s="56">
+      <c r="S11" s="43">
+        <v>6</v>
+      </c>
+      <c r="T11" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
-        <v>6</v>
-      </c>
-      <c r="B12" s="56">
+      <c r="A12" s="43">
+        <v>6</v>
+      </c>
+      <c r="B12" s="43">
         <v>6</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="56">
-        <v>6</v>
-      </c>
-      <c r="E12" s="56">
-        <v>6</v>
-      </c>
-      <c r="F12" s="56">
-        <v>6</v>
-      </c>
-      <c r="G12" s="56">
-        <v>6</v>
-      </c>
-      <c r="H12" s="56">
-        <v>6</v>
-      </c>
-      <c r="I12" s="56">
-        <v>6</v>
-      </c>
-      <c r="J12" s="56">
+      <c r="D12" s="43">
+        <v>6</v>
+      </c>
+      <c r="E12" s="43">
+        <v>6</v>
+      </c>
+      <c r="F12" s="43">
+        <v>6</v>
+      </c>
+      <c r="G12" s="43">
+        <v>6</v>
+      </c>
+      <c r="H12" s="43">
+        <v>6</v>
+      </c>
+      <c r="I12" s="43">
+        <v>6</v>
+      </c>
+      <c r="J12" s="43">
         <v>6</v>
       </c>
       <c r="K12" s="3">
@@ -10300,18 +10834,18 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="56">
-        <v>6</v>
-      </c>
-      <c r="T12" s="56">
+      <c r="S12" s="43">
+        <v>6</v>
+      </c>
+      <c r="T12" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
-        <v>6</v>
-      </c>
-      <c r="B13" s="56">
+      <c r="A13" s="43">
+        <v>6</v>
+      </c>
+      <c r="B13" s="43">
         <v>6</v>
       </c>
       <c r="C13" s="3">
@@ -10362,134 +10896,134 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-      <c r="S13" s="56">
-        <v>6</v>
-      </c>
-      <c r="T13" s="56">
+      <c r="S13" s="43">
+        <v>6</v>
+      </c>
+      <c r="T13" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
-        <v>6</v>
-      </c>
-      <c r="B14" s="56">
-        <v>6</v>
-      </c>
-      <c r="C14" s="56">
-        <v>6</v>
-      </c>
-      <c r="D14" s="56">
-        <v>6</v>
-      </c>
-      <c r="E14" s="56">
-        <v>6</v>
-      </c>
-      <c r="F14" s="56">
-        <v>6</v>
-      </c>
-      <c r="G14" s="56">
-        <v>6</v>
-      </c>
-      <c r="H14" s="56">
-        <v>6</v>
-      </c>
-      <c r="I14" s="56">
-        <v>6</v>
-      </c>
-      <c r="J14" s="56">
-        <v>6</v>
-      </c>
-      <c r="K14" s="56">
-        <v>6</v>
-      </c>
-      <c r="L14" s="56">
-        <v>6</v>
-      </c>
-      <c r="M14" s="56">
-        <v>6</v>
-      </c>
-      <c r="N14" s="56">
-        <v>6</v>
-      </c>
-      <c r="O14" s="56">
-        <v>6</v>
-      </c>
-      <c r="P14" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="56">
-        <v>6</v>
-      </c>
-      <c r="R14" s="56">
-        <v>6</v>
-      </c>
-      <c r="S14" s="56">
-        <v>6</v>
-      </c>
-      <c r="T14" s="56">
+      <c r="A14" s="43">
+        <v>6</v>
+      </c>
+      <c r="B14" s="43">
+        <v>6</v>
+      </c>
+      <c r="C14" s="43">
+        <v>6</v>
+      </c>
+      <c r="D14" s="43">
+        <v>6</v>
+      </c>
+      <c r="E14" s="43">
+        <v>6</v>
+      </c>
+      <c r="F14" s="43">
+        <v>6</v>
+      </c>
+      <c r="G14" s="43">
+        <v>6</v>
+      </c>
+      <c r="H14" s="43">
+        <v>6</v>
+      </c>
+      <c r="I14" s="43">
+        <v>6</v>
+      </c>
+      <c r="J14" s="43">
+        <v>6</v>
+      </c>
+      <c r="K14" s="43">
+        <v>6</v>
+      </c>
+      <c r="L14" s="43">
+        <v>6</v>
+      </c>
+      <c r="M14" s="43">
+        <v>6</v>
+      </c>
+      <c r="N14" s="43">
+        <v>6</v>
+      </c>
+      <c r="O14" s="43">
+        <v>6</v>
+      </c>
+      <c r="P14" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="43">
+        <v>6</v>
+      </c>
+      <c r="R14" s="43">
+        <v>6</v>
+      </c>
+      <c r="S14" s="43">
+        <v>6</v>
+      </c>
+      <c r="T14" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
-        <v>6</v>
-      </c>
-      <c r="B15" s="56">
-        <v>6</v>
-      </c>
-      <c r="C15" s="56">
-        <v>6</v>
-      </c>
-      <c r="D15" s="56">
-        <v>6</v>
-      </c>
-      <c r="E15" s="56">
-        <v>6</v>
-      </c>
-      <c r="F15" s="56">
-        <v>6</v>
-      </c>
-      <c r="G15" s="56">
-        <v>6</v>
-      </c>
-      <c r="H15" s="56">
-        <v>6</v>
-      </c>
-      <c r="I15" s="56">
-        <v>6</v>
-      </c>
-      <c r="J15" s="56">
-        <v>6</v>
-      </c>
-      <c r="K15" s="56">
-        <v>6</v>
-      </c>
-      <c r="L15" s="56">
-        <v>6</v>
-      </c>
-      <c r="M15" s="56">
-        <v>6</v>
-      </c>
-      <c r="N15" s="56">
-        <v>6</v>
-      </c>
-      <c r="O15" s="56">
-        <v>6</v>
-      </c>
-      <c r="P15" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="56">
-        <v>6</v>
-      </c>
-      <c r="R15" s="56">
-        <v>6</v>
-      </c>
-      <c r="S15" s="56">
-        <v>6</v>
-      </c>
-      <c r="T15" s="56">
+      <c r="A15" s="43">
+        <v>6</v>
+      </c>
+      <c r="B15" s="43">
+        <v>6</v>
+      </c>
+      <c r="C15" s="43">
+        <v>6</v>
+      </c>
+      <c r="D15" s="43">
+        <v>6</v>
+      </c>
+      <c r="E15" s="43">
+        <v>6</v>
+      </c>
+      <c r="F15" s="43">
+        <v>6</v>
+      </c>
+      <c r="G15" s="43">
+        <v>6</v>
+      </c>
+      <c r="H15" s="43">
+        <v>6</v>
+      </c>
+      <c r="I15" s="43">
+        <v>6</v>
+      </c>
+      <c r="J15" s="43">
+        <v>6</v>
+      </c>
+      <c r="K15" s="43">
+        <v>6</v>
+      </c>
+      <c r="L15" s="43">
+        <v>6</v>
+      </c>
+      <c r="M15" s="43">
+        <v>6</v>
+      </c>
+      <c r="N15" s="43">
+        <v>6</v>
+      </c>
+      <c r="O15" s="43">
+        <v>6</v>
+      </c>
+      <c r="P15" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="43">
+        <v>6</v>
+      </c>
+      <c r="R15" s="43">
+        <v>6</v>
+      </c>
+      <c r="S15" s="43">
+        <v>6</v>
+      </c>
+      <c r="T15" s="43">
         <v>6</v>
       </c>
     </row>
@@ -10610,7 +11144,7 @@
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="24">
         <v>0</v>
       </c>
       <c r="G2" s="4">
@@ -10696,10 +11230,10 @@
       <c r="E3" s="12">
         <v>0</v>
       </c>
-      <c r="F3" s="40">
-        <v>0</v>
-      </c>
-      <c r="G3" s="36">
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
         <v>5</v>
       </c>
       <c r="H3" s="4">
@@ -10750,7 +11284,7 @@
       <c r="W3" s="9">
         <v>5</v>
       </c>
-      <c r="X3" s="48">
+      <c r="X3" s="38">
         <v>5</v>
       </c>
       <c r="Y3" s="2">
@@ -10782,13 +11316,13 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="31">
         <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="27">
         <v>5</v>
       </c>
       <c r="I4" s="4">
@@ -10803,7 +11337,7 @@
       <c r="L4" s="4">
         <v>5</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="24">
         <v>0</v>
       </c>
       <c r="N4" s="3">
@@ -10836,10 +11370,10 @@
       <c r="W4" s="12">
         <v>0</v>
       </c>
-      <c r="X4" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="33">
+      <c r="X4" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="23">
         <v>0</v>
       </c>
       <c r="Z4" s="3">
@@ -10874,10 +11408,10 @@
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="40">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
         <v>4</v>
       </c>
       <c r="J5" s="4">
@@ -10889,10 +11423,10 @@
       <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="42">
         <v>4</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="23">
         <v>0</v>
       </c>
       <c r="O5" s="4">
@@ -10922,7 +11456,7 @@
       <c r="W5" s="3">
         <v>0</v>
       </c>
-      <c r="X5" s="49">
+      <c r="X5" s="39">
         <v>5</v>
       </c>
       <c r="Y5" s="2">
@@ -10945,7 +11479,7 @@
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
       <c r="D6" s="4">
@@ -10960,7 +11494,7 @@
       <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="25">
         <v>5</v>
       </c>
       <c r="I6" s="4">
@@ -10975,7 +11509,7 @@
       <c r="L6" s="4">
         <v>5</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="25">
         <v>5</v>
       </c>
       <c r="N6" s="4">
@@ -11014,7 +11548,7 @@
       <c r="Y6" s="9">
         <v>5</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="Z6" s="24">
         <v>0</v>
       </c>
       <c r="AA6" s="9">
@@ -11031,10 +11565,10 @@
       <c r="B7" s="12">
         <v>0</v>
       </c>
-      <c r="C7" s="40">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23">
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -11079,7 +11613,7 @@
       <c r="R7" s="4">
         <v>5</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="24">
         <v>0</v>
       </c>
       <c r="T7" s="4">
@@ -11100,10 +11634,10 @@
       <c r="Y7" s="15">
         <v>5</v>
       </c>
-      <c r="Z7" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="47">
+      <c r="Z7" s="36">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="37">
         <v>5</v>
       </c>
       <c r="AB7" s="9">
@@ -11117,7 +11651,7 @@
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="25">
         <v>5</v>
       </c>
       <c r="D8" s="4">
@@ -11129,7 +11663,7 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="27">
         <v>5</v>
       </c>
       <c r="H8" s="4">
@@ -11165,10 +11699,10 @@
       <c r="R8" s="11">
         <v>5</v>
       </c>
-      <c r="S8" s="40">
-        <v>0</v>
-      </c>
-      <c r="T8" s="36">
+      <c r="S8" s="30">
+        <v>0</v>
+      </c>
+      <c r="T8" s="26">
         <v>5</v>
       </c>
       <c r="U8" s="9">
@@ -11186,7 +11720,7 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="41">
+      <c r="Z8" s="31">
         <v>0</v>
       </c>
       <c r="AA8" s="9">
@@ -11215,10 +11749,10 @@
       <c r="F9" s="12">
         <v>0</v>
       </c>
-      <c r="G9" s="40">
-        <v>0</v>
-      </c>
-      <c r="H9" s="33">
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
         <v>0</v>
       </c>
       <c r="I9" s="3">
@@ -11236,7 +11770,7 @@
       <c r="M9" s="4">
         <v>5</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="27">
         <v>5</v>
       </c>
       <c r="O9" s="4">
@@ -11251,7 +11785,7 @@
       <c r="R9" s="4">
         <v>5</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="31">
         <v>0</v>
       </c>
       <c r="T9" s="4">
@@ -11286,7 +11820,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="27">
         <v>5</v>
       </c>
       <c r="C10" s="4">
@@ -11295,13 +11829,13 @@
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="24">
         <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="25">
         <v>5</v>
       </c>
       <c r="H10" s="4">
@@ -11322,10 +11856,10 @@
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="40">
-        <v>0</v>
-      </c>
-      <c r="O10" s="45">
+      <c r="N10" s="30">
+        <v>0</v>
+      </c>
+      <c r="O10" s="35">
         <v>4</v>
       </c>
       <c r="P10" s="3">
@@ -11369,22 +11903,22 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11" s="29">
         <v>4</v>
       </c>
-      <c r="B11" s="40">
-        <v>0</v>
-      </c>
-      <c r="C11" s="33">
+      <c r="B11" s="30">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
         <v>0</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
       </c>
-      <c r="E11" s="40">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
         <v>0</v>
       </c>
       <c r="G11" s="4">
@@ -11408,7 +11942,7 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="31">
         <v>0</v>
       </c>
       <c r="O11" s="3">
@@ -11444,7 +11978,7 @@
       <c r="Y11" s="3">
         <v>0</v>
       </c>
-      <c r="Z11" s="34">
+      <c r="Z11" s="24">
         <v>0</v>
       </c>
       <c r="AA11" s="9">
@@ -11458,7 +11992,7 @@
       <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="25">
         <v>5</v>
       </c>
       <c r="C12" s="4">
@@ -11467,7 +12001,7 @@
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="31">
         <v>0</v>
       </c>
       <c r="F12" s="3">
@@ -11530,10 +12064,10 @@
       <c r="Y12" s="15">
         <v>5</v>
       </c>
-      <c r="Z12" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="47">
+      <c r="Z12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="37">
         <v>5</v>
       </c>
       <c r="AB12" s="9">
@@ -11616,10 +12150,10 @@
       <c r="Y13" s="15">
         <v>5</v>
       </c>
-      <c r="Z13" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="47">
+      <c r="Z13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="37">
         <v>5</v>
       </c>
       <c r="AB13" s="9">
@@ -11636,7 +12170,7 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="27">
         <v>5</v>
       </c>
       <c r="E14" s="3">
@@ -11702,10 +12236,10 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="24">
+      <c r="Z14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="20">
         <v>2</v>
       </c>
       <c r="AB14" s="9">
@@ -11722,10 +12256,10 @@
       <c r="C15" s="12">
         <v>0</v>
       </c>
-      <c r="D15" s="40">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23">
         <v>0</v>
       </c>
       <c r="F15" s="3">
@@ -11737,7 +12271,7 @@
       <c r="H15" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="27">
         <v>5</v>
       </c>
       <c r="J15" s="4">
@@ -11792,9 +12326,9 @@
         <v>0</v>
       </c>
       <c r="AA15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB15" s="47">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="37">
         <v>5</v>
       </c>
     </row>
@@ -11808,7 +12342,7 @@
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="25">
         <v>5</v>
       </c>
       <c r="E16" s="3">
@@ -11823,10 +12357,10 @@
       <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="I16" s="40">
-        <v>0</v>
-      </c>
-      <c r="J16" s="45">
+      <c r="I16" s="30">
+        <v>0</v>
+      </c>
+      <c r="J16" s="35">
         <v>4</v>
       </c>
       <c r="K16" s="4">
@@ -11877,7 +12411,7 @@
       <c r="Z16" s="9">
         <v>5</v>
       </c>
-      <c r="AA16" s="49">
+      <c r="AA16" s="39">
         <v>5</v>
       </c>
       <c r="AB16" s="9">
@@ -11886,14 +12420,14 @@
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>22</v>
+      <c r="A18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -11906,17 +12440,17 @@
       <c r="A19" s="2">
         <v>20</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="44">
         <v>11</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="32">
         <v>4</v>
       </c>
       <c r="G19" s="6">
         <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11924,31 +12458,31 @@
         <v>3</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="21">
+      <c r="G21" s="17">
         <v>4</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>5</v>
+      <c r="H21" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="23">
-        <v>5</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>2</v>
+      <c r="G22" s="19">
+        <v>5</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="27">
+      <c r="G23" s="21">
         <v>9</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>20</v>
+      <c r="H23" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -11968,255 +12502,255 @@
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56">
-        <v>6</v>
-      </c>
-      <c r="B1" s="56">
-        <v>6</v>
-      </c>
-      <c r="C1" s="56">
-        <v>6</v>
-      </c>
-      <c r="D1" s="56">
-        <v>6</v>
-      </c>
-      <c r="E1" s="56">
-        <v>6</v>
-      </c>
-      <c r="F1" s="56">
-        <v>6</v>
-      </c>
-      <c r="G1" s="56">
-        <v>6</v>
-      </c>
-      <c r="H1" s="56">
-        <v>6</v>
-      </c>
-      <c r="I1" s="56">
-        <v>6</v>
-      </c>
-      <c r="J1" s="56">
-        <v>6</v>
-      </c>
-      <c r="K1" s="56">
-        <v>6</v>
-      </c>
-      <c r="L1" s="56">
-        <v>6</v>
-      </c>
-      <c r="M1" s="56">
-        <v>6</v>
-      </c>
-      <c r="N1" s="56">
-        <v>6</v>
-      </c>
-      <c r="O1" s="56">
-        <v>6</v>
-      </c>
-      <c r="P1" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="56">
-        <v>6</v>
-      </c>
-      <c r="R1" s="56">
-        <v>6</v>
-      </c>
-      <c r="S1" s="56">
-        <v>6</v>
-      </c>
-      <c r="T1" s="56">
+      <c r="A1" s="43">
+        <v>6</v>
+      </c>
+      <c r="B1" s="43">
+        <v>6</v>
+      </c>
+      <c r="C1" s="43">
+        <v>6</v>
+      </c>
+      <c r="D1" s="43">
+        <v>6</v>
+      </c>
+      <c r="E1" s="43">
+        <v>6</v>
+      </c>
+      <c r="F1" s="43">
+        <v>6</v>
+      </c>
+      <c r="G1" s="43">
+        <v>6</v>
+      </c>
+      <c r="H1" s="43">
+        <v>6</v>
+      </c>
+      <c r="I1" s="43">
+        <v>6</v>
+      </c>
+      <c r="J1" s="43">
+        <v>6</v>
+      </c>
+      <c r="K1" s="43">
+        <v>6</v>
+      </c>
+      <c r="L1" s="43">
+        <v>6</v>
+      </c>
+      <c r="M1" s="43">
+        <v>6</v>
+      </c>
+      <c r="N1" s="43">
+        <v>6</v>
+      </c>
+      <c r="O1" s="43">
+        <v>6</v>
+      </c>
+      <c r="P1" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="43">
+        <v>6</v>
+      </c>
+      <c r="R1" s="43">
+        <v>6</v>
+      </c>
+      <c r="S1" s="43">
+        <v>6</v>
+      </c>
+      <c r="T1" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
-        <v>6</v>
-      </c>
-      <c r="B2" s="56">
-        <v>6</v>
-      </c>
-      <c r="C2" s="56">
-        <v>6</v>
-      </c>
-      <c r="D2" s="56">
-        <v>6</v>
-      </c>
-      <c r="E2" s="56">
-        <v>6</v>
-      </c>
-      <c r="F2" s="56">
-        <v>6</v>
-      </c>
-      <c r="G2" s="56">
-        <v>6</v>
-      </c>
-      <c r="H2" s="56">
-        <v>6</v>
-      </c>
-      <c r="I2" s="56">
-        <v>6</v>
-      </c>
-      <c r="J2" s="56">
-        <v>6</v>
-      </c>
-      <c r="K2" s="24">
+      <c r="A2" s="43">
+        <v>6</v>
+      </c>
+      <c r="B2" s="43">
+        <v>6</v>
+      </c>
+      <c r="C2" s="43">
+        <v>6</v>
+      </c>
+      <c r="D2" s="43">
+        <v>6</v>
+      </c>
+      <c r="E2" s="43">
+        <v>6</v>
+      </c>
+      <c r="F2" s="43">
+        <v>6</v>
+      </c>
+      <c r="G2" s="43">
+        <v>6</v>
+      </c>
+      <c r="H2" s="43">
+        <v>6</v>
+      </c>
+      <c r="I2" s="43">
+        <v>6</v>
+      </c>
+      <c r="J2" s="43">
+        <v>6</v>
+      </c>
+      <c r="K2" s="20">
         <v>2</v>
       </c>
-      <c r="L2" s="56">
-        <v>6</v>
-      </c>
-      <c r="M2" s="56">
-        <v>6</v>
-      </c>
-      <c r="N2" s="56">
-        <v>6</v>
-      </c>
-      <c r="O2" s="56">
-        <v>6</v>
-      </c>
-      <c r="P2" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="56">
-        <v>6</v>
-      </c>
-      <c r="R2" s="56">
-        <v>6</v>
-      </c>
-      <c r="S2" s="56">
-        <v>6</v>
-      </c>
-      <c r="T2" s="56">
+      <c r="L2" s="43">
+        <v>6</v>
+      </c>
+      <c r="M2" s="43">
+        <v>6</v>
+      </c>
+      <c r="N2" s="43">
+        <v>6</v>
+      </c>
+      <c r="O2" s="43">
+        <v>6</v>
+      </c>
+      <c r="P2" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>6</v>
+      </c>
+      <c r="R2" s="43">
+        <v>6</v>
+      </c>
+      <c r="S2" s="43">
+        <v>6</v>
+      </c>
+      <c r="T2" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
-        <v>6</v>
-      </c>
-      <c r="B3" s="56">
-        <v>6</v>
-      </c>
-      <c r="C3" s="56">
-        <v>6</v>
-      </c>
-      <c r="D3" s="56">
-        <v>6</v>
-      </c>
-      <c r="E3" s="56">
-        <v>6</v>
-      </c>
-      <c r="F3" s="56">
-        <v>6</v>
-      </c>
-      <c r="G3" s="56">
-        <v>6</v>
-      </c>
-      <c r="H3" s="56">
-        <v>6</v>
-      </c>
-      <c r="I3" s="56">
-        <v>6</v>
-      </c>
-      <c r="J3" s="56">
+      <c r="A3" s="43">
+        <v>6</v>
+      </c>
+      <c r="B3" s="43">
+        <v>6</v>
+      </c>
+      <c r="C3" s="43">
+        <v>6</v>
+      </c>
+      <c r="D3" s="43">
+        <v>6</v>
+      </c>
+      <c r="E3" s="43">
+        <v>6</v>
+      </c>
+      <c r="F3" s="43">
+        <v>6</v>
+      </c>
+      <c r="G3" s="43">
+        <v>6</v>
+      </c>
+      <c r="H3" s="43">
+        <v>6</v>
+      </c>
+      <c r="I3" s="43">
+        <v>6</v>
+      </c>
+      <c r="J3" s="43">
         <v>6</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="56">
-        <v>6</v>
-      </c>
-      <c r="M3" s="56">
-        <v>6</v>
-      </c>
-      <c r="N3" s="56">
-        <v>6</v>
-      </c>
-      <c r="O3" s="56">
-        <v>6</v>
-      </c>
-      <c r="P3" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="56">
-        <v>6</v>
-      </c>
-      <c r="R3" s="56">
-        <v>6</v>
-      </c>
-      <c r="S3" s="56">
-        <v>6</v>
-      </c>
-      <c r="T3" s="56">
+      <c r="L3" s="43">
+        <v>6</v>
+      </c>
+      <c r="M3" s="43">
+        <v>6</v>
+      </c>
+      <c r="N3" s="43">
+        <v>6</v>
+      </c>
+      <c r="O3" s="43">
+        <v>6</v>
+      </c>
+      <c r="P3" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="43">
+        <v>6</v>
+      </c>
+      <c r="R3" s="43">
+        <v>6</v>
+      </c>
+      <c r="S3" s="43">
+        <v>6</v>
+      </c>
+      <c r="T3" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
-        <v>6</v>
-      </c>
-      <c r="B4" s="56">
-        <v>6</v>
-      </c>
-      <c r="C4" s="56">
-        <v>6</v>
-      </c>
-      <c r="D4" s="56">
-        <v>6</v>
-      </c>
-      <c r="E4" s="56">
-        <v>6</v>
-      </c>
-      <c r="F4" s="56">
-        <v>6</v>
-      </c>
-      <c r="G4" s="56">
-        <v>6</v>
-      </c>
-      <c r="H4" s="56">
-        <v>6</v>
-      </c>
-      <c r="I4" s="56">
-        <v>6</v>
-      </c>
-      <c r="J4" s="56">
+      <c r="A4" s="43">
+        <v>6</v>
+      </c>
+      <c r="B4" s="43">
+        <v>6</v>
+      </c>
+      <c r="C4" s="43">
+        <v>6</v>
+      </c>
+      <c r="D4" s="43">
+        <v>6</v>
+      </c>
+      <c r="E4" s="43">
+        <v>6</v>
+      </c>
+      <c r="F4" s="43">
+        <v>6</v>
+      </c>
+      <c r="G4" s="43">
+        <v>6</v>
+      </c>
+      <c r="H4" s="43">
+        <v>6</v>
+      </c>
+      <c r="I4" s="43">
+        <v>6</v>
+      </c>
+      <c r="J4" s="43">
         <v>6</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="56">
-        <v>6</v>
-      </c>
-      <c r="M4" s="56">
-        <v>6</v>
-      </c>
-      <c r="N4" s="56">
-        <v>6</v>
-      </c>
-      <c r="O4" s="56">
-        <v>6</v>
-      </c>
-      <c r="P4" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="56">
-        <v>6</v>
-      </c>
-      <c r="R4" s="56">
-        <v>6</v>
-      </c>
-      <c r="S4" s="56">
-        <v>6</v>
-      </c>
-      <c r="T4" s="56">
+      <c r="L4" s="43">
+        <v>6</v>
+      </c>
+      <c r="M4" s="43">
+        <v>6</v>
+      </c>
+      <c r="N4" s="43">
+        <v>6</v>
+      </c>
+      <c r="O4" s="43">
+        <v>6</v>
+      </c>
+      <c r="P4" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>6</v>
+      </c>
+      <c r="R4" s="43">
+        <v>6</v>
+      </c>
+      <c r="S4" s="43">
+        <v>6</v>
+      </c>
+      <c r="T4" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="43">
         <v>6</v>
       </c>
       <c r="B5" s="3">
@@ -12273,193 +12807,193 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="56">
+      <c r="T5" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="43">
         <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="56">
-        <v>6</v>
-      </c>
-      <c r="D6" s="56">
-        <v>6</v>
-      </c>
-      <c r="E6" s="56">
-        <v>6</v>
-      </c>
-      <c r="F6" s="56">
-        <v>6</v>
-      </c>
-      <c r="G6" s="56">
-        <v>6</v>
-      </c>
-      <c r="H6" s="56">
-        <v>6</v>
-      </c>
-      <c r="I6" s="56">
-        <v>6</v>
-      </c>
-      <c r="J6" s="56">
+      <c r="C6" s="43">
+        <v>6</v>
+      </c>
+      <c r="D6" s="43">
+        <v>6</v>
+      </c>
+      <c r="E6" s="43">
+        <v>6</v>
+      </c>
+      <c r="F6" s="43">
+        <v>6</v>
+      </c>
+      <c r="G6" s="43">
+        <v>6</v>
+      </c>
+      <c r="H6" s="43">
+        <v>6</v>
+      </c>
+      <c r="I6" s="43">
+        <v>6</v>
+      </c>
+      <c r="J6" s="43">
         <v>6</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="56">
-        <v>6</v>
-      </c>
-      <c r="M6" s="56">
-        <v>6</v>
-      </c>
-      <c r="N6" s="56">
-        <v>6</v>
-      </c>
-      <c r="O6" s="56">
-        <v>6</v>
-      </c>
-      <c r="P6" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="56">
-        <v>6</v>
-      </c>
-      <c r="R6" s="56">
+      <c r="L6" s="43">
+        <v>6</v>
+      </c>
+      <c r="M6" s="43">
+        <v>6</v>
+      </c>
+      <c r="N6" s="43">
+        <v>6</v>
+      </c>
+      <c r="O6" s="43">
+        <v>6</v>
+      </c>
+      <c r="P6" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>6</v>
+      </c>
+      <c r="R6" s="43">
         <v>6</v>
       </c>
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="56">
+      <c r="T6" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+      <c r="A7" s="43">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="56">
-        <v>6</v>
-      </c>
-      <c r="D7" s="56">
-        <v>6</v>
-      </c>
-      <c r="E7" s="56">
-        <v>6</v>
-      </c>
-      <c r="F7" s="56">
-        <v>6</v>
-      </c>
-      <c r="G7" s="56">
-        <v>6</v>
-      </c>
-      <c r="H7" s="56">
-        <v>6</v>
-      </c>
-      <c r="I7" s="56">
-        <v>6</v>
-      </c>
-      <c r="J7" s="56">
+      <c r="C7" s="43">
+        <v>6</v>
+      </c>
+      <c r="D7" s="43">
+        <v>6</v>
+      </c>
+      <c r="E7" s="43">
+        <v>6</v>
+      </c>
+      <c r="F7" s="43">
+        <v>6</v>
+      </c>
+      <c r="G7" s="43">
+        <v>6</v>
+      </c>
+      <c r="H7" s="43">
+        <v>6</v>
+      </c>
+      <c r="I7" s="43">
+        <v>6</v>
+      </c>
+      <c r="J7" s="43">
         <v>6</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="56">
-        <v>6</v>
-      </c>
-      <c r="M7" s="56">
-        <v>6</v>
-      </c>
-      <c r="N7" s="56">
-        <v>6</v>
-      </c>
-      <c r="O7" s="56">
-        <v>6</v>
-      </c>
-      <c r="P7" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="56">
-        <v>6</v>
-      </c>
-      <c r="R7" s="56">
+      <c r="L7" s="43">
+        <v>6</v>
+      </c>
+      <c r="M7" s="43">
+        <v>6</v>
+      </c>
+      <c r="N7" s="43">
+        <v>6</v>
+      </c>
+      <c r="O7" s="43">
+        <v>6</v>
+      </c>
+      <c r="P7" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>6</v>
+      </c>
+      <c r="R7" s="43">
         <v>6</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
       </c>
-      <c r="T7" s="56">
+      <c r="T7" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="43">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="56">
-        <v>6</v>
-      </c>
-      <c r="D8" s="56">
-        <v>6</v>
-      </c>
-      <c r="E8" s="56">
-        <v>6</v>
-      </c>
-      <c r="F8" s="56">
-        <v>6</v>
-      </c>
-      <c r="G8" s="56">
-        <v>6</v>
-      </c>
-      <c r="H8" s="56">
-        <v>6</v>
-      </c>
-      <c r="I8" s="56">
-        <v>6</v>
-      </c>
-      <c r="J8" s="56">
+      <c r="C8" s="43">
+        <v>6</v>
+      </c>
+      <c r="D8" s="43">
+        <v>6</v>
+      </c>
+      <c r="E8" s="43">
+        <v>6</v>
+      </c>
+      <c r="F8" s="43">
+        <v>6</v>
+      </c>
+      <c r="G8" s="43">
+        <v>6</v>
+      </c>
+      <c r="H8" s="43">
+        <v>6</v>
+      </c>
+      <c r="I8" s="43">
+        <v>6</v>
+      </c>
+      <c r="J8" s="43">
         <v>6</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="56">
-        <v>6</v>
-      </c>
-      <c r="M8" s="56">
-        <v>6</v>
-      </c>
-      <c r="N8" s="56">
-        <v>6</v>
-      </c>
-      <c r="O8" s="56">
-        <v>6</v>
-      </c>
-      <c r="P8" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="56">
-        <v>6</v>
-      </c>
-      <c r="R8" s="56">
+      <c r="L8" s="43">
+        <v>6</v>
+      </c>
+      <c r="M8" s="43">
+        <v>6</v>
+      </c>
+      <c r="N8" s="43">
+        <v>6</v>
+      </c>
+      <c r="O8" s="43">
+        <v>6</v>
+      </c>
+      <c r="P8" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>6</v>
+      </c>
+      <c r="R8" s="43">
         <v>6</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="56">
+      <c r="T8" s="43">
         <v>6</v>
       </c>
     </row>
@@ -12473,22 +13007,22 @@
       <c r="C9" s="3">
         <v>20</v>
       </c>
-      <c r="D9" s="56">
-        <v>6</v>
-      </c>
-      <c r="E9" s="56">
-        <v>6</v>
-      </c>
-      <c r="F9" s="56">
-        <v>6</v>
-      </c>
-      <c r="G9" s="56">
-        <v>6</v>
-      </c>
-      <c r="H9" s="56">
-        <v>6</v>
-      </c>
-      <c r="I9" s="56">
+      <c r="D9" s="43">
+        <v>6</v>
+      </c>
+      <c r="E9" s="43">
+        <v>6</v>
+      </c>
+      <c r="F9" s="43">
+        <v>6</v>
+      </c>
+      <c r="G9" s="43">
+        <v>6</v>
+      </c>
+      <c r="H9" s="43">
+        <v>6</v>
+      </c>
+      <c r="I9" s="43">
         <v>6</v>
       </c>
       <c r="J9" s="3">
@@ -12500,19 +13034,19 @@
       <c r="L9" s="3">
         <v>20</v>
       </c>
-      <c r="M9" s="56">
-        <v>6</v>
-      </c>
-      <c r="N9" s="56">
-        <v>6</v>
-      </c>
-      <c r="O9" s="56">
-        <v>6</v>
-      </c>
-      <c r="P9" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="56">
+      <c r="M9" s="43">
+        <v>6</v>
+      </c>
+      <c r="N9" s="43">
+        <v>6</v>
+      </c>
+      <c r="O9" s="43">
+        <v>6</v>
+      </c>
+      <c r="P9" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="43">
         <v>6</v>
       </c>
       <c r="R9" s="3">
@@ -12535,22 +13069,22 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="56">
-        <v>6</v>
-      </c>
-      <c r="E10" s="56">
-        <v>6</v>
-      </c>
-      <c r="F10" s="56">
-        <v>6</v>
-      </c>
-      <c r="G10" s="56">
-        <v>6</v>
-      </c>
-      <c r="H10" s="56">
-        <v>6</v>
-      </c>
-      <c r="I10" s="56">
+      <c r="D10" s="43">
+        <v>6</v>
+      </c>
+      <c r="E10" s="43">
+        <v>6</v>
+      </c>
+      <c r="F10" s="43">
+        <v>6</v>
+      </c>
+      <c r="G10" s="43">
+        <v>6</v>
+      </c>
+      <c r="H10" s="43">
+        <v>6</v>
+      </c>
+      <c r="I10" s="43">
         <v>6</v>
       </c>
       <c r="J10" s="3">
@@ -12562,19 +13096,19 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="56">
-        <v>6</v>
-      </c>
-      <c r="N10" s="56">
-        <v>6</v>
-      </c>
-      <c r="O10" s="56">
-        <v>6</v>
-      </c>
-      <c r="P10" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="56">
+      <c r="M10" s="43">
+        <v>6</v>
+      </c>
+      <c r="N10" s="43">
+        <v>6</v>
+      </c>
+      <c r="O10" s="43">
+        <v>6</v>
+      </c>
+      <c r="P10" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="43">
         <v>6</v>
       </c>
       <c r="R10" s="3">
@@ -12597,22 +13131,22 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="56">
-        <v>6</v>
-      </c>
-      <c r="E11" s="56">
-        <v>6</v>
-      </c>
-      <c r="F11" s="56">
-        <v>6</v>
-      </c>
-      <c r="G11" s="56">
-        <v>6</v>
-      </c>
-      <c r="H11" s="56">
-        <v>6</v>
-      </c>
-      <c r="I11" s="56">
+      <c r="D11" s="43">
+        <v>6</v>
+      </c>
+      <c r="E11" s="43">
+        <v>6</v>
+      </c>
+      <c r="F11" s="43">
+        <v>6</v>
+      </c>
+      <c r="G11" s="43">
+        <v>6</v>
+      </c>
+      <c r="H11" s="43">
+        <v>6</v>
+      </c>
+      <c r="I11" s="43">
         <v>6</v>
       </c>
       <c r="J11" s="3">
@@ -12624,19 +13158,19 @@
       <c r="L11" s="3">
         <v>0</v>
       </c>
-      <c r="M11" s="56">
-        <v>6</v>
-      </c>
-      <c r="N11" s="56">
-        <v>6</v>
-      </c>
-      <c r="O11" s="56">
-        <v>6</v>
-      </c>
-      <c r="P11" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="56">
+      <c r="M11" s="43">
+        <v>6</v>
+      </c>
+      <c r="N11" s="43">
+        <v>6</v>
+      </c>
+      <c r="O11" s="43">
+        <v>6</v>
+      </c>
+      <c r="P11" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="43">
         <v>6</v>
       </c>
       <c r="R11" s="3">
@@ -12650,126 +13184,126 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="43">
         <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
       </c>
-      <c r="C12" s="56">
-        <v>6</v>
-      </c>
-      <c r="D12" s="56">
-        <v>6</v>
-      </c>
-      <c r="E12" s="56">
-        <v>6</v>
-      </c>
-      <c r="F12" s="56">
-        <v>6</v>
-      </c>
-      <c r="G12" s="56">
-        <v>6</v>
-      </c>
-      <c r="H12" s="56">
-        <v>6</v>
-      </c>
-      <c r="I12" s="56">
-        <v>6</v>
-      </c>
-      <c r="J12" s="56">
+      <c r="C12" s="43">
+        <v>6</v>
+      </c>
+      <c r="D12" s="43">
+        <v>6</v>
+      </c>
+      <c r="E12" s="43">
+        <v>6</v>
+      </c>
+      <c r="F12" s="43">
+        <v>6</v>
+      </c>
+      <c r="G12" s="43">
+        <v>6</v>
+      </c>
+      <c r="H12" s="43">
+        <v>6</v>
+      </c>
+      <c r="I12" s="43">
+        <v>6</v>
+      </c>
+      <c r="J12" s="43">
         <v>6</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="56">
-        <v>6</v>
-      </c>
-      <c r="M12" s="56">
-        <v>6</v>
-      </c>
-      <c r="N12" s="56">
-        <v>6</v>
-      </c>
-      <c r="O12" s="56">
-        <v>6</v>
-      </c>
-      <c r="P12" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="56">
-        <v>6</v>
-      </c>
-      <c r="R12" s="56">
+      <c r="L12" s="43">
+        <v>6</v>
+      </c>
+      <c r="M12" s="43">
+        <v>6</v>
+      </c>
+      <c r="N12" s="43">
+        <v>6</v>
+      </c>
+      <c r="O12" s="43">
+        <v>6</v>
+      </c>
+      <c r="P12" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>6</v>
+      </c>
+      <c r="R12" s="43">
         <v>6</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
-      <c r="T12" s="56">
+      <c r="T12" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+      <c r="A13" s="43">
         <v>6</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="56">
-        <v>6</v>
-      </c>
-      <c r="D13" s="56">
-        <v>6</v>
-      </c>
-      <c r="E13" s="56">
-        <v>6</v>
-      </c>
-      <c r="F13" s="56">
-        <v>6</v>
-      </c>
-      <c r="G13" s="56">
-        <v>6</v>
-      </c>
-      <c r="H13" s="56">
-        <v>6</v>
-      </c>
-      <c r="I13" s="56">
-        <v>6</v>
-      </c>
-      <c r="J13" s="56">
+      <c r="C13" s="43">
+        <v>6</v>
+      </c>
+      <c r="D13" s="43">
+        <v>6</v>
+      </c>
+      <c r="E13" s="43">
+        <v>6</v>
+      </c>
+      <c r="F13" s="43">
+        <v>6</v>
+      </c>
+      <c r="G13" s="43">
+        <v>6</v>
+      </c>
+      <c r="H13" s="43">
+        <v>6</v>
+      </c>
+      <c r="I13" s="43">
+        <v>6</v>
+      </c>
+      <c r="J13" s="43">
         <v>6</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="56">
-        <v>6</v>
-      </c>
-      <c r="M13" s="56">
-        <v>6</v>
-      </c>
-      <c r="N13" s="56">
-        <v>6</v>
-      </c>
-      <c r="O13" s="56">
-        <v>6</v>
-      </c>
-      <c r="P13" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="56">
-        <v>6</v>
-      </c>
-      <c r="R13" s="56">
+      <c r="L13" s="43">
+        <v>6</v>
+      </c>
+      <c r="M13" s="43">
+        <v>6</v>
+      </c>
+      <c r="N13" s="43">
+        <v>6</v>
+      </c>
+      <c r="O13" s="43">
+        <v>6</v>
+      </c>
+      <c r="P13" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>6</v>
+      </c>
+      <c r="R13" s="43">
         <v>6</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
       </c>
-      <c r="T13" s="56">
+      <c r="T13" s="43">
         <v>6</v>
       </c>
     </row>
@@ -12783,22 +13317,22 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="56">
-        <v>6</v>
-      </c>
-      <c r="E14" s="56">
-        <v>6</v>
-      </c>
-      <c r="F14" s="56">
-        <v>6</v>
-      </c>
-      <c r="G14" s="56">
-        <v>6</v>
-      </c>
-      <c r="H14" s="56">
-        <v>6</v>
-      </c>
-      <c r="I14" s="56">
+      <c r="D14" s="43">
+        <v>6</v>
+      </c>
+      <c r="E14" s="43">
+        <v>6</v>
+      </c>
+      <c r="F14" s="43">
+        <v>6</v>
+      </c>
+      <c r="G14" s="43">
+        <v>6</v>
+      </c>
+      <c r="H14" s="43">
+        <v>6</v>
+      </c>
+      <c r="I14" s="43">
         <v>6</v>
       </c>
       <c r="J14" s="3">
@@ -12810,19 +13344,19 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="56">
-        <v>6</v>
-      </c>
-      <c r="N14" s="56">
-        <v>6</v>
-      </c>
-      <c r="O14" s="56">
-        <v>6</v>
-      </c>
-      <c r="P14" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="56">
+      <c r="M14" s="43">
+        <v>6</v>
+      </c>
+      <c r="N14" s="43">
+        <v>6</v>
+      </c>
+      <c r="O14" s="43">
+        <v>6</v>
+      </c>
+      <c r="P14" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="43">
         <v>6</v>
       </c>
       <c r="R14" s="3">
@@ -12845,22 +13379,22 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="56">
-        <v>6</v>
-      </c>
-      <c r="E15" s="56">
-        <v>6</v>
-      </c>
-      <c r="F15" s="56">
-        <v>6</v>
-      </c>
-      <c r="G15" s="56">
-        <v>6</v>
-      </c>
-      <c r="H15" s="56">
-        <v>6</v>
-      </c>
-      <c r="I15" s="56">
+      <c r="D15" s="43">
+        <v>6</v>
+      </c>
+      <c r="E15" s="43">
+        <v>6</v>
+      </c>
+      <c r="F15" s="43">
+        <v>6</v>
+      </c>
+      <c r="G15" s="43">
+        <v>6</v>
+      </c>
+      <c r="H15" s="43">
+        <v>6</v>
+      </c>
+      <c r="I15" s="43">
         <v>6</v>
       </c>
       <c r="J15" s="3">
@@ -12872,19 +13406,19 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="56">
-        <v>6</v>
-      </c>
-      <c r="N15" s="56">
-        <v>6</v>
-      </c>
-      <c r="O15" s="56">
-        <v>6</v>
-      </c>
-      <c r="P15" s="56">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="56">
+      <c r="M15" s="43">
+        <v>6</v>
+      </c>
+      <c r="N15" s="43">
+        <v>6</v>
+      </c>
+      <c r="O15" s="43">
+        <v>6</v>
+      </c>
+      <c r="P15" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="43">
         <v>6</v>
       </c>
       <c r="R15" s="3">

--- a/docs/NorthPolePatrol-Maps.xlsx
+++ b/docs/NorthPolePatrol-Maps.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>OPEN PATH</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>SPIDERS</t>
-  </si>
-  <si>
-    <t>5 spiders</t>
   </si>
   <si>
     <t>10 chests</t>
@@ -149,9 +146,6 @@
     <t>XMASTREE4</t>
   </si>
   <si>
-    <t>TRAIN1</t>
-  </si>
-  <si>
     <t>TRAIN2</t>
   </si>
   <si>
@@ -240,6 +234,18 @@
   </si>
   <si>
     <t>YETI1</t>
+  </si>
+  <si>
+    <t>TRAIN1/stairs</t>
+  </si>
+  <si>
+    <t>3 spiders</t>
+  </si>
+  <si>
+    <t>3 goblins</t>
+  </si>
+  <si>
+    <t>2 blobs</t>
   </si>
 </sst>
 </file>
@@ -408,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -528,11 +534,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF92D050"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,9 +701,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,6 +818,51 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,13 +871,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9900"/>
       <color rgb="FF926A9A"/>
       <color rgb="FFE81CBC"/>
       <color rgb="FF33CCCC"/>
       <color rgb="FFA5A5A5"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF6600"/>
-      <color rgb="FFFF9900"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2397,7 +2486,7 @@
       <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="41">
         <v>4</v>
       </c>
       <c r="N5" s="23">
@@ -3418,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3426,7 +3515,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3450,7 +3539,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3463,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3482,10 +3571,10 @@
       <c r="D1" s="5">
         <v>60</v>
       </c>
-      <c r="E1" s="59">
-        <v>5</v>
-      </c>
-      <c r="F1" s="59">
+      <c r="E1" s="58">
+        <v>5</v>
+      </c>
+      <c r="F1" s="58">
         <v>5</v>
       </c>
       <c r="G1" s="3">
@@ -3494,64 +3583,64 @@
       <c r="H1" s="3">
         <v>0</v>
       </c>
-      <c r="I1" s="59">
-        <v>5</v>
-      </c>
-      <c r="J1" s="59">
-        <v>5</v>
-      </c>
-      <c r="K1" s="59">
-        <v>5</v>
-      </c>
-      <c r="L1" s="59">
-        <v>5</v>
-      </c>
-      <c r="M1" s="59">
-        <v>5</v>
-      </c>
-      <c r="N1" s="59">
-        <v>5</v>
-      </c>
-      <c r="O1" s="59">
-        <v>5</v>
-      </c>
-      <c r="P1" s="59">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="59">
-        <v>5</v>
-      </c>
-      <c r="R1" s="68">
+      <c r="I1" s="58">
+        <v>5</v>
+      </c>
+      <c r="J1" s="58">
+        <v>5</v>
+      </c>
+      <c r="K1" s="58">
+        <v>5</v>
+      </c>
+      <c r="L1" s="58">
+        <v>5</v>
+      </c>
+      <c r="M1" s="58">
+        <v>5</v>
+      </c>
+      <c r="N1" s="58">
+        <v>5</v>
+      </c>
+      <c r="O1" s="58">
+        <v>5</v>
+      </c>
+      <c r="P1" s="58">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="58">
+        <v>5</v>
+      </c>
+      <c r="R1" s="67">
         <v>47</v>
       </c>
-      <c r="S1" s="59">
-        <v>5</v>
-      </c>
-      <c r="T1" s="61">
-        <v>5</v>
-      </c>
-      <c r="U1" s="60">
-        <v>5</v>
-      </c>
-      <c r="V1" s="60">
-        <v>5</v>
-      </c>
-      <c r="W1" s="60">
-        <v>5</v>
-      </c>
-      <c r="X1" s="60">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="60">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="60">
+      <c r="S1" s="58">
+        <v>5</v>
+      </c>
+      <c r="T1" s="60">
+        <v>5</v>
+      </c>
+      <c r="U1" s="59">
+        <v>5</v>
+      </c>
+      <c r="V1" s="59">
+        <v>5</v>
+      </c>
+      <c r="W1" s="59">
+        <v>5</v>
+      </c>
+      <c r="X1" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="59">
         <v>5</v>
       </c>
     </row>
@@ -3580,20 +3669,20 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="59">
-        <v>5</v>
-      </c>
-      <c r="J2" s="59">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
+      <c r="I2" s="58">
+        <v>5</v>
+      </c>
+      <c r="J2" s="58">
+        <v>5</v>
+      </c>
+      <c r="K2" s="83">
+        <v>12</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="74">
-        <v>3</v>
+      <c r="M2" s="3">
+        <v>0</v>
       </c>
       <c r="N2" s="3">
         <v>0</v>
@@ -3601,43 +3690,43 @@
       <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="65">
+      <c r="P2" s="64">
         <v>4</v>
       </c>
       <c r="Q2" s="5">
         <v>60</v>
       </c>
-      <c r="R2" s="59">
-        <v>5</v>
-      </c>
-      <c r="S2" s="59">
-        <v>5</v>
-      </c>
-      <c r="T2" s="61">
-        <v>5</v>
-      </c>
-      <c r="U2" s="60">
-        <v>5</v>
-      </c>
-      <c r="V2" s="60">
-        <v>5</v>
-      </c>
-      <c r="W2" s="60">
-        <v>5</v>
-      </c>
-      <c r="X2" s="60">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="60">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="60">
+      <c r="R2" s="58">
+        <v>5</v>
+      </c>
+      <c r="S2" s="58">
+        <v>5</v>
+      </c>
+      <c r="T2" s="60">
+        <v>5</v>
+      </c>
+      <c r="U2" s="59">
+        <v>5</v>
+      </c>
+      <c r="V2" s="82">
+        <v>13</v>
+      </c>
+      <c r="W2" s="59">
+        <v>5</v>
+      </c>
+      <c r="X2" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="59">
         <v>5</v>
       </c>
     </row>
@@ -3654,10 +3743,10 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="59">
-        <v>5</v>
-      </c>
-      <c r="F3" s="59">
+      <c r="E3" s="58">
+        <v>5</v>
+      </c>
+      <c r="F3" s="58">
         <v>5</v>
       </c>
       <c r="G3" s="3">
@@ -3666,10 +3755,10 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="59">
-        <v>5</v>
-      </c>
-      <c r="J3" s="59">
+      <c r="I3" s="58">
+        <v>5</v>
+      </c>
+      <c r="J3" s="58">
         <v>5</v>
       </c>
       <c r="K3" s="3">
@@ -3714,22 +3803,22 @@
       <c r="X3" s="10">
         <v>0</v>
       </c>
-      <c r="Y3" s="74">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="60">
+      <c r="Y3" s="76">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
-        <v>20</v>
+      <c r="A4" s="3">
+        <v>0</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -3737,13 +3826,13 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="64">
         <v>4</v>
       </c>
-      <c r="E4" s="59">
-        <v>5</v>
-      </c>
-      <c r="F4" s="59">
+      <c r="E4" s="58">
+        <v>5</v>
+      </c>
+      <c r="F4" s="58">
         <v>5</v>
       </c>
       <c r="G4" s="3">
@@ -3752,10 +3841,10 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="59">
-        <v>5</v>
-      </c>
-      <c r="J4" s="59">
+      <c r="I4" s="58">
+        <v>5</v>
+      </c>
+      <c r="J4" s="58">
         <v>5</v>
       </c>
       <c r="K4" s="3">
@@ -3785,7 +3874,7 @@
       <c r="S4" s="3">
         <v>0</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="24">
         <v>0</v>
       </c>
       <c r="U4" s="10">
@@ -3800,36 +3889,36 @@
       <c r="X4" s="10">
         <v>0</v>
       </c>
-      <c r="Y4" s="65">
+      <c r="Y4" s="64">
         <v>4</v>
       </c>
-      <c r="Z4" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="60">
+      <c r="Z4" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59">
-        <v>5</v>
-      </c>
-      <c r="B5" s="59">
-        <v>5</v>
-      </c>
-      <c r="C5" s="59">
-        <v>5</v>
-      </c>
-      <c r="D5" s="59">
-        <v>5</v>
-      </c>
-      <c r="E5" s="59">
-        <v>5</v>
-      </c>
-      <c r="F5" s="59">
+      <c r="A5" s="58">
+        <v>5</v>
+      </c>
+      <c r="B5" s="58">
+        <v>5</v>
+      </c>
+      <c r="C5" s="58">
+        <v>5</v>
+      </c>
+      <c r="D5" s="58">
+        <v>5</v>
+      </c>
+      <c r="E5" s="58">
+        <v>5</v>
+      </c>
+      <c r="F5" s="58">
         <v>5</v>
       </c>
       <c r="G5" s="24">
@@ -3841,81 +3930,81 @@
       <c r="I5" s="5">
         <v>60</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="58">
         <v>5</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="30">
         <v>0</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="66">
+      <c r="N5" s="65">
         <v>4</v>
       </c>
-      <c r="O5" s="41">
-        <v>22</v>
-      </c>
-      <c r="P5" s="63">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="59">
-        <v>5</v>
-      </c>
-      <c r="R5" s="65">
+      <c r="O5" s="76">
+        <v>28</v>
+      </c>
+      <c r="P5" s="62">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="58">
+        <v>5</v>
+      </c>
+      <c r="R5" s="64">
         <v>4</v>
       </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10">
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="88">
+        <v>0</v>
+      </c>
+      <c r="U5" s="86">
         <v>0</v>
       </c>
       <c r="V5" s="16">
         <v>19</v>
       </c>
-      <c r="W5" s="60">
-        <v>5</v>
-      </c>
-      <c r="X5" s="76">
+      <c r="W5" s="59">
+        <v>5</v>
+      </c>
+      <c r="X5" s="75">
         <v>60</v>
       </c>
-      <c r="Y5" s="60">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="60">
+      <c r="Y5" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59">
-        <v>5</v>
-      </c>
-      <c r="B6" s="59">
-        <v>5</v>
-      </c>
-      <c r="C6" s="59">
-        <v>5</v>
-      </c>
-      <c r="D6" s="59">
-        <v>5</v>
-      </c>
-      <c r="E6" s="59">
-        <v>5</v>
-      </c>
-      <c r="F6" s="61">
+      <c r="A6" s="58">
+        <v>5</v>
+      </c>
+      <c r="B6" s="58">
+        <v>5</v>
+      </c>
+      <c r="C6" s="58">
+        <v>5</v>
+      </c>
+      <c r="D6" s="58">
+        <v>5</v>
+      </c>
+      <c r="E6" s="83">
+        <v>13</v>
+      </c>
+      <c r="F6" s="60">
         <v>5</v>
       </c>
       <c r="G6" s="30">
@@ -3924,31 +4013,31 @@
       <c r="H6" s="23">
         <v>0</v>
       </c>
-      <c r="I6" s="59">
-        <v>5</v>
-      </c>
-      <c r="J6" s="59">
-        <v>5</v>
-      </c>
-      <c r="K6" s="59">
-        <v>5</v>
-      </c>
-      <c r="L6" s="59">
+      <c r="I6" s="58">
+        <v>5</v>
+      </c>
+      <c r="J6" s="58">
+        <v>5</v>
+      </c>
+      <c r="K6" s="58">
+        <v>5</v>
+      </c>
+      <c r="L6" s="58">
         <v>5</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="59">
-        <v>5</v>
-      </c>
-      <c r="O6" s="62">
-        <v>5</v>
-      </c>
-      <c r="P6" s="59">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="59">
+      <c r="N6" s="58">
+        <v>5</v>
+      </c>
+      <c r="O6" s="61">
+        <v>5</v>
+      </c>
+      <c r="P6" s="58">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="58">
         <v>5</v>
       </c>
       <c r="R6" s="16">
@@ -3957,51 +4046,51 @@
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="87">
         <v>0</v>
       </c>
       <c r="U6" s="10">
         <v>0</v>
       </c>
-      <c r="V6" s="65">
+      <c r="V6" s="64">
         <v>4</v>
       </c>
-      <c r="W6" s="60">
-        <v>5</v>
-      </c>
-      <c r="X6" s="60">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="60">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="60">
+      <c r="W6" s="59">
+        <v>5</v>
+      </c>
+      <c r="X6" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
-        <v>5</v>
-      </c>
-      <c r="B7" s="59">
-        <v>5</v>
-      </c>
-      <c r="C7" s="59">
-        <v>5</v>
-      </c>
-      <c r="D7" s="59">
-        <v>5</v>
-      </c>
-      <c r="E7" s="59">
-        <v>5</v>
-      </c>
-      <c r="F7" s="59">
+      <c r="A7" s="58">
+        <v>5</v>
+      </c>
+      <c r="B7" s="58">
+        <v>5</v>
+      </c>
+      <c r="C7" s="58">
+        <v>5</v>
+      </c>
+      <c r="D7" s="58">
+        <v>5</v>
+      </c>
+      <c r="E7" s="58">
+        <v>5</v>
+      </c>
+      <c r="F7" s="58">
         <v>5</v>
       </c>
       <c r="G7" s="31">
@@ -4010,37 +4099,37 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="59">
-        <v>5</v>
-      </c>
-      <c r="J7" s="59">
-        <v>5</v>
-      </c>
-      <c r="K7" s="68">
-        <v>50</v>
-      </c>
-      <c r="L7" s="59">
+      <c r="I7" s="58">
+        <v>5</v>
+      </c>
+      <c r="J7" s="58">
+        <v>5</v>
+      </c>
+      <c r="K7" s="67">
+        <v>47</v>
+      </c>
+      <c r="L7" s="58">
         <v>5</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="59">
-        <v>5</v>
-      </c>
-      <c r="O7" s="59">
-        <v>5</v>
-      </c>
-      <c r="P7" s="59">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="59">
-        <v>5</v>
-      </c>
-      <c r="R7" s="59">
-        <v>5</v>
-      </c>
-      <c r="S7" s="59">
+      <c r="N7" s="58">
+        <v>5</v>
+      </c>
+      <c r="O7" s="58">
+        <v>5</v>
+      </c>
+      <c r="P7" s="58">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="58">
+        <v>5</v>
+      </c>
+      <c r="R7" s="58">
+        <v>5</v>
+      </c>
+      <c r="S7" s="58">
         <v>5</v>
       </c>
       <c r="T7" s="12">
@@ -4061,33 +4150,33 @@
       <c r="Y7" s="16">
         <v>17</v>
       </c>
-      <c r="Z7" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="60">
+      <c r="Z7" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>14</v>
-      </c>
-      <c r="B8" s="65">
+      <c r="A8" s="83">
+        <v>12</v>
+      </c>
+      <c r="B8" s="64">
         <v>4</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="59">
-        <v>5</v>
-      </c>
-      <c r="E8" s="59">
-        <v>5</v>
-      </c>
-      <c r="F8" s="59">
+      <c r="D8" s="58">
+        <v>5</v>
+      </c>
+      <c r="E8" s="58">
+        <v>5</v>
+      </c>
+      <c r="F8" s="58">
         <v>5</v>
       </c>
       <c r="G8" s="3">
@@ -4096,37 +4185,37 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="59">
-        <v>5</v>
-      </c>
-      <c r="J8" s="59">
-        <v>5</v>
-      </c>
-      <c r="K8" s="59">
-        <v>5</v>
-      </c>
-      <c r="L8" s="59">
+      <c r="I8" s="58">
+        <v>5</v>
+      </c>
+      <c r="J8" s="58">
+        <v>5</v>
+      </c>
+      <c r="K8" s="58">
+        <v>5</v>
+      </c>
+      <c r="L8" s="58">
         <v>5</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="59">
-        <v>5</v>
-      </c>
-      <c r="O8" s="59">
-        <v>5</v>
-      </c>
-      <c r="P8" s="59">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="59">
-        <v>5</v>
-      </c>
-      <c r="R8" s="59">
-        <v>5</v>
-      </c>
-      <c r="S8" s="59">
+      <c r="N8" s="58">
+        <v>5</v>
+      </c>
+      <c r="O8" s="58">
+        <v>5</v>
+      </c>
+      <c r="P8" s="83">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="58">
+        <v>5</v>
+      </c>
+      <c r="R8" s="58">
+        <v>5</v>
+      </c>
+      <c r="S8" s="58">
         <v>5</v>
       </c>
       <c r="T8" s="12">
@@ -4147,33 +4236,33 @@
       <c r="Y8" s="10">
         <v>0</v>
       </c>
-      <c r="Z8" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="59">
-        <v>5</v>
-      </c>
-      <c r="E9" s="59">
-        <v>5</v>
-      </c>
-      <c r="F9" s="59">
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9" s="58">
+        <v>5</v>
+      </c>
+      <c r="E9" s="58">
+        <v>5</v>
+      </c>
+      <c r="F9" s="58">
         <v>5</v>
       </c>
       <c r="G9" s="3">
@@ -4182,13 +4271,13 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="59">
-        <v>5</v>
-      </c>
-      <c r="J9" s="59">
-        <v>5</v>
-      </c>
-      <c r="K9" s="59">
+      <c r="I9" s="58">
+        <v>5</v>
+      </c>
+      <c r="J9" s="58">
+        <v>5</v>
+      </c>
+      <c r="K9" s="58">
         <v>5</v>
       </c>
       <c r="L9" s="5">
@@ -4209,10 +4298,10 @@
       <c r="Q9" s="7">
         <v>23</v>
       </c>
-      <c r="R9" s="59">
-        <v>5</v>
-      </c>
-      <c r="S9" s="59">
+      <c r="R9" s="58">
+        <v>5</v>
+      </c>
+      <c r="S9" s="58">
         <v>5</v>
       </c>
       <c r="T9" s="12">
@@ -4221,45 +4310,45 @@
       <c r="U9" s="10">
         <v>0</v>
       </c>
-      <c r="V9" s="60">
-        <v>5</v>
-      </c>
-      <c r="W9" s="60">
-        <v>5</v>
-      </c>
-      <c r="X9" s="10">
+      <c r="V9" s="59">
+        <v>5</v>
+      </c>
+      <c r="W9" s="75">
+        <v>60</v>
+      </c>
+      <c r="X9" s="93">
         <v>0</v>
       </c>
       <c r="Y9" s="10">
         <v>0</v>
       </c>
-      <c r="Z9" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>0</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="59">
-        <v>5</v>
-      </c>
-      <c r="E10" s="59">
-        <v>5</v>
-      </c>
-      <c r="F10" s="59">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="91">
+        <v>0</v>
+      </c>
+      <c r="D10" s="62">
+        <v>5</v>
+      </c>
+      <c r="E10" s="58">
+        <v>5</v>
+      </c>
+      <c r="F10" s="58">
         <v>5</v>
       </c>
       <c r="G10" s="3">
@@ -4292,60 +4381,60 @@
       <c r="P10" s="24">
         <v>0</v>
       </c>
-      <c r="Q10" s="65">
+      <c r="Q10" s="64">
         <v>4</v>
       </c>
-      <c r="R10" s="59">
-        <v>5</v>
-      </c>
-      <c r="S10" s="59">
-        <v>5</v>
-      </c>
-      <c r="T10" s="60">
-        <v>5</v>
-      </c>
-      <c r="U10" s="60">
-        <v>5</v>
-      </c>
-      <c r="V10" s="69">
-        <v>44</v>
-      </c>
-      <c r="W10" s="60">
-        <v>5</v>
-      </c>
-      <c r="X10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59">
+      <c r="R10" s="58">
+        <v>5</v>
+      </c>
+      <c r="S10" s="58">
+        <v>5</v>
+      </c>
+      <c r="T10" s="59">
+        <v>5</v>
+      </c>
+      <c r="U10" s="59">
+        <v>5</v>
+      </c>
+      <c r="V10" s="68">
+        <v>43</v>
+      </c>
+      <c r="W10" s="63">
+        <v>5</v>
+      </c>
+      <c r="X10" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="86">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
         <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="68">
+      <c r="C11" s="31">
+        <v>0</v>
+      </c>
+      <c r="D11" s="67">
         <v>42</v>
       </c>
-      <c r="E11" s="59">
-        <v>5</v>
-      </c>
-      <c r="F11" s="59">
+      <c r="E11" s="58">
+        <v>5</v>
+      </c>
+      <c r="F11" s="58">
         <v>5</v>
       </c>
       <c r="G11" s="3">
@@ -4375,48 +4464,48 @@
       <c r="O11" s="12">
         <v>0</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="3">
         <v>0</v>
       </c>
       <c r="Q11" s="23">
         <v>0</v>
       </c>
-      <c r="R11" s="59">
-        <v>5</v>
-      </c>
-      <c r="S11" s="59">
-        <v>5</v>
-      </c>
-      <c r="T11" s="59">
-        <v>5</v>
-      </c>
-      <c r="U11" s="10">
-        <v>0</v>
-      </c>
-      <c r="V11" s="60">
-        <v>5</v>
+      <c r="R11" s="58">
+        <v>5</v>
+      </c>
+      <c r="S11" s="58">
+        <v>5</v>
+      </c>
+      <c r="T11" s="58">
+        <v>5</v>
+      </c>
+      <c r="U11" s="76">
+        <v>3</v>
+      </c>
+      <c r="V11" s="76">
+        <v>39</v>
       </c>
       <c r="W11" s="76">
-        <v>60</v>
-      </c>
-      <c r="X11" s="10">
+        <v>40</v>
+      </c>
+      <c r="X11" s="96">
         <v>0</v>
       </c>
       <c r="Y11" s="10">
         <v>0</v>
       </c>
-      <c r="Z11" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB11" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59">
+      <c r="Z11" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58">
         <v>5</v>
       </c>
       <c r="B12" s="3">
@@ -4425,31 +4514,31 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="59">
-        <v>5</v>
-      </c>
-      <c r="E12" s="59">
-        <v>5</v>
-      </c>
-      <c r="F12" s="59">
+      <c r="D12" s="58">
+        <v>5</v>
+      </c>
+      <c r="E12" s="58">
+        <v>5</v>
+      </c>
+      <c r="F12" s="58">
         <v>5</v>
       </c>
       <c r="G12" s="12">
         <v>0</v>
       </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12" s="63">
-        <v>5</v>
-      </c>
-      <c r="J12" s="59">
-        <v>5</v>
-      </c>
-      <c r="K12" s="59">
-        <v>5</v>
-      </c>
-      <c r="L12" s="65">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="62">
+        <v>5</v>
+      </c>
+      <c r="J12" s="58">
+        <v>5</v>
+      </c>
+      <c r="K12" s="58">
+        <v>5</v>
+      </c>
+      <c r="L12" s="64">
         <v>4</v>
       </c>
       <c r="M12" s="3">
@@ -4467,19 +4556,19 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="59">
-        <v>5</v>
-      </c>
-      <c r="S12" s="59">
-        <v>5</v>
-      </c>
-      <c r="T12" s="59">
-        <v>5</v>
+      <c r="R12" s="58">
+        <v>5</v>
+      </c>
+      <c r="S12" s="58">
+        <v>5</v>
+      </c>
+      <c r="T12" s="83">
+        <v>12</v>
       </c>
       <c r="U12" s="10">
         <v>0</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="93">
         <v>0</v>
       </c>
       <c r="W12" s="10">
@@ -4491,18 +4580,18 @@
       <c r="Y12" s="10">
         <v>0</v>
       </c>
-      <c r="Z12" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA12" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB12" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59">
+      <c r="Z12" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58">
         <v>5</v>
       </c>
       <c r="B13" s="3">
@@ -4520,19 +4609,19 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="24">
         <v>0</v>
       </c>
       <c r="H13" s="31">
         <v>0</v>
       </c>
-      <c r="I13" s="59">
-        <v>5</v>
-      </c>
-      <c r="J13" s="59">
-        <v>5</v>
-      </c>
-      <c r="K13" s="59">
+      <c r="I13" s="58">
+        <v>5</v>
+      </c>
+      <c r="J13" s="58">
+        <v>5</v>
+      </c>
+      <c r="K13" s="58">
         <v>5</v>
       </c>
       <c r="L13" s="3">
@@ -4541,7 +4630,7 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="30">
         <v>0</v>
       </c>
       <c r="O13" s="3">
@@ -4550,25 +4639,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="59">
-        <v>5</v>
-      </c>
-      <c r="S13" s="59">
-        <v>5</v>
-      </c>
-      <c r="T13" s="59">
-        <v>5</v>
-      </c>
-      <c r="U13" s="10">
-        <v>0</v>
-      </c>
-      <c r="V13" s="10">
-        <v>0</v>
-      </c>
-      <c r="W13" s="10">
+      <c r="Q13" s="53">
+        <v>14</v>
+      </c>
+      <c r="R13" s="58">
+        <v>5</v>
+      </c>
+      <c r="S13" s="58">
+        <v>5</v>
+      </c>
+      <c r="T13" s="58">
+        <v>5</v>
+      </c>
+      <c r="U13" s="92">
+        <v>0</v>
+      </c>
+      <c r="V13" s="95">
+        <v>0</v>
+      </c>
+      <c r="W13" s="86">
         <v>0</v>
       </c>
       <c r="X13" s="10">
@@ -4577,18 +4666,18 @@
       <c r="Y13" s="10">
         <v>0</v>
       </c>
-      <c r="Z13" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="69">
+      <c r="Z13" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="68">
         <v>45</v>
       </c>
-      <c r="AB13" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59">
+      <c r="AB13" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58">
         <v>5</v>
       </c>
       <c r="B14" s="3">
@@ -4603,28 +4692,28 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="59">
-        <v>5</v>
-      </c>
-      <c r="J14" s="59">
-        <v>5</v>
-      </c>
-      <c r="K14" s="59">
-        <v>5</v>
-      </c>
-      <c r="L14" s="23">
-        <v>0</v>
-      </c>
-      <c r="M14" s="74">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="91">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="58">
+        <v>5</v>
+      </c>
+      <c r="J14" s="58">
+        <v>5</v>
+      </c>
+      <c r="K14" s="58">
+        <v>5</v>
+      </c>
+      <c r="L14" s="73">
+        <v>22</v>
+      </c>
+      <c r="M14" s="23">
         <v>0</v>
       </c>
       <c r="N14" s="23">
@@ -4639,209 +4728,209 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="59">
-        <v>5</v>
-      </c>
-      <c r="S14" s="59">
-        <v>5</v>
-      </c>
-      <c r="T14" s="61">
-        <v>5</v>
-      </c>
-      <c r="U14" s="82">
+      <c r="R14" s="58">
+        <v>5</v>
+      </c>
+      <c r="S14" s="58">
+        <v>5</v>
+      </c>
+      <c r="T14" s="60">
+        <v>5</v>
+      </c>
+      <c r="U14" s="81">
         <v>66</v>
       </c>
-      <c r="V14" s="82">
+      <c r="V14" s="94">
         <v>66</v>
       </c>
-      <c r="W14" s="82">
+      <c r="W14" s="81">
         <v>66</v>
       </c>
-      <c r="X14" s="82">
+      <c r="X14" s="81">
         <v>66</v>
       </c>
-      <c r="Y14" s="82">
+      <c r="Y14" s="81">
         <v>66</v>
       </c>
-      <c r="Z14" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59">
+      <c r="Z14" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58">
         <v>5</v>
       </c>
       <c r="B15" s="5">
         <v>60</v>
       </c>
-      <c r="C15" s="59">
-        <v>5</v>
-      </c>
-      <c r="D15" s="59">
-        <v>5</v>
-      </c>
-      <c r="E15" s="59">
-        <v>5</v>
-      </c>
-      <c r="F15" s="59">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="C15" s="58">
+        <v>5</v>
+      </c>
+      <c r="D15" s="58">
+        <v>5</v>
+      </c>
+      <c r="E15" s="58">
+        <v>5</v>
+      </c>
+      <c r="F15" s="58">
+        <v>5</v>
+      </c>
+      <c r="G15" s="31">
         <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="59">
-        <v>5</v>
-      </c>
-      <c r="J15" s="59">
-        <v>5</v>
-      </c>
-      <c r="K15" s="59">
-        <v>5</v>
-      </c>
-      <c r="L15" s="59">
-        <v>5</v>
-      </c>
-      <c r="M15" s="62">
-        <v>5</v>
-      </c>
-      <c r="N15" s="59">
-        <v>5</v>
-      </c>
-      <c r="O15" s="59">
-        <v>5</v>
-      </c>
-      <c r="P15" s="59">
+      <c r="I15" s="58">
+        <v>5</v>
+      </c>
+      <c r="J15" s="58">
+        <v>5</v>
+      </c>
+      <c r="K15" s="58">
+        <v>5</v>
+      </c>
+      <c r="L15" s="58">
+        <v>5</v>
+      </c>
+      <c r="M15" s="61">
+        <v>5</v>
+      </c>
+      <c r="N15" s="58">
+        <v>5</v>
+      </c>
+      <c r="O15" s="58">
+        <v>5</v>
+      </c>
+      <c r="P15" s="58">
         <v>5</v>
       </c>
       <c r="Q15" s="5">
         <v>60</v>
       </c>
-      <c r="R15" s="59">
-        <v>5</v>
-      </c>
-      <c r="S15" s="59">
-        <v>5</v>
-      </c>
-      <c r="T15" s="61">
-        <v>5</v>
-      </c>
-      <c r="U15" s="60">
-        <v>5</v>
-      </c>
-      <c r="V15" s="60">
-        <v>5</v>
-      </c>
-      <c r="W15" s="60">
-        <v>5</v>
-      </c>
-      <c r="X15" s="60">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="60">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="60">
+      <c r="R15" s="58">
+        <v>5</v>
+      </c>
+      <c r="S15" s="58">
+        <v>5</v>
+      </c>
+      <c r="T15" s="60">
+        <v>5</v>
+      </c>
+      <c r="U15" s="59">
+        <v>5</v>
+      </c>
+      <c r="V15" s="59">
+        <v>5</v>
+      </c>
+      <c r="W15" s="59">
+        <v>5</v>
+      </c>
+      <c r="X15" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="59">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60">
-        <v>5</v>
-      </c>
-      <c r="B16" s="60">
-        <v>5</v>
-      </c>
-      <c r="C16" s="60">
-        <v>5</v>
-      </c>
-      <c r="D16" s="60">
-        <v>5</v>
-      </c>
-      <c r="E16" s="60">
-        <v>5</v>
-      </c>
-      <c r="F16" s="60">
+      <c r="A16" s="59">
+        <v>5</v>
+      </c>
+      <c r="B16" s="59">
+        <v>5</v>
+      </c>
+      <c r="C16" s="59">
+        <v>5</v>
+      </c>
+      <c r="D16" s="59">
+        <v>5</v>
+      </c>
+      <c r="E16" s="59">
+        <v>5</v>
+      </c>
+      <c r="F16" s="59">
         <v>5</v>
       </c>
       <c r="G16" s="7">
         <v>34</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="64">
         <v>4</v>
       </c>
-      <c r="I16" s="60">
-        <v>5</v>
-      </c>
-      <c r="J16" s="60">
-        <v>5</v>
-      </c>
-      <c r="K16" s="60">
-        <v>5</v>
-      </c>
-      <c r="L16" s="60">
-        <v>5</v>
-      </c>
-      <c r="M16" s="60">
-        <v>5</v>
-      </c>
-      <c r="N16" s="60">
-        <v>5</v>
-      </c>
-      <c r="O16" s="60">
-        <v>5</v>
-      </c>
-      <c r="P16" s="60">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="60">
-        <v>5</v>
-      </c>
-      <c r="R16" s="60">
-        <v>5</v>
-      </c>
-      <c r="S16" s="60">
-        <v>5</v>
-      </c>
-      <c r="T16" s="64">
-        <v>5</v>
-      </c>
-      <c r="U16" s="60">
-        <v>5</v>
-      </c>
-      <c r="V16" s="60">
-        <v>5</v>
-      </c>
-      <c r="W16" s="60">
-        <v>5</v>
-      </c>
-      <c r="X16" s="60">
-        <v>5</v>
-      </c>
-      <c r="Y16" s="60">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="60">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="60">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="60">
+      <c r="I16" s="59">
+        <v>5</v>
+      </c>
+      <c r="J16" s="59">
+        <v>5</v>
+      </c>
+      <c r="K16" s="59">
+        <v>5</v>
+      </c>
+      <c r="L16" s="59">
+        <v>5</v>
+      </c>
+      <c r="M16" s="59">
+        <v>5</v>
+      </c>
+      <c r="N16" s="59">
+        <v>5</v>
+      </c>
+      <c r="O16" s="59">
+        <v>5</v>
+      </c>
+      <c r="P16" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="59">
+        <v>5</v>
+      </c>
+      <c r="R16" s="59">
+        <v>5</v>
+      </c>
+      <c r="S16" s="59">
+        <v>5</v>
+      </c>
+      <c r="T16" s="63">
+        <v>5</v>
+      </c>
+      <c r="U16" s="59">
+        <v>5</v>
+      </c>
+      <c r="V16" s="59">
+        <v>5</v>
+      </c>
+      <c r="W16" s="59">
+        <v>5</v>
+      </c>
+      <c r="X16" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="59">
         <v>5</v>
       </c>
     </row>
@@ -4865,420 +4954,426 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
+      <c r="T17" s="84"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
+      <c r="V17" s="89"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
     <row r="18" spans="1:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V18" s="40" t="s">
-        <v>6</v>
+      <c r="R18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="V18" s="90" t="s">
+        <v>70</v>
       </c>
       <c r="W18" s="33"/>
       <c r="X18" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
+        <v>0</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="55">
+        <v>27</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="57">
+        <v>47</v>
+      </c>
+      <c r="L19" s="66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
+        <v>2</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="76">
+        <v>28</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="57">
+        <v>48</v>
+      </c>
+      <c r="L20" s="66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49">
+        <v>3</v>
+      </c>
+      <c r="B21" s="49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
-        <v>0</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="56">
+      <c r="F21" s="76">
+        <v>29</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="57">
+        <v>49</v>
+      </c>
+      <c r="L21" s="66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50">
+        <v>4</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="76">
+        <v>30</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="57">
+        <v>50</v>
+      </c>
+      <c r="L22" s="66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51">
+        <v>5</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="76">
+        <v>31</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="69">
+        <v>51</v>
+      </c>
+      <c r="L23" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="76">
+        <v>11</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="76">
+        <v>32</v>
+      </c>
+      <c r="G24" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="K24" s="69">
+        <v>52</v>
+      </c>
+      <c r="L24" s="70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53">
+        <v>12</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="55">
+        <v>33</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="69">
+        <v>53</v>
+      </c>
+      <c r="L25" s="70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="53">
+        <v>13</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="76">
+        <v>34</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="69">
+        <v>54</v>
+      </c>
+      <c r="L26" s="70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53">
+        <v>14</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="76">
+        <v>35</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="69">
+        <v>55</v>
+      </c>
+      <c r="L27" s="70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53">
+        <v>15</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="76">
+        <v>36</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="69">
+        <v>56</v>
+      </c>
+      <c r="L28" s="70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="76">
+        <v>16</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="76">
+        <v>37</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="76">
+        <v>57</v>
+      </c>
+      <c r="L29" s="78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="71">
+        <v>17</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="76">
+        <v>3</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="76">
+        <v>58</v>
+      </c>
+      <c r="L30" s="78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="71">
+        <v>18</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="76">
+        <v>39</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="76">
+        <v>59</v>
+      </c>
+      <c r="L31" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="58">
-        <v>47</v>
-      </c>
-      <c r="L19" s="67" t="s">
+    </row>
+    <row r="32" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="71">
+        <v>19</v>
+      </c>
+      <c r="B32" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="76">
+        <v>40</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="47">
+        <v>60</v>
+      </c>
+      <c r="L32" s="74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="71">
+        <v>21</v>
+      </c>
+      <c r="B33" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="57">
+        <v>41</v>
+      </c>
+      <c r="G33" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="47">
+        <v>61</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="71">
+        <v>22</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="57">
+        <v>42</v>
+      </c>
+      <c r="G34" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="47">
+        <v>62</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="71">
+        <v>23</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="57">
+        <v>43</v>
+      </c>
+      <c r="G35" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="47">
+        <v>63</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="71">
+        <v>24</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="57">
+        <v>44</v>
+      </c>
+      <c r="G36" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="47">
+        <v>64</v>
+      </c>
+      <c r="L36" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="71">
+        <v>25</v>
+      </c>
+      <c r="B37" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="57">
+        <v>45</v>
+      </c>
+      <c r="G37" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="47">
+        <v>65</v>
+      </c>
+      <c r="L37" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="71">
+        <v>26</v>
+      </c>
+      <c r="B38" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="57">
+        <v>46</v>
+      </c>
+      <c r="G38" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="79">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
-        <v>2</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="77">
-        <v>28</v>
-      </c>
-      <c r="G20" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="58">
-        <v>48</v>
-      </c>
-      <c r="L20" s="67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
-        <v>3</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="77">
-        <v>29</v>
-      </c>
-      <c r="G21" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="58">
-        <v>49</v>
-      </c>
-      <c r="L21" s="67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
-        <v>4</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="77">
-        <v>30</v>
-      </c>
-      <c r="G22" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="58">
-        <v>50</v>
-      </c>
-      <c r="L22" s="67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52">
-        <v>5</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="77">
-        <v>31</v>
-      </c>
-      <c r="G23" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="70">
+      <c r="L38" s="80" t="s">
         <v>51</v>
-      </c>
-      <c r="L23" s="71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77">
-        <v>11</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="77">
-        <v>32</v>
-      </c>
-      <c r="G24" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="70">
-        <v>52</v>
-      </c>
-      <c r="L24" s="71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54">
-        <v>12</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="56">
-        <v>33</v>
-      </c>
-      <c r="G25" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25" s="70">
-        <v>53</v>
-      </c>
-      <c r="L25" s="71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
-        <v>13</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="77">
-        <v>34</v>
-      </c>
-      <c r="G26" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="70">
-        <v>54</v>
-      </c>
-      <c r="L26" s="71" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54">
-        <v>14</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="77">
-        <v>35</v>
-      </c>
-      <c r="G27" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="70">
-        <v>55</v>
-      </c>
-      <c r="L27" s="71" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54">
-        <v>15</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="77">
-        <v>36</v>
-      </c>
-      <c r="G28" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="70">
-        <v>56</v>
-      </c>
-      <c r="L28" s="71" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77">
-        <v>16</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="77">
-        <v>37</v>
-      </c>
-      <c r="G29" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="77">
-        <v>57</v>
-      </c>
-      <c r="L29" s="79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72">
-        <v>17</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="77">
-        <v>38</v>
-      </c>
-      <c r="G30" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="77">
-        <v>58</v>
-      </c>
-      <c r="L30" s="79" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72">
-        <v>18</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="77">
-        <v>39</v>
-      </c>
-      <c r="G31" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="77">
-        <v>59</v>
-      </c>
-      <c r="L31" s="79" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72">
-        <v>19</v>
-      </c>
-      <c r="B32" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="77">
-        <v>40</v>
-      </c>
-      <c r="G32" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="48">
-        <v>60</v>
-      </c>
-      <c r="L32" s="75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="72">
-        <v>21</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="58">
-        <v>41</v>
-      </c>
-      <c r="G33" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33" s="48">
-        <v>61</v>
-      </c>
-      <c r="L33" s="49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72">
-        <v>22</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="58">
-        <v>42</v>
-      </c>
-      <c r="G34" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" s="48">
-        <v>62</v>
-      </c>
-      <c r="L34" s="49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72">
-        <v>23</v>
-      </c>
-      <c r="B35" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="58">
-        <v>43</v>
-      </c>
-      <c r="G35" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="48">
-        <v>63</v>
-      </c>
-      <c r="L35" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72">
-        <v>24</v>
-      </c>
-      <c r="B36" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="58">
-        <v>44</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="48">
-        <v>64</v>
-      </c>
-      <c r="L36" s="49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="72">
-        <v>25</v>
-      </c>
-      <c r="B37" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="58">
-        <v>45</v>
-      </c>
-      <c r="G37" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="48">
-        <v>65</v>
-      </c>
-      <c r="L37" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="72">
-        <v>26</v>
-      </c>
-      <c r="B38" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="58">
-        <v>46</v>
-      </c>
-      <c r="G38" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="K38" s="80">
-        <v>66</v>
-      </c>
-      <c r="L38" s="81" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -6570,7 +6665,7 @@
       <c r="W4" s="12">
         <v>0</v>
       </c>
-      <c r="X4" s="45">
+      <c r="X4" s="44">
         <v>0</v>
       </c>
       <c r="Y4" s="23">
@@ -6623,7 +6718,7 @@
       <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="41">
         <v>4</v>
       </c>
       <c r="N5" s="23">
@@ -6834,7 +6929,7 @@
       <c r="Y7" s="15">
         <v>5</v>
       </c>
-      <c r="Z7" s="45">
+      <c r="Z7" s="44">
         <v>0</v>
       </c>
       <c r="AA7" s="37">
@@ -7350,7 +7445,7 @@
       <c r="Y13" s="15">
         <v>5</v>
       </c>
-      <c r="Z13" s="45">
+      <c r="Z13" s="44">
         <v>0</v>
       </c>
       <c r="AA13" s="37">
@@ -7525,7 +7620,7 @@
       <c r="Z15" s="12">
         <v>0</v>
       </c>
-      <c r="AA15" s="45">
+      <c r="AA15" s="44">
         <v>0</v>
       </c>
       <c r="AB15" s="37">
@@ -7627,7 +7722,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -7643,14 +7738,14 @@
       <c r="C19" s="28">
         <v>11</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <v>4</v>
       </c>
       <c r="G19" s="6">
         <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7658,7 +7753,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7694,64 +7789,64 @@
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43">
-        <v>6</v>
-      </c>
-      <c r="B1" s="43">
-        <v>6</v>
-      </c>
-      <c r="C1" s="43">
-        <v>6</v>
-      </c>
-      <c r="D1" s="43">
-        <v>6</v>
-      </c>
-      <c r="E1" s="43">
-        <v>6</v>
-      </c>
-      <c r="F1" s="43">
-        <v>6</v>
-      </c>
-      <c r="G1" s="43">
-        <v>6</v>
-      </c>
-      <c r="H1" s="43">
-        <v>6</v>
-      </c>
-      <c r="I1" s="43">
-        <v>6</v>
-      </c>
-      <c r="J1" s="43">
-        <v>6</v>
-      </c>
-      <c r="K1" s="43">
-        <v>6</v>
-      </c>
-      <c r="L1" s="43">
-        <v>6</v>
-      </c>
-      <c r="M1" s="43">
-        <v>6</v>
-      </c>
-      <c r="N1" s="43">
-        <v>6</v>
-      </c>
-      <c r="O1" s="43">
-        <v>6</v>
-      </c>
-      <c r="P1" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="43">
-        <v>6</v>
-      </c>
-      <c r="R1" s="43">
-        <v>6</v>
-      </c>
-      <c r="S1" s="43">
-        <v>6</v>
-      </c>
-      <c r="T1" s="43">
+      <c r="A1" s="42">
+        <v>6</v>
+      </c>
+      <c r="B1" s="42">
+        <v>6</v>
+      </c>
+      <c r="C1" s="42">
+        <v>6</v>
+      </c>
+      <c r="D1" s="42">
+        <v>6</v>
+      </c>
+      <c r="E1" s="42">
+        <v>6</v>
+      </c>
+      <c r="F1" s="42">
+        <v>6</v>
+      </c>
+      <c r="G1" s="42">
+        <v>6</v>
+      </c>
+      <c r="H1" s="42">
+        <v>6</v>
+      </c>
+      <c r="I1" s="42">
+        <v>6</v>
+      </c>
+      <c r="J1" s="42">
+        <v>6</v>
+      </c>
+      <c r="K1" s="42">
+        <v>6</v>
+      </c>
+      <c r="L1" s="42">
+        <v>6</v>
+      </c>
+      <c r="M1" s="42">
+        <v>6</v>
+      </c>
+      <c r="N1" s="42">
+        <v>6</v>
+      </c>
+      <c r="O1" s="42">
+        <v>6</v>
+      </c>
+      <c r="P1" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="42">
+        <v>6</v>
+      </c>
+      <c r="R1" s="42">
+        <v>6</v>
+      </c>
+      <c r="S1" s="42">
+        <v>6</v>
+      </c>
+      <c r="T1" s="42">
         <v>6</v>
       </c>
     </row>
@@ -7783,37 +7878,37 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="43">
-        <v>6</v>
-      </c>
-      <c r="K2" s="43">
-        <v>6</v>
-      </c>
-      <c r="L2" s="43">
-        <v>6</v>
-      </c>
-      <c r="M2" s="43">
-        <v>6</v>
-      </c>
-      <c r="N2" s="43">
-        <v>6</v>
-      </c>
-      <c r="O2" s="43">
-        <v>6</v>
-      </c>
-      <c r="P2" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="43">
-        <v>6</v>
-      </c>
-      <c r="R2" s="43">
-        <v>6</v>
-      </c>
-      <c r="S2" s="43">
-        <v>6</v>
-      </c>
-      <c r="T2" s="43">
+      <c r="J2" s="42">
+        <v>6</v>
+      </c>
+      <c r="K2" s="42">
+        <v>6</v>
+      </c>
+      <c r="L2" s="42">
+        <v>6</v>
+      </c>
+      <c r="M2" s="42">
+        <v>6</v>
+      </c>
+      <c r="N2" s="42">
+        <v>6</v>
+      </c>
+      <c r="O2" s="42">
+        <v>6</v>
+      </c>
+      <c r="P2" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="42">
+        <v>6</v>
+      </c>
+      <c r="R2" s="42">
+        <v>6</v>
+      </c>
+      <c r="S2" s="42">
+        <v>6</v>
+      </c>
+      <c r="T2" s="42">
         <v>6</v>
       </c>
     </row>
@@ -7824,13 +7919,13 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="43">
-        <v>6</v>
-      </c>
-      <c r="D3" s="43">
-        <v>6</v>
-      </c>
-      <c r="E3" s="43">
+      <c r="C3" s="42">
+        <v>6</v>
+      </c>
+      <c r="D3" s="42">
+        <v>6</v>
+      </c>
+      <c r="E3" s="42">
         <v>6</v>
       </c>
       <c r="F3" s="3">
@@ -7860,22 +7955,22 @@
       <c r="N3" s="22">
         <v>9</v>
       </c>
-      <c r="O3" s="43">
-        <v>6</v>
-      </c>
-      <c r="P3" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="43">
-        <v>6</v>
-      </c>
-      <c r="R3" s="43">
-        <v>6</v>
-      </c>
-      <c r="S3" s="43">
-        <v>6</v>
-      </c>
-      <c r="T3" s="43">
+      <c r="O3" s="42">
+        <v>6</v>
+      </c>
+      <c r="P3" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="42">
+        <v>6</v>
+      </c>
+      <c r="R3" s="42">
+        <v>6</v>
+      </c>
+      <c r="S3" s="42">
+        <v>6</v>
+      </c>
+      <c r="T3" s="42">
         <v>6</v>
       </c>
     </row>
@@ -7886,13 +7981,13 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="43">
-        <v>6</v>
-      </c>
-      <c r="D4" s="43">
-        <v>6</v>
-      </c>
-      <c r="E4" s="43">
+      <c r="C4" s="42">
+        <v>6</v>
+      </c>
+      <c r="D4" s="42">
+        <v>6</v>
+      </c>
+      <c r="E4" s="42">
         <v>6</v>
       </c>
       <c r="F4" s="3">
@@ -7907,37 +8002,37 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="43">
-        <v>6</v>
-      </c>
-      <c r="K4" s="43">
-        <v>6</v>
-      </c>
-      <c r="L4" s="43">
-        <v>6</v>
-      </c>
-      <c r="M4" s="43">
-        <v>6</v>
-      </c>
-      <c r="N4" s="43">
-        <v>6</v>
-      </c>
-      <c r="O4" s="43">
-        <v>6</v>
-      </c>
-      <c r="P4" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>6</v>
-      </c>
-      <c r="R4" s="43">
-        <v>6</v>
-      </c>
-      <c r="S4" s="43">
-        <v>6</v>
-      </c>
-      <c r="T4" s="43">
+      <c r="J4" s="42">
+        <v>6</v>
+      </c>
+      <c r="K4" s="42">
+        <v>6</v>
+      </c>
+      <c r="L4" s="42">
+        <v>6</v>
+      </c>
+      <c r="M4" s="42">
+        <v>6</v>
+      </c>
+      <c r="N4" s="42">
+        <v>6</v>
+      </c>
+      <c r="O4" s="42">
+        <v>6</v>
+      </c>
+      <c r="P4" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="42">
+        <v>6</v>
+      </c>
+      <c r="R4" s="42">
+        <v>6</v>
+      </c>
+      <c r="S4" s="42">
+        <v>6</v>
+      </c>
+      <c r="T4" s="42">
         <v>6</v>
       </c>
     </row>
@@ -7948,13 +8043,13 @@
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="43">
-        <v>6</v>
-      </c>
-      <c r="D5" s="43">
-        <v>6</v>
-      </c>
-      <c r="E5" s="43">
+      <c r="C5" s="42">
+        <v>6</v>
+      </c>
+      <c r="D5" s="42">
+        <v>6</v>
+      </c>
+      <c r="E5" s="42">
         <v>6</v>
       </c>
       <c r="F5" s="2">
@@ -7969,22 +8064,22 @@
       <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="43">
-        <v>6</v>
-      </c>
-      <c r="K5" s="43">
-        <v>6</v>
-      </c>
-      <c r="L5" s="43">
-        <v>6</v>
-      </c>
-      <c r="M5" s="43">
-        <v>6</v>
-      </c>
-      <c r="N5" s="43">
-        <v>6</v>
-      </c>
-      <c r="O5" s="43">
+      <c r="J5" s="42">
+        <v>6</v>
+      </c>
+      <c r="K5" s="42">
+        <v>6</v>
+      </c>
+      <c r="L5" s="42">
+        <v>6</v>
+      </c>
+      <c r="M5" s="42">
+        <v>6</v>
+      </c>
+      <c r="N5" s="42">
+        <v>6</v>
+      </c>
+      <c r="O5" s="42">
         <v>6</v>
       </c>
       <c r="P5" s="3">
@@ -7999,7 +8094,7 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="42">
         <v>6</v>
       </c>
     </row>
@@ -8010,43 +8105,43 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="43">
-        <v>6</v>
-      </c>
-      <c r="D6" s="43">
-        <v>6</v>
-      </c>
-      <c r="E6" s="43">
-        <v>6</v>
-      </c>
-      <c r="F6" s="43">
-        <v>6</v>
-      </c>
-      <c r="G6" s="43">
-        <v>6</v>
-      </c>
-      <c r="H6" s="43">
+      <c r="C6" s="42">
+        <v>6</v>
+      </c>
+      <c r="D6" s="42">
+        <v>6</v>
+      </c>
+      <c r="E6" s="42">
+        <v>6</v>
+      </c>
+      <c r="F6" s="42">
+        <v>6</v>
+      </c>
+      <c r="G6" s="42">
+        <v>6</v>
+      </c>
+      <c r="H6" s="42">
         <v>6</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="43">
-        <v>6</v>
-      </c>
-      <c r="K6" s="43">
-        <v>6</v>
-      </c>
-      <c r="L6" s="43">
-        <v>6</v>
-      </c>
-      <c r="M6" s="43">
-        <v>6</v>
-      </c>
-      <c r="N6" s="43">
-        <v>6</v>
-      </c>
-      <c r="O6" s="43">
+      <c r="J6" s="42">
+        <v>6</v>
+      </c>
+      <c r="K6" s="42">
+        <v>6</v>
+      </c>
+      <c r="L6" s="42">
+        <v>6</v>
+      </c>
+      <c r="M6" s="42">
+        <v>6</v>
+      </c>
+      <c r="N6" s="42">
+        <v>6</v>
+      </c>
+      <c r="O6" s="42">
         <v>6</v>
       </c>
       <c r="P6" s="3">
@@ -8061,7 +8156,7 @@
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="42">
         <v>6</v>
       </c>
     </row>
@@ -8072,43 +8167,43 @@
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="43">
-        <v>6</v>
-      </c>
-      <c r="D7" s="43">
-        <v>6</v>
-      </c>
-      <c r="E7" s="43">
-        <v>6</v>
-      </c>
-      <c r="F7" s="43">
-        <v>6</v>
-      </c>
-      <c r="G7" s="43">
-        <v>6</v>
-      </c>
-      <c r="H7" s="43">
+      <c r="C7" s="42">
+        <v>6</v>
+      </c>
+      <c r="D7" s="42">
+        <v>6</v>
+      </c>
+      <c r="E7" s="42">
+        <v>6</v>
+      </c>
+      <c r="F7" s="42">
+        <v>6</v>
+      </c>
+      <c r="G7" s="42">
+        <v>6</v>
+      </c>
+      <c r="H7" s="42">
         <v>6</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="43">
-        <v>6</v>
-      </c>
-      <c r="K7" s="43">
-        <v>6</v>
-      </c>
-      <c r="L7" s="43">
-        <v>6</v>
-      </c>
-      <c r="M7" s="43">
-        <v>6</v>
-      </c>
-      <c r="N7" s="43">
-        <v>6</v>
-      </c>
-      <c r="O7" s="43">
+      <c r="J7" s="42">
+        <v>6</v>
+      </c>
+      <c r="K7" s="42">
+        <v>6</v>
+      </c>
+      <c r="L7" s="42">
+        <v>6</v>
+      </c>
+      <c r="M7" s="42">
+        <v>6</v>
+      </c>
+      <c r="N7" s="42">
+        <v>6</v>
+      </c>
+      <c r="O7" s="42">
         <v>6</v>
       </c>
       <c r="P7" s="3">
@@ -8123,7 +8218,7 @@
       <c r="S7" s="3">
         <v>0</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T7" s="42">
         <v>6</v>
       </c>
     </row>
@@ -8134,43 +8229,43 @@
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="43">
-        <v>6</v>
-      </c>
-      <c r="D8" s="43">
-        <v>6</v>
-      </c>
-      <c r="E8" s="43">
-        <v>6</v>
-      </c>
-      <c r="F8" s="43">
-        <v>6</v>
-      </c>
-      <c r="G8" s="43">
-        <v>6</v>
-      </c>
-      <c r="H8" s="43">
+      <c r="C8" s="42">
+        <v>6</v>
+      </c>
+      <c r="D8" s="42">
+        <v>6</v>
+      </c>
+      <c r="E8" s="42">
+        <v>6</v>
+      </c>
+      <c r="F8" s="42">
+        <v>6</v>
+      </c>
+      <c r="G8" s="42">
+        <v>6</v>
+      </c>
+      <c r="H8" s="42">
         <v>6</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="43">
-        <v>6</v>
-      </c>
-      <c r="K8" s="43">
-        <v>6</v>
-      </c>
-      <c r="L8" s="43">
-        <v>6</v>
-      </c>
-      <c r="M8" s="43">
-        <v>6</v>
-      </c>
-      <c r="N8" s="43">
-        <v>6</v>
-      </c>
-      <c r="O8" s="43">
+      <c r="J8" s="42">
+        <v>6</v>
+      </c>
+      <c r="K8" s="42">
+        <v>6</v>
+      </c>
+      <c r="L8" s="42">
+        <v>6</v>
+      </c>
+      <c r="M8" s="42">
+        <v>6</v>
+      </c>
+      <c r="N8" s="42">
+        <v>6</v>
+      </c>
+      <c r="O8" s="42">
         <v>6</v>
       </c>
       <c r="P8" s="2">
@@ -8185,21 +8280,21 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
-        <v>6</v>
-      </c>
-      <c r="B9" s="43">
-        <v>6</v>
-      </c>
-      <c r="C9" s="43">
-        <v>6</v>
-      </c>
-      <c r="D9" s="43">
+      <c r="A9" s="42">
+        <v>6</v>
+      </c>
+      <c r="B9" s="42">
+        <v>6</v>
+      </c>
+      <c r="C9" s="42">
+        <v>6</v>
+      </c>
+      <c r="D9" s="42">
         <v>6</v>
       </c>
       <c r="E9" s="3">
@@ -8217,22 +8312,22 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="43">
-        <v>6</v>
-      </c>
-      <c r="K9" s="43">
-        <v>6</v>
-      </c>
-      <c r="L9" s="43">
-        <v>6</v>
-      </c>
-      <c r="M9" s="43">
-        <v>6</v>
-      </c>
-      <c r="N9" s="43">
-        <v>6</v>
-      </c>
-      <c r="O9" s="43">
+      <c r="J9" s="42">
+        <v>6</v>
+      </c>
+      <c r="K9" s="42">
+        <v>6</v>
+      </c>
+      <c r="L9" s="42">
+        <v>6</v>
+      </c>
+      <c r="M9" s="42">
+        <v>6</v>
+      </c>
+      <c r="N9" s="42">
+        <v>6</v>
+      </c>
+      <c r="O9" s="42">
         <v>6</v>
       </c>
       <c r="P9" s="3">
@@ -8247,54 +8342,54 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="43">
+      <c r="T9" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
-        <v>6</v>
-      </c>
-      <c r="B10" s="43">
-        <v>6</v>
-      </c>
-      <c r="C10" s="43">
-        <v>6</v>
-      </c>
-      <c r="D10" s="43">
+      <c r="A10" s="42">
+        <v>6</v>
+      </c>
+      <c r="B10" s="42">
+        <v>6</v>
+      </c>
+      <c r="C10" s="42">
+        <v>6</v>
+      </c>
+      <c r="D10" s="42">
         <v>6</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="43">
-        <v>6</v>
-      </c>
-      <c r="G10" s="43">
-        <v>6</v>
-      </c>
-      <c r="H10" s="43">
-        <v>6</v>
-      </c>
-      <c r="I10" s="43">
-        <v>6</v>
-      </c>
-      <c r="J10" s="43">
-        <v>6</v>
-      </c>
-      <c r="K10" s="43">
-        <v>6</v>
-      </c>
-      <c r="L10" s="43">
-        <v>6</v>
-      </c>
-      <c r="M10" s="43">
-        <v>6</v>
-      </c>
-      <c r="N10" s="43">
-        <v>6</v>
-      </c>
-      <c r="O10" s="43">
+      <c r="F10" s="42">
+        <v>6</v>
+      </c>
+      <c r="G10" s="42">
+        <v>6</v>
+      </c>
+      <c r="H10" s="42">
+        <v>6</v>
+      </c>
+      <c r="I10" s="42">
+        <v>6</v>
+      </c>
+      <c r="J10" s="42">
+        <v>6</v>
+      </c>
+      <c r="K10" s="42">
+        <v>6</v>
+      </c>
+      <c r="L10" s="42">
+        <v>6</v>
+      </c>
+      <c r="M10" s="42">
+        <v>6</v>
+      </c>
+      <c r="N10" s="42">
+        <v>6</v>
+      </c>
+      <c r="O10" s="42">
         <v>6</v>
       </c>
       <c r="P10" s="3">
@@ -8309,54 +8404,54 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="43">
+      <c r="T10" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
-        <v>6</v>
-      </c>
-      <c r="B11" s="43">
-        <v>6</v>
-      </c>
-      <c r="C11" s="43">
-        <v>6</v>
-      </c>
-      <c r="D11" s="43">
+      <c r="A11" s="42">
+        <v>6</v>
+      </c>
+      <c r="B11" s="42">
+        <v>6</v>
+      </c>
+      <c r="C11" s="42">
+        <v>6</v>
+      </c>
+      <c r="D11" s="42">
         <v>6</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="43">
-        <v>6</v>
-      </c>
-      <c r="G11" s="43">
-        <v>6</v>
-      </c>
-      <c r="H11" s="43">
-        <v>6</v>
-      </c>
-      <c r="I11" s="43">
-        <v>6</v>
-      </c>
-      <c r="J11" s="43">
-        <v>6</v>
-      </c>
-      <c r="K11" s="43">
-        <v>6</v>
-      </c>
-      <c r="L11" s="43">
-        <v>6</v>
-      </c>
-      <c r="M11" s="43">
-        <v>6</v>
-      </c>
-      <c r="N11" s="43">
-        <v>6</v>
-      </c>
-      <c r="O11" s="43">
+      <c r="F11" s="42">
+        <v>6</v>
+      </c>
+      <c r="G11" s="42">
+        <v>6</v>
+      </c>
+      <c r="H11" s="42">
+        <v>6</v>
+      </c>
+      <c r="I11" s="42">
+        <v>6</v>
+      </c>
+      <c r="J11" s="42">
+        <v>6</v>
+      </c>
+      <c r="K11" s="42">
+        <v>6</v>
+      </c>
+      <c r="L11" s="42">
+        <v>6</v>
+      </c>
+      <c r="M11" s="42">
+        <v>6</v>
+      </c>
+      <c r="N11" s="42">
+        <v>6</v>
+      </c>
+      <c r="O11" s="42">
         <v>6</v>
       </c>
       <c r="P11" s="3">
@@ -8371,15 +8466,15 @@
       <c r="S11" s="3">
         <v>0</v>
       </c>
-      <c r="T11" s="43">
+      <c r="T11" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
-        <v>6</v>
-      </c>
-      <c r="B12" s="43">
+      <c r="A12" s="42">
+        <v>6</v>
+      </c>
+      <c r="B12" s="42">
         <v>6</v>
       </c>
       <c r="C12" s="3">
@@ -8400,25 +8495,25 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="43">
-        <v>6</v>
-      </c>
-      <c r="J12" s="43">
-        <v>6</v>
-      </c>
-      <c r="K12" s="43">
-        <v>6</v>
-      </c>
-      <c r="L12" s="43">
-        <v>6</v>
-      </c>
-      <c r="M12" s="43">
-        <v>6</v>
-      </c>
-      <c r="N12" s="43">
-        <v>6</v>
-      </c>
-      <c r="O12" s="43">
+      <c r="I12" s="42">
+        <v>6</v>
+      </c>
+      <c r="J12" s="42">
+        <v>6</v>
+      </c>
+      <c r="K12" s="42">
+        <v>6</v>
+      </c>
+      <c r="L12" s="42">
+        <v>6</v>
+      </c>
+      <c r="M12" s="42">
+        <v>6</v>
+      </c>
+      <c r="N12" s="42">
+        <v>6</v>
+      </c>
+      <c r="O12" s="42">
         <v>6</v>
       </c>
       <c r="P12" s="3">
@@ -8433,15 +8528,15 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-      <c r="T12" s="43">
+      <c r="T12" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
-        <v>6</v>
-      </c>
-      <c r="B13" s="43">
+      <c r="A13" s="42">
+        <v>6</v>
+      </c>
+      <c r="B13" s="42">
         <v>6</v>
       </c>
       <c r="C13" s="3">
@@ -8495,15 +8590,15 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-      <c r="T13" s="43">
+      <c r="T13" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
-        <v>6</v>
-      </c>
-      <c r="B14" s="43">
+      <c r="A14" s="42">
+        <v>6</v>
+      </c>
+      <c r="B14" s="42">
         <v>6</v>
       </c>
       <c r="C14" s="3">
@@ -8524,102 +8619,102 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="43">
-        <v>6</v>
-      </c>
-      <c r="J14" s="43">
-        <v>6</v>
-      </c>
-      <c r="K14" s="43">
-        <v>6</v>
-      </c>
-      <c r="L14" s="43">
-        <v>6</v>
-      </c>
-      <c r="M14" s="43">
-        <v>6</v>
-      </c>
-      <c r="N14" s="43">
-        <v>6</v>
-      </c>
-      <c r="O14" s="43">
-        <v>6</v>
-      </c>
-      <c r="P14" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="43">
-        <v>6</v>
-      </c>
-      <c r="R14" s="43">
-        <v>6</v>
-      </c>
-      <c r="S14" s="43">
-        <v>6</v>
-      </c>
-      <c r="T14" s="43">
+      <c r="I14" s="42">
+        <v>6</v>
+      </c>
+      <c r="J14" s="42">
+        <v>6</v>
+      </c>
+      <c r="K14" s="42">
+        <v>6</v>
+      </c>
+      <c r="L14" s="42">
+        <v>6</v>
+      </c>
+      <c r="M14" s="42">
+        <v>6</v>
+      </c>
+      <c r="N14" s="42">
+        <v>6</v>
+      </c>
+      <c r="O14" s="42">
+        <v>6</v>
+      </c>
+      <c r="P14" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>6</v>
+      </c>
+      <c r="R14" s="42">
+        <v>6</v>
+      </c>
+      <c r="S14" s="42">
+        <v>6</v>
+      </c>
+      <c r="T14" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
-        <v>6</v>
-      </c>
-      <c r="B15" s="43">
-        <v>6</v>
-      </c>
-      <c r="C15" s="43">
-        <v>6</v>
-      </c>
-      <c r="D15" s="43">
-        <v>6</v>
-      </c>
-      <c r="E15" s="43">
-        <v>6</v>
-      </c>
-      <c r="F15" s="43">
-        <v>6</v>
-      </c>
-      <c r="G15" s="43">
-        <v>6</v>
-      </c>
-      <c r="H15" s="43">
-        <v>6</v>
-      </c>
-      <c r="I15" s="43">
-        <v>6</v>
-      </c>
-      <c r="J15" s="43">
-        <v>6</v>
-      </c>
-      <c r="K15" s="43">
-        <v>6</v>
-      </c>
-      <c r="L15" s="43">
-        <v>6</v>
-      </c>
-      <c r="M15" s="43">
-        <v>6</v>
-      </c>
-      <c r="N15" s="43">
-        <v>6</v>
-      </c>
-      <c r="O15" s="43">
-        <v>6</v>
-      </c>
-      <c r="P15" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>6</v>
-      </c>
-      <c r="R15" s="43">
-        <v>6</v>
-      </c>
-      <c r="S15" s="43">
-        <v>6</v>
-      </c>
-      <c r="T15" s="43">
+      <c r="A15" s="42">
+        <v>6</v>
+      </c>
+      <c r="B15" s="42">
+        <v>6</v>
+      </c>
+      <c r="C15" s="42">
+        <v>6</v>
+      </c>
+      <c r="D15" s="42">
+        <v>6</v>
+      </c>
+      <c r="E15" s="42">
+        <v>6</v>
+      </c>
+      <c r="F15" s="42">
+        <v>6</v>
+      </c>
+      <c r="G15" s="42">
+        <v>6</v>
+      </c>
+      <c r="H15" s="42">
+        <v>6</v>
+      </c>
+      <c r="I15" s="42">
+        <v>6</v>
+      </c>
+      <c r="J15" s="42">
+        <v>6</v>
+      </c>
+      <c r="K15" s="42">
+        <v>6</v>
+      </c>
+      <c r="L15" s="42">
+        <v>6</v>
+      </c>
+      <c r="M15" s="42">
+        <v>6</v>
+      </c>
+      <c r="N15" s="42">
+        <v>6</v>
+      </c>
+      <c r="O15" s="42">
+        <v>6</v>
+      </c>
+      <c r="P15" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>6</v>
+      </c>
+      <c r="R15" s="42">
+        <v>6</v>
+      </c>
+      <c r="S15" s="42">
+        <v>6</v>
+      </c>
+      <c r="T15" s="42">
         <v>6</v>
       </c>
     </row>
@@ -8966,7 +9061,7 @@
       <c r="W4" s="12">
         <v>0</v>
       </c>
-      <c r="X4" s="45">
+      <c r="X4" s="44">
         <v>0</v>
       </c>
       <c r="Y4" s="23">
@@ -9019,7 +9114,7 @@
       <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="45">
         <v>4</v>
       </c>
       <c r="N5" s="23">
@@ -9230,7 +9325,7 @@
       <c r="Y7" s="15">
         <v>5</v>
       </c>
-      <c r="Z7" s="45">
+      <c r="Z7" s="44">
         <v>0</v>
       </c>
       <c r="AA7" s="37">
@@ -9345,7 +9440,7 @@
       <c r="F9" s="12">
         <v>0</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>0</v>
       </c>
       <c r="H9" s="23">
@@ -9452,7 +9547,7 @@
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="44">
         <v>0</v>
       </c>
       <c r="O10" s="35">
@@ -9511,7 +9606,7 @@
       <c r="D11" s="12">
         <v>0</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>0</v>
       </c>
       <c r="F11" s="23">
@@ -9660,7 +9755,7 @@
       <c r="Y12" s="15">
         <v>5</v>
       </c>
-      <c r="Z12" s="45">
+      <c r="Z12" s="44">
         <v>0</v>
       </c>
       <c r="AA12" s="37">
@@ -9852,7 +9947,7 @@
       <c r="C15" s="12">
         <v>0</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="44">
         <v>0</v>
       </c>
       <c r="E15" s="23">
@@ -10023,7 +10118,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -10039,14 +10134,14 @@
       <c r="C19" s="28">
         <v>7</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <v>8</v>
       </c>
       <c r="G19" s="6">
         <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -10054,7 +10149,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10078,7 +10173,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -10098,69 +10193,69 @@
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43">
-        <v>6</v>
-      </c>
-      <c r="B1" s="43">
-        <v>6</v>
-      </c>
-      <c r="C1" s="43">
-        <v>6</v>
-      </c>
-      <c r="D1" s="43">
-        <v>6</v>
-      </c>
-      <c r="E1" s="43">
-        <v>6</v>
-      </c>
-      <c r="F1" s="43">
-        <v>6</v>
-      </c>
-      <c r="G1" s="43">
-        <v>6</v>
-      </c>
-      <c r="H1" s="43">
-        <v>6</v>
-      </c>
-      <c r="I1" s="43">
-        <v>6</v>
-      </c>
-      <c r="J1" s="43">
-        <v>6</v>
-      </c>
-      <c r="K1" s="43">
-        <v>6</v>
-      </c>
-      <c r="L1" s="43">
-        <v>6</v>
-      </c>
-      <c r="M1" s="43">
-        <v>6</v>
-      </c>
-      <c r="N1" s="43">
-        <v>6</v>
-      </c>
-      <c r="O1" s="43">
-        <v>6</v>
-      </c>
-      <c r="P1" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="43">
-        <v>6</v>
-      </c>
-      <c r="R1" s="43">
-        <v>6</v>
-      </c>
-      <c r="S1" s="43">
-        <v>6</v>
-      </c>
-      <c r="T1" s="43">
+      <c r="A1" s="42">
+        <v>6</v>
+      </c>
+      <c r="B1" s="42">
+        <v>6</v>
+      </c>
+      <c r="C1" s="42">
+        <v>6</v>
+      </c>
+      <c r="D1" s="42">
+        <v>6</v>
+      </c>
+      <c r="E1" s="42">
+        <v>6</v>
+      </c>
+      <c r="F1" s="42">
+        <v>6</v>
+      </c>
+      <c r="G1" s="42">
+        <v>6</v>
+      </c>
+      <c r="H1" s="42">
+        <v>6</v>
+      </c>
+      <c r="I1" s="42">
+        <v>6</v>
+      </c>
+      <c r="J1" s="42">
+        <v>6</v>
+      </c>
+      <c r="K1" s="42">
+        <v>6</v>
+      </c>
+      <c r="L1" s="42">
+        <v>6</v>
+      </c>
+      <c r="M1" s="42">
+        <v>6</v>
+      </c>
+      <c r="N1" s="42">
+        <v>6</v>
+      </c>
+      <c r="O1" s="42">
+        <v>6</v>
+      </c>
+      <c r="P1" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="42">
+        <v>6</v>
+      </c>
+      <c r="R1" s="42">
+        <v>6</v>
+      </c>
+      <c r="S1" s="42">
+        <v>6</v>
+      </c>
+      <c r="T1" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+      <c r="A2" s="42">
         <v>6</v>
       </c>
       <c r="B2" s="2">
@@ -10172,19 +10267,19 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="43">
-        <v>6</v>
-      </c>
-      <c r="F2" s="43">
-        <v>6</v>
-      </c>
-      <c r="G2" s="43">
-        <v>6</v>
-      </c>
-      <c r="H2" s="43">
-        <v>6</v>
-      </c>
-      <c r="I2" s="43">
+      <c r="E2" s="42">
+        <v>6</v>
+      </c>
+      <c r="F2" s="42">
+        <v>6</v>
+      </c>
+      <c r="G2" s="42">
+        <v>6</v>
+      </c>
+      <c r="H2" s="42">
+        <v>6</v>
+      </c>
+      <c r="I2" s="42">
         <v>6</v>
       </c>
       <c r="J2" s="3">
@@ -10193,36 +10288,36 @@
       <c r="K2" s="5">
         <v>3</v>
       </c>
-      <c r="L2" s="43">
-        <v>6</v>
-      </c>
-      <c r="M2" s="43">
-        <v>6</v>
-      </c>
-      <c r="N2" s="43">
-        <v>6</v>
-      </c>
-      <c r="O2" s="43">
-        <v>6</v>
-      </c>
-      <c r="P2" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="43">
-        <v>6</v>
-      </c>
-      <c r="R2" s="43">
-        <v>6</v>
-      </c>
-      <c r="S2" s="43">
-        <v>6</v>
-      </c>
-      <c r="T2" s="43">
+      <c r="L2" s="42">
+        <v>6</v>
+      </c>
+      <c r="M2" s="42">
+        <v>6</v>
+      </c>
+      <c r="N2" s="42">
+        <v>6</v>
+      </c>
+      <c r="O2" s="42">
+        <v>6</v>
+      </c>
+      <c r="P2" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="42">
+        <v>6</v>
+      </c>
+      <c r="R2" s="42">
+        <v>6</v>
+      </c>
+      <c r="S2" s="42">
+        <v>6</v>
+      </c>
+      <c r="T2" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="A3" s="42">
         <v>6</v>
       </c>
       <c r="B3" s="3">
@@ -10234,19 +10329,19 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="43">
-        <v>6</v>
-      </c>
-      <c r="F3" s="43">
-        <v>6</v>
-      </c>
-      <c r="G3" s="43">
-        <v>6</v>
-      </c>
-      <c r="H3" s="43">
-        <v>6</v>
-      </c>
-      <c r="I3" s="43">
+      <c r="E3" s="42">
+        <v>6</v>
+      </c>
+      <c r="F3" s="42">
+        <v>6</v>
+      </c>
+      <c r="G3" s="42">
+        <v>6</v>
+      </c>
+      <c r="H3" s="42">
+        <v>6</v>
+      </c>
+      <c r="I3" s="42">
         <v>6</v>
       </c>
       <c r="J3" s="3">
@@ -10255,36 +10350,36 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="43">
-        <v>6</v>
-      </c>
-      <c r="M3" s="43">
-        <v>6</v>
-      </c>
-      <c r="N3" s="43">
-        <v>6</v>
-      </c>
-      <c r="O3" s="43">
-        <v>6</v>
-      </c>
-      <c r="P3" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="43">
-        <v>6</v>
-      </c>
-      <c r="R3" s="43">
-        <v>6</v>
-      </c>
-      <c r="S3" s="43">
-        <v>6</v>
-      </c>
-      <c r="T3" s="43">
+      <c r="L3" s="42">
+        <v>6</v>
+      </c>
+      <c r="M3" s="42">
+        <v>6</v>
+      </c>
+      <c r="N3" s="42">
+        <v>6</v>
+      </c>
+      <c r="O3" s="42">
+        <v>6</v>
+      </c>
+      <c r="P3" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="42">
+        <v>6</v>
+      </c>
+      <c r="R3" s="42">
+        <v>6</v>
+      </c>
+      <c r="S3" s="42">
+        <v>6</v>
+      </c>
+      <c r="T3" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
+      <c r="A4" s="42">
         <v>6</v>
       </c>
       <c r="B4" s="3">
@@ -10296,57 +10391,57 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="43">
-        <v>6</v>
-      </c>
-      <c r="F4" s="43">
-        <v>6</v>
-      </c>
-      <c r="G4" s="43">
-        <v>6</v>
-      </c>
-      <c r="H4" s="43">
-        <v>6</v>
-      </c>
-      <c r="I4" s="43">
+      <c r="E4" s="42">
+        <v>6</v>
+      </c>
+      <c r="F4" s="42">
+        <v>6</v>
+      </c>
+      <c r="G4" s="42">
+        <v>6</v>
+      </c>
+      <c r="H4" s="42">
+        <v>6</v>
+      </c>
+      <c r="I4" s="42">
         <v>6</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="43">
-        <v>6</v>
-      </c>
-      <c r="L4" s="43">
-        <v>6</v>
-      </c>
-      <c r="M4" s="43">
-        <v>6</v>
-      </c>
-      <c r="N4" s="43">
-        <v>6</v>
-      </c>
-      <c r="O4" s="43">
-        <v>6</v>
-      </c>
-      <c r="P4" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>6</v>
-      </c>
-      <c r="R4" s="43">
-        <v>6</v>
-      </c>
-      <c r="S4" s="43">
-        <v>6</v>
-      </c>
-      <c r="T4" s="43">
+      <c r="K4" s="42">
+        <v>6</v>
+      </c>
+      <c r="L4" s="42">
+        <v>6</v>
+      </c>
+      <c r="M4" s="42">
+        <v>6</v>
+      </c>
+      <c r="N4" s="42">
+        <v>6</v>
+      </c>
+      <c r="O4" s="42">
+        <v>6</v>
+      </c>
+      <c r="P4" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="42">
+        <v>6</v>
+      </c>
+      <c r="R4" s="42">
+        <v>6</v>
+      </c>
+      <c r="S4" s="42">
+        <v>6</v>
+      </c>
+      <c r="T4" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>6</v>
       </c>
       <c r="B5" s="3">
@@ -10358,40 +10453,40 @@
       <c r="D5" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="43">
-        <v>6</v>
-      </c>
-      <c r="F5" s="43">
-        <v>6</v>
-      </c>
-      <c r="G5" s="43">
-        <v>6</v>
-      </c>
-      <c r="H5" s="43">
-        <v>6</v>
-      </c>
-      <c r="I5" s="43">
+      <c r="E5" s="42">
+        <v>6</v>
+      </c>
+      <c r="F5" s="42">
+        <v>6</v>
+      </c>
+      <c r="G5" s="42">
+        <v>6</v>
+      </c>
+      <c r="H5" s="42">
+        <v>6</v>
+      </c>
+      <c r="I5" s="42">
         <v>6</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="43">
-        <v>6</v>
-      </c>
-      <c r="L5" s="43">
-        <v>6</v>
-      </c>
-      <c r="M5" s="43">
-        <v>6</v>
-      </c>
-      <c r="N5" s="43">
-        <v>6</v>
-      </c>
-      <c r="O5" s="43">
-        <v>6</v>
-      </c>
-      <c r="P5" s="43">
+      <c r="K5" s="42">
+        <v>6</v>
+      </c>
+      <c r="L5" s="42">
+        <v>6</v>
+      </c>
+      <c r="M5" s="42">
+        <v>6</v>
+      </c>
+      <c r="N5" s="42">
+        <v>6</v>
+      </c>
+      <c r="O5" s="42">
+        <v>6</v>
+      </c>
+      <c r="P5" s="42">
         <v>6</v>
       </c>
       <c r="Q5" s="3">
@@ -10403,30 +10498,30 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
-        <v>6</v>
-      </c>
-      <c r="B6" s="43">
+      <c r="A6" s="42">
+        <v>6</v>
+      </c>
+      <c r="B6" s="42">
         <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="43">
-        <v>6</v>
-      </c>
-      <c r="E6" s="43">
-        <v>6</v>
-      </c>
-      <c r="F6" s="43">
-        <v>6</v>
-      </c>
-      <c r="G6" s="43">
+      <c r="D6" s="42">
+        <v>6</v>
+      </c>
+      <c r="E6" s="42">
+        <v>6</v>
+      </c>
+      <c r="F6" s="42">
+        <v>6</v>
+      </c>
+      <c r="G6" s="42">
         <v>6</v>
       </c>
       <c r="H6" s="3">
@@ -10438,22 +10533,22 @@
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="43">
-        <v>6</v>
-      </c>
-      <c r="L6" s="43">
-        <v>6</v>
-      </c>
-      <c r="M6" s="43">
-        <v>6</v>
-      </c>
-      <c r="N6" s="43">
-        <v>6</v>
-      </c>
-      <c r="O6" s="43">
-        <v>6</v>
-      </c>
-      <c r="P6" s="43">
+      <c r="K6" s="42">
+        <v>6</v>
+      </c>
+      <c r="L6" s="42">
+        <v>6</v>
+      </c>
+      <c r="M6" s="42">
+        <v>6</v>
+      </c>
+      <c r="N6" s="42">
+        <v>6</v>
+      </c>
+      <c r="O6" s="42">
+        <v>6</v>
+      </c>
+      <c r="P6" s="42">
         <v>6</v>
       </c>
       <c r="Q6" s="3">
@@ -10465,57 +10560,57 @@
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
-        <v>6</v>
-      </c>
-      <c r="B7" s="43">
+      <c r="A7" s="42">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42">
         <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="43">
-        <v>6</v>
-      </c>
-      <c r="E7" s="43">
-        <v>6</v>
-      </c>
-      <c r="F7" s="43">
-        <v>6</v>
-      </c>
-      <c r="G7" s="43">
+      <c r="D7" s="42">
+        <v>6</v>
+      </c>
+      <c r="E7" s="42">
+        <v>6</v>
+      </c>
+      <c r="F7" s="42">
+        <v>6</v>
+      </c>
+      <c r="G7" s="42">
         <v>6</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="43">
-        <v>6</v>
-      </c>
-      <c r="J7" s="43">
-        <v>6</v>
-      </c>
-      <c r="K7" s="43">
-        <v>6</v>
-      </c>
-      <c r="L7" s="43">
-        <v>6</v>
-      </c>
-      <c r="M7" s="43">
-        <v>6</v>
-      </c>
-      <c r="N7" s="43">
-        <v>6</v>
-      </c>
-      <c r="O7" s="43">
-        <v>6</v>
-      </c>
-      <c r="P7" s="43">
+      <c r="I7" s="42">
+        <v>6</v>
+      </c>
+      <c r="J7" s="42">
+        <v>6</v>
+      </c>
+      <c r="K7" s="42">
+        <v>6</v>
+      </c>
+      <c r="L7" s="42">
+        <v>6</v>
+      </c>
+      <c r="M7" s="42">
+        <v>6</v>
+      </c>
+      <c r="N7" s="42">
+        <v>6</v>
+      </c>
+      <c r="O7" s="42">
+        <v>6</v>
+      </c>
+      <c r="P7" s="42">
         <v>6</v>
       </c>
       <c r="Q7" s="3">
@@ -10527,77 +10622,77 @@
       <c r="S7" s="3">
         <v>0</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T7" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
-        <v>6</v>
-      </c>
-      <c r="B8" s="43">
+      <c r="A8" s="42">
+        <v>6</v>
+      </c>
+      <c r="B8" s="42">
         <v>6</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="43">
-        <v>6</v>
-      </c>
-      <c r="E8" s="43">
-        <v>6</v>
-      </c>
-      <c r="F8" s="43">
-        <v>6</v>
-      </c>
-      <c r="G8" s="43">
+      <c r="D8" s="42">
+        <v>6</v>
+      </c>
+      <c r="E8" s="42">
+        <v>6</v>
+      </c>
+      <c r="F8" s="42">
+        <v>6</v>
+      </c>
+      <c r="G8" s="42">
         <v>6</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="43">
-        <v>6</v>
-      </c>
-      <c r="J8" s="43">
-        <v>6</v>
-      </c>
-      <c r="K8" s="43">
-        <v>6</v>
-      </c>
-      <c r="L8" s="43">
-        <v>6</v>
-      </c>
-      <c r="M8" s="43">
-        <v>6</v>
-      </c>
-      <c r="N8" s="43">
-        <v>6</v>
-      </c>
-      <c r="O8" s="43">
-        <v>6</v>
-      </c>
-      <c r="P8" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="43">
+      <c r="I8" s="42">
+        <v>6</v>
+      </c>
+      <c r="J8" s="42">
+        <v>6</v>
+      </c>
+      <c r="K8" s="42">
+        <v>6</v>
+      </c>
+      <c r="L8" s="42">
+        <v>6</v>
+      </c>
+      <c r="M8" s="42">
+        <v>6</v>
+      </c>
+      <c r="N8" s="42">
+        <v>6</v>
+      </c>
+      <c r="O8" s="42">
+        <v>6</v>
+      </c>
+      <c r="P8" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="42">
         <v>6</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="43">
-        <v>6</v>
-      </c>
-      <c r="T8" s="43">
+      <c r="S8" s="42">
+        <v>6</v>
+      </c>
+      <c r="T8" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
-        <v>6</v>
-      </c>
-      <c r="B9" s="43">
+      <c r="A9" s="42">
+        <v>6</v>
+      </c>
+      <c r="B9" s="42">
         <v>6</v>
       </c>
       <c r="C9" s="3">
@@ -10618,134 +10713,134 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="43">
-        <v>6</v>
-      </c>
-      <c r="J9" s="43">
-        <v>6</v>
-      </c>
-      <c r="K9" s="43">
-        <v>6</v>
-      </c>
-      <c r="L9" s="43">
-        <v>6</v>
-      </c>
-      <c r="M9" s="43">
-        <v>6</v>
-      </c>
-      <c r="N9" s="43">
-        <v>6</v>
-      </c>
-      <c r="O9" s="43">
-        <v>6</v>
-      </c>
-      <c r="P9" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="43">
+      <c r="I9" s="42">
+        <v>6</v>
+      </c>
+      <c r="J9" s="42">
+        <v>6</v>
+      </c>
+      <c r="K9" s="42">
+        <v>6</v>
+      </c>
+      <c r="L9" s="42">
+        <v>6</v>
+      </c>
+      <c r="M9" s="42">
+        <v>6</v>
+      </c>
+      <c r="N9" s="42">
+        <v>6</v>
+      </c>
+      <c r="O9" s="42">
+        <v>6</v>
+      </c>
+      <c r="P9" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="42">
         <v>6</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="43">
-        <v>6</v>
-      </c>
-      <c r="T9" s="43">
+      <c r="S9" s="42">
+        <v>6</v>
+      </c>
+      <c r="T9" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
-        <v>6</v>
-      </c>
-      <c r="B10" s="43">
+      <c r="A10" s="42">
+        <v>6</v>
+      </c>
+      <c r="B10" s="42">
         <v>6</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="43">
-        <v>6</v>
-      </c>
-      <c r="E10" s="43">
-        <v>6</v>
-      </c>
-      <c r="F10" s="43">
-        <v>6</v>
-      </c>
-      <c r="G10" s="43">
-        <v>6</v>
-      </c>
-      <c r="H10" s="43">
-        <v>6</v>
-      </c>
-      <c r="I10" s="43">
-        <v>6</v>
-      </c>
-      <c r="J10" s="43">
-        <v>6</v>
-      </c>
-      <c r="K10" s="43">
-        <v>6</v>
-      </c>
-      <c r="L10" s="43">
-        <v>6</v>
-      </c>
-      <c r="M10" s="43">
-        <v>6</v>
-      </c>
-      <c r="N10" s="43">
-        <v>6</v>
-      </c>
-      <c r="O10" s="43">
-        <v>6</v>
-      </c>
-      <c r="P10" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="43">
+      <c r="D10" s="42">
+        <v>6</v>
+      </c>
+      <c r="E10" s="42">
+        <v>6</v>
+      </c>
+      <c r="F10" s="42">
+        <v>6</v>
+      </c>
+      <c r="G10" s="42">
+        <v>6</v>
+      </c>
+      <c r="H10" s="42">
+        <v>6</v>
+      </c>
+      <c r="I10" s="42">
+        <v>6</v>
+      </c>
+      <c r="J10" s="42">
+        <v>6</v>
+      </c>
+      <c r="K10" s="42">
+        <v>6</v>
+      </c>
+      <c r="L10" s="42">
+        <v>6</v>
+      </c>
+      <c r="M10" s="42">
+        <v>6</v>
+      </c>
+      <c r="N10" s="42">
+        <v>6</v>
+      </c>
+      <c r="O10" s="42">
+        <v>6</v>
+      </c>
+      <c r="P10" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="42">
         <v>6</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="43">
-        <v>6</v>
-      </c>
-      <c r="T10" s="43">
+      <c r="S10" s="42">
+        <v>6</v>
+      </c>
+      <c r="T10" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
-        <v>6</v>
-      </c>
-      <c r="B11" s="43">
+      <c r="A11" s="42">
+        <v>6</v>
+      </c>
+      <c r="B11" s="42">
         <v>6</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="43">
-        <v>6</v>
-      </c>
-      <c r="E11" s="43">
-        <v>6</v>
-      </c>
-      <c r="F11" s="43">
-        <v>6</v>
-      </c>
-      <c r="G11" s="43">
-        <v>6</v>
-      </c>
-      <c r="H11" s="43">
-        <v>6</v>
-      </c>
-      <c r="I11" s="43">
-        <v>6</v>
-      </c>
-      <c r="J11" s="43">
+      <c r="D11" s="42">
+        <v>6</v>
+      </c>
+      <c r="E11" s="42">
+        <v>6</v>
+      </c>
+      <c r="F11" s="42">
+        <v>6</v>
+      </c>
+      <c r="G11" s="42">
+        <v>6</v>
+      </c>
+      <c r="H11" s="42">
+        <v>6</v>
+      </c>
+      <c r="I11" s="42">
+        <v>6</v>
+      </c>
+      <c r="J11" s="42">
         <v>6</v>
       </c>
       <c r="K11" s="3">
@@ -10772,42 +10867,42 @@
       <c r="R11" s="3">
         <v>0</v>
       </c>
-      <c r="S11" s="43">
-        <v>6</v>
-      </c>
-      <c r="T11" s="43">
+      <c r="S11" s="42">
+        <v>6</v>
+      </c>
+      <c r="T11" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
-        <v>6</v>
-      </c>
-      <c r="B12" s="43">
+      <c r="A12" s="42">
+        <v>6</v>
+      </c>
+      <c r="B12" s="42">
         <v>6</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="43">
-        <v>6</v>
-      </c>
-      <c r="E12" s="43">
-        <v>6</v>
-      </c>
-      <c r="F12" s="43">
-        <v>6</v>
-      </c>
-      <c r="G12" s="43">
-        <v>6</v>
-      </c>
-      <c r="H12" s="43">
-        <v>6</v>
-      </c>
-      <c r="I12" s="43">
-        <v>6</v>
-      </c>
-      <c r="J12" s="43">
+      <c r="D12" s="42">
+        <v>6</v>
+      </c>
+      <c r="E12" s="42">
+        <v>6</v>
+      </c>
+      <c r="F12" s="42">
+        <v>6</v>
+      </c>
+      <c r="G12" s="42">
+        <v>6</v>
+      </c>
+      <c r="H12" s="42">
+        <v>6</v>
+      </c>
+      <c r="I12" s="42">
+        <v>6</v>
+      </c>
+      <c r="J12" s="42">
         <v>6</v>
       </c>
       <c r="K12" s="3">
@@ -10834,18 +10929,18 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="43">
-        <v>6</v>
-      </c>
-      <c r="T12" s="43">
+      <c r="S12" s="42">
+        <v>6</v>
+      </c>
+      <c r="T12" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
-        <v>6</v>
-      </c>
-      <c r="B13" s="43">
+      <c r="A13" s="42">
+        <v>6</v>
+      </c>
+      <c r="B13" s="42">
         <v>6</v>
       </c>
       <c r="C13" s="3">
@@ -10896,134 +10991,134 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-      <c r="S13" s="43">
-        <v>6</v>
-      </c>
-      <c r="T13" s="43">
+      <c r="S13" s="42">
+        <v>6</v>
+      </c>
+      <c r="T13" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
-        <v>6</v>
-      </c>
-      <c r="B14" s="43">
-        <v>6</v>
-      </c>
-      <c r="C14" s="43">
-        <v>6</v>
-      </c>
-      <c r="D14" s="43">
-        <v>6</v>
-      </c>
-      <c r="E14" s="43">
-        <v>6</v>
-      </c>
-      <c r="F14" s="43">
-        <v>6</v>
-      </c>
-      <c r="G14" s="43">
-        <v>6</v>
-      </c>
-      <c r="H14" s="43">
-        <v>6</v>
-      </c>
-      <c r="I14" s="43">
-        <v>6</v>
-      </c>
-      <c r="J14" s="43">
-        <v>6</v>
-      </c>
-      <c r="K14" s="43">
-        <v>6</v>
-      </c>
-      <c r="L14" s="43">
-        <v>6</v>
-      </c>
-      <c r="M14" s="43">
-        <v>6</v>
-      </c>
-      <c r="N14" s="43">
-        <v>6</v>
-      </c>
-      <c r="O14" s="43">
-        <v>6</v>
-      </c>
-      <c r="P14" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="43">
-        <v>6</v>
-      </c>
-      <c r="R14" s="43">
-        <v>6</v>
-      </c>
-      <c r="S14" s="43">
-        <v>6</v>
-      </c>
-      <c r="T14" s="43">
+      <c r="A14" s="42">
+        <v>6</v>
+      </c>
+      <c r="B14" s="42">
+        <v>6</v>
+      </c>
+      <c r="C14" s="42">
+        <v>6</v>
+      </c>
+      <c r="D14" s="42">
+        <v>6</v>
+      </c>
+      <c r="E14" s="42">
+        <v>6</v>
+      </c>
+      <c r="F14" s="42">
+        <v>6</v>
+      </c>
+      <c r="G14" s="42">
+        <v>6</v>
+      </c>
+      <c r="H14" s="42">
+        <v>6</v>
+      </c>
+      <c r="I14" s="42">
+        <v>6</v>
+      </c>
+      <c r="J14" s="42">
+        <v>6</v>
+      </c>
+      <c r="K14" s="42">
+        <v>6</v>
+      </c>
+      <c r="L14" s="42">
+        <v>6</v>
+      </c>
+      <c r="M14" s="42">
+        <v>6</v>
+      </c>
+      <c r="N14" s="42">
+        <v>6</v>
+      </c>
+      <c r="O14" s="42">
+        <v>6</v>
+      </c>
+      <c r="P14" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>6</v>
+      </c>
+      <c r="R14" s="42">
+        <v>6</v>
+      </c>
+      <c r="S14" s="42">
+        <v>6</v>
+      </c>
+      <c r="T14" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
-        <v>6</v>
-      </c>
-      <c r="B15" s="43">
-        <v>6</v>
-      </c>
-      <c r="C15" s="43">
-        <v>6</v>
-      </c>
-      <c r="D15" s="43">
-        <v>6</v>
-      </c>
-      <c r="E15" s="43">
-        <v>6</v>
-      </c>
-      <c r="F15" s="43">
-        <v>6</v>
-      </c>
-      <c r="G15" s="43">
-        <v>6</v>
-      </c>
-      <c r="H15" s="43">
-        <v>6</v>
-      </c>
-      <c r="I15" s="43">
-        <v>6</v>
-      </c>
-      <c r="J15" s="43">
-        <v>6</v>
-      </c>
-      <c r="K15" s="43">
-        <v>6</v>
-      </c>
-      <c r="L15" s="43">
-        <v>6</v>
-      </c>
-      <c r="M15" s="43">
-        <v>6</v>
-      </c>
-      <c r="N15" s="43">
-        <v>6</v>
-      </c>
-      <c r="O15" s="43">
-        <v>6</v>
-      </c>
-      <c r="P15" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>6</v>
-      </c>
-      <c r="R15" s="43">
-        <v>6</v>
-      </c>
-      <c r="S15" s="43">
-        <v>6</v>
-      </c>
-      <c r="T15" s="43">
+      <c r="A15" s="42">
+        <v>6</v>
+      </c>
+      <c r="B15" s="42">
+        <v>6</v>
+      </c>
+      <c r="C15" s="42">
+        <v>6</v>
+      </c>
+      <c r="D15" s="42">
+        <v>6</v>
+      </c>
+      <c r="E15" s="42">
+        <v>6</v>
+      </c>
+      <c r="F15" s="42">
+        <v>6</v>
+      </c>
+      <c r="G15" s="42">
+        <v>6</v>
+      </c>
+      <c r="H15" s="42">
+        <v>6</v>
+      </c>
+      <c r="I15" s="42">
+        <v>6</v>
+      </c>
+      <c r="J15" s="42">
+        <v>6</v>
+      </c>
+      <c r="K15" s="42">
+        <v>6</v>
+      </c>
+      <c r="L15" s="42">
+        <v>6</v>
+      </c>
+      <c r="M15" s="42">
+        <v>6</v>
+      </c>
+      <c r="N15" s="42">
+        <v>6</v>
+      </c>
+      <c r="O15" s="42">
+        <v>6</v>
+      </c>
+      <c r="P15" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>6</v>
+      </c>
+      <c r="R15" s="42">
+        <v>6</v>
+      </c>
+      <c r="S15" s="42">
+        <v>6</v>
+      </c>
+      <c r="T15" s="42">
         <v>6</v>
       </c>
     </row>
@@ -11423,7 +11518,7 @@
       <c r="L5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="41">
         <v>4</v>
       </c>
       <c r="N5" s="23">
@@ -12424,10 +12519,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="46" t="s">
         <v>11</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>12</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -12440,7 +12535,7 @@
       <c r="A19" s="2">
         <v>20</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="43">
         <v>11</v>
       </c>
       <c r="E19" s="32">
@@ -12450,7 +12545,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -12458,7 +12553,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12482,7 +12577,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -12502,255 +12597,255 @@
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43">
-        <v>6</v>
-      </c>
-      <c r="B1" s="43">
-        <v>6</v>
-      </c>
-      <c r="C1" s="43">
-        <v>6</v>
-      </c>
-      <c r="D1" s="43">
-        <v>6</v>
-      </c>
-      <c r="E1" s="43">
-        <v>6</v>
-      </c>
-      <c r="F1" s="43">
-        <v>6</v>
-      </c>
-      <c r="G1" s="43">
-        <v>6</v>
-      </c>
-      <c r="H1" s="43">
-        <v>6</v>
-      </c>
-      <c r="I1" s="43">
-        <v>6</v>
-      </c>
-      <c r="J1" s="43">
-        <v>6</v>
-      </c>
-      <c r="K1" s="43">
-        <v>6</v>
-      </c>
-      <c r="L1" s="43">
-        <v>6</v>
-      </c>
-      <c r="M1" s="43">
-        <v>6</v>
-      </c>
-      <c r="N1" s="43">
-        <v>6</v>
-      </c>
-      <c r="O1" s="43">
-        <v>6</v>
-      </c>
-      <c r="P1" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="43">
-        <v>6</v>
-      </c>
-      <c r="R1" s="43">
-        <v>6</v>
-      </c>
-      <c r="S1" s="43">
-        <v>6</v>
-      </c>
-      <c r="T1" s="43">
+      <c r="A1" s="42">
+        <v>6</v>
+      </c>
+      <c r="B1" s="42">
+        <v>6</v>
+      </c>
+      <c r="C1" s="42">
+        <v>6</v>
+      </c>
+      <c r="D1" s="42">
+        <v>6</v>
+      </c>
+      <c r="E1" s="42">
+        <v>6</v>
+      </c>
+      <c r="F1" s="42">
+        <v>6</v>
+      </c>
+      <c r="G1" s="42">
+        <v>6</v>
+      </c>
+      <c r="H1" s="42">
+        <v>6</v>
+      </c>
+      <c r="I1" s="42">
+        <v>6</v>
+      </c>
+      <c r="J1" s="42">
+        <v>6</v>
+      </c>
+      <c r="K1" s="42">
+        <v>6</v>
+      </c>
+      <c r="L1" s="42">
+        <v>6</v>
+      </c>
+      <c r="M1" s="42">
+        <v>6</v>
+      </c>
+      <c r="N1" s="42">
+        <v>6</v>
+      </c>
+      <c r="O1" s="42">
+        <v>6</v>
+      </c>
+      <c r="P1" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="42">
+        <v>6</v>
+      </c>
+      <c r="R1" s="42">
+        <v>6</v>
+      </c>
+      <c r="S1" s="42">
+        <v>6</v>
+      </c>
+      <c r="T1" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
-        <v>6</v>
-      </c>
-      <c r="B2" s="43">
-        <v>6</v>
-      </c>
-      <c r="C2" s="43">
-        <v>6</v>
-      </c>
-      <c r="D2" s="43">
-        <v>6</v>
-      </c>
-      <c r="E2" s="43">
-        <v>6</v>
-      </c>
-      <c r="F2" s="43">
-        <v>6</v>
-      </c>
-      <c r="G2" s="43">
-        <v>6</v>
-      </c>
-      <c r="H2" s="43">
-        <v>6</v>
-      </c>
-      <c r="I2" s="43">
-        <v>6</v>
-      </c>
-      <c r="J2" s="43">
+      <c r="A2" s="42">
+        <v>6</v>
+      </c>
+      <c r="B2" s="42">
+        <v>6</v>
+      </c>
+      <c r="C2" s="42">
+        <v>6</v>
+      </c>
+      <c r="D2" s="42">
+        <v>6</v>
+      </c>
+      <c r="E2" s="42">
+        <v>6</v>
+      </c>
+      <c r="F2" s="42">
+        <v>6</v>
+      </c>
+      <c r="G2" s="42">
+        <v>6</v>
+      </c>
+      <c r="H2" s="42">
+        <v>6</v>
+      </c>
+      <c r="I2" s="42">
+        <v>6</v>
+      </c>
+      <c r="J2" s="42">
         <v>6</v>
       </c>
       <c r="K2" s="20">
         <v>2</v>
       </c>
-      <c r="L2" s="43">
-        <v>6</v>
-      </c>
-      <c r="M2" s="43">
-        <v>6</v>
-      </c>
-      <c r="N2" s="43">
-        <v>6</v>
-      </c>
-      <c r="O2" s="43">
-        <v>6</v>
-      </c>
-      <c r="P2" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="43">
-        <v>6</v>
-      </c>
-      <c r="R2" s="43">
-        <v>6</v>
-      </c>
-      <c r="S2" s="43">
-        <v>6</v>
-      </c>
-      <c r="T2" s="43">
+      <c r="L2" s="42">
+        <v>6</v>
+      </c>
+      <c r="M2" s="42">
+        <v>6</v>
+      </c>
+      <c r="N2" s="42">
+        <v>6</v>
+      </c>
+      <c r="O2" s="42">
+        <v>6</v>
+      </c>
+      <c r="P2" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="42">
+        <v>6</v>
+      </c>
+      <c r="R2" s="42">
+        <v>6</v>
+      </c>
+      <c r="S2" s="42">
+        <v>6</v>
+      </c>
+      <c r="T2" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>6</v>
-      </c>
-      <c r="B3" s="43">
-        <v>6</v>
-      </c>
-      <c r="C3" s="43">
-        <v>6</v>
-      </c>
-      <c r="D3" s="43">
-        <v>6</v>
-      </c>
-      <c r="E3" s="43">
-        <v>6</v>
-      </c>
-      <c r="F3" s="43">
-        <v>6</v>
-      </c>
-      <c r="G3" s="43">
-        <v>6</v>
-      </c>
-      <c r="H3" s="43">
-        <v>6</v>
-      </c>
-      <c r="I3" s="43">
-        <v>6</v>
-      </c>
-      <c r="J3" s="43">
+      <c r="A3" s="42">
+        <v>6</v>
+      </c>
+      <c r="B3" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3" s="42">
+        <v>6</v>
+      </c>
+      <c r="D3" s="42">
+        <v>6</v>
+      </c>
+      <c r="E3" s="42">
+        <v>6</v>
+      </c>
+      <c r="F3" s="42">
+        <v>6</v>
+      </c>
+      <c r="G3" s="42">
+        <v>6</v>
+      </c>
+      <c r="H3" s="42">
+        <v>6</v>
+      </c>
+      <c r="I3" s="42">
+        <v>6</v>
+      </c>
+      <c r="J3" s="42">
         <v>6</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="43">
-        <v>6</v>
-      </c>
-      <c r="M3" s="43">
-        <v>6</v>
-      </c>
-      <c r="N3" s="43">
-        <v>6</v>
-      </c>
-      <c r="O3" s="43">
-        <v>6</v>
-      </c>
-      <c r="P3" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="43">
-        <v>6</v>
-      </c>
-      <c r="R3" s="43">
-        <v>6</v>
-      </c>
-      <c r="S3" s="43">
-        <v>6</v>
-      </c>
-      <c r="T3" s="43">
+      <c r="L3" s="42">
+        <v>6</v>
+      </c>
+      <c r="M3" s="42">
+        <v>6</v>
+      </c>
+      <c r="N3" s="42">
+        <v>6</v>
+      </c>
+      <c r="O3" s="42">
+        <v>6</v>
+      </c>
+      <c r="P3" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="42">
+        <v>6</v>
+      </c>
+      <c r="R3" s="42">
+        <v>6</v>
+      </c>
+      <c r="S3" s="42">
+        <v>6</v>
+      </c>
+      <c r="T3" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
-        <v>6</v>
-      </c>
-      <c r="B4" s="43">
-        <v>6</v>
-      </c>
-      <c r="C4" s="43">
-        <v>6</v>
-      </c>
-      <c r="D4" s="43">
-        <v>6</v>
-      </c>
-      <c r="E4" s="43">
-        <v>6</v>
-      </c>
-      <c r="F4" s="43">
-        <v>6</v>
-      </c>
-      <c r="G4" s="43">
-        <v>6</v>
-      </c>
-      <c r="H4" s="43">
-        <v>6</v>
-      </c>
-      <c r="I4" s="43">
-        <v>6</v>
-      </c>
-      <c r="J4" s="43">
+      <c r="A4" s="42">
+        <v>6</v>
+      </c>
+      <c r="B4" s="42">
+        <v>6</v>
+      </c>
+      <c r="C4" s="42">
+        <v>6</v>
+      </c>
+      <c r="D4" s="42">
+        <v>6</v>
+      </c>
+      <c r="E4" s="42">
+        <v>6</v>
+      </c>
+      <c r="F4" s="42">
+        <v>6</v>
+      </c>
+      <c r="G4" s="42">
+        <v>6</v>
+      </c>
+      <c r="H4" s="42">
+        <v>6</v>
+      </c>
+      <c r="I4" s="42">
+        <v>6</v>
+      </c>
+      <c r="J4" s="42">
         <v>6</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="43">
-        <v>6</v>
-      </c>
-      <c r="M4" s="43">
-        <v>6</v>
-      </c>
-      <c r="N4" s="43">
-        <v>6</v>
-      </c>
-      <c r="O4" s="43">
-        <v>6</v>
-      </c>
-      <c r="P4" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>6</v>
-      </c>
-      <c r="R4" s="43">
-        <v>6</v>
-      </c>
-      <c r="S4" s="43">
-        <v>6</v>
-      </c>
-      <c r="T4" s="43">
+      <c r="L4" s="42">
+        <v>6</v>
+      </c>
+      <c r="M4" s="42">
+        <v>6</v>
+      </c>
+      <c r="N4" s="42">
+        <v>6</v>
+      </c>
+      <c r="O4" s="42">
+        <v>6</v>
+      </c>
+      <c r="P4" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="42">
+        <v>6</v>
+      </c>
+      <c r="R4" s="42">
+        <v>6</v>
+      </c>
+      <c r="S4" s="42">
+        <v>6</v>
+      </c>
+      <c r="T4" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>6</v>
       </c>
       <c r="B5" s="3">
@@ -12807,193 +12902,193 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="42">
         <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="43">
-        <v>6</v>
-      </c>
-      <c r="D6" s="43">
-        <v>6</v>
-      </c>
-      <c r="E6" s="43">
-        <v>6</v>
-      </c>
-      <c r="F6" s="43">
-        <v>6</v>
-      </c>
-      <c r="G6" s="43">
-        <v>6</v>
-      </c>
-      <c r="H6" s="43">
-        <v>6</v>
-      </c>
-      <c r="I6" s="43">
-        <v>6</v>
-      </c>
-      <c r="J6" s="43">
+      <c r="C6" s="42">
+        <v>6</v>
+      </c>
+      <c r="D6" s="42">
+        <v>6</v>
+      </c>
+      <c r="E6" s="42">
+        <v>6</v>
+      </c>
+      <c r="F6" s="42">
+        <v>6</v>
+      </c>
+      <c r="G6" s="42">
+        <v>6</v>
+      </c>
+      <c r="H6" s="42">
+        <v>6</v>
+      </c>
+      <c r="I6" s="42">
+        <v>6</v>
+      </c>
+      <c r="J6" s="42">
         <v>6</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="43">
-        <v>6</v>
-      </c>
-      <c r="M6" s="43">
-        <v>6</v>
-      </c>
-      <c r="N6" s="43">
-        <v>6</v>
-      </c>
-      <c r="O6" s="43">
-        <v>6</v>
-      </c>
-      <c r="P6" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>6</v>
-      </c>
-      <c r="R6" s="43">
+      <c r="L6" s="42">
+        <v>6</v>
+      </c>
+      <c r="M6" s="42">
+        <v>6</v>
+      </c>
+      <c r="N6" s="42">
+        <v>6</v>
+      </c>
+      <c r="O6" s="42">
+        <v>6</v>
+      </c>
+      <c r="P6" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>6</v>
+      </c>
+      <c r="R6" s="42">
         <v>6</v>
       </c>
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="42">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="43">
-        <v>6</v>
-      </c>
-      <c r="D7" s="43">
-        <v>6</v>
-      </c>
-      <c r="E7" s="43">
-        <v>6</v>
-      </c>
-      <c r="F7" s="43">
-        <v>6</v>
-      </c>
-      <c r="G7" s="43">
-        <v>6</v>
-      </c>
-      <c r="H7" s="43">
-        <v>6</v>
-      </c>
-      <c r="I7" s="43">
-        <v>6</v>
-      </c>
-      <c r="J7" s="43">
+      <c r="C7" s="42">
+        <v>6</v>
+      </c>
+      <c r="D7" s="42">
+        <v>6</v>
+      </c>
+      <c r="E7" s="42">
+        <v>6</v>
+      </c>
+      <c r="F7" s="42">
+        <v>6</v>
+      </c>
+      <c r="G7" s="42">
+        <v>6</v>
+      </c>
+      <c r="H7" s="42">
+        <v>6</v>
+      </c>
+      <c r="I7" s="42">
+        <v>6</v>
+      </c>
+      <c r="J7" s="42">
         <v>6</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="43">
-        <v>6</v>
-      </c>
-      <c r="M7" s="43">
-        <v>6</v>
-      </c>
-      <c r="N7" s="43">
-        <v>6</v>
-      </c>
-      <c r="O7" s="43">
-        <v>6</v>
-      </c>
-      <c r="P7" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>6</v>
-      </c>
-      <c r="R7" s="43">
+      <c r="L7" s="42">
+        <v>6</v>
+      </c>
+      <c r="M7" s="42">
+        <v>6</v>
+      </c>
+      <c r="N7" s="42">
+        <v>6</v>
+      </c>
+      <c r="O7" s="42">
+        <v>6</v>
+      </c>
+      <c r="P7" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>6</v>
+      </c>
+      <c r="R7" s="42">
         <v>6</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T7" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+      <c r="A8" s="42">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="43">
-        <v>6</v>
-      </c>
-      <c r="D8" s="43">
-        <v>6</v>
-      </c>
-      <c r="E8" s="43">
-        <v>6</v>
-      </c>
-      <c r="F8" s="43">
-        <v>6</v>
-      </c>
-      <c r="G8" s="43">
-        <v>6</v>
-      </c>
-      <c r="H8" s="43">
-        <v>6</v>
-      </c>
-      <c r="I8" s="43">
-        <v>6</v>
-      </c>
-      <c r="J8" s="43">
+      <c r="C8" s="42">
+        <v>6</v>
+      </c>
+      <c r="D8" s="42">
+        <v>6</v>
+      </c>
+      <c r="E8" s="42">
+        <v>6</v>
+      </c>
+      <c r="F8" s="42">
+        <v>6</v>
+      </c>
+      <c r="G8" s="42">
+        <v>6</v>
+      </c>
+      <c r="H8" s="42">
+        <v>6</v>
+      </c>
+      <c r="I8" s="42">
+        <v>6</v>
+      </c>
+      <c r="J8" s="42">
         <v>6</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="43">
-        <v>6</v>
-      </c>
-      <c r="M8" s="43">
-        <v>6</v>
-      </c>
-      <c r="N8" s="43">
-        <v>6</v>
-      </c>
-      <c r="O8" s="43">
-        <v>6</v>
-      </c>
-      <c r="P8" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="43">
-        <v>6</v>
-      </c>
-      <c r="R8" s="43">
+      <c r="L8" s="42">
+        <v>6</v>
+      </c>
+      <c r="M8" s="42">
+        <v>6</v>
+      </c>
+      <c r="N8" s="42">
+        <v>6</v>
+      </c>
+      <c r="O8" s="42">
+        <v>6</v>
+      </c>
+      <c r="P8" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="42">
+        <v>6</v>
+      </c>
+      <c r="R8" s="42">
         <v>6</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="42">
         <v>6</v>
       </c>
     </row>
@@ -13007,22 +13102,22 @@
       <c r="C9" s="3">
         <v>20</v>
       </c>
-      <c r="D9" s="43">
-        <v>6</v>
-      </c>
-      <c r="E9" s="43">
-        <v>6</v>
-      </c>
-      <c r="F9" s="43">
-        <v>6</v>
-      </c>
-      <c r="G9" s="43">
-        <v>6</v>
-      </c>
-      <c r="H9" s="43">
-        <v>6</v>
-      </c>
-      <c r="I9" s="43">
+      <c r="D9" s="42">
+        <v>6</v>
+      </c>
+      <c r="E9" s="42">
+        <v>6</v>
+      </c>
+      <c r="F9" s="42">
+        <v>6</v>
+      </c>
+      <c r="G9" s="42">
+        <v>6</v>
+      </c>
+      <c r="H9" s="42">
+        <v>6</v>
+      </c>
+      <c r="I9" s="42">
         <v>6</v>
       </c>
       <c r="J9" s="3">
@@ -13034,19 +13129,19 @@
       <c r="L9" s="3">
         <v>20</v>
       </c>
-      <c r="M9" s="43">
-        <v>6</v>
-      </c>
-      <c r="N9" s="43">
-        <v>6</v>
-      </c>
-      <c r="O9" s="43">
-        <v>6</v>
-      </c>
-      <c r="P9" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="43">
+      <c r="M9" s="42">
+        <v>6</v>
+      </c>
+      <c r="N9" s="42">
+        <v>6</v>
+      </c>
+      <c r="O9" s="42">
+        <v>6</v>
+      </c>
+      <c r="P9" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="42">
         <v>6</v>
       </c>
       <c r="R9" s="3">
@@ -13069,22 +13164,22 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="43">
-        <v>6</v>
-      </c>
-      <c r="E10" s="43">
-        <v>6</v>
-      </c>
-      <c r="F10" s="43">
-        <v>6</v>
-      </c>
-      <c r="G10" s="43">
-        <v>6</v>
-      </c>
-      <c r="H10" s="43">
-        <v>6</v>
-      </c>
-      <c r="I10" s="43">
+      <c r="D10" s="42">
+        <v>6</v>
+      </c>
+      <c r="E10" s="42">
+        <v>6</v>
+      </c>
+      <c r="F10" s="42">
+        <v>6</v>
+      </c>
+      <c r="G10" s="42">
+        <v>6</v>
+      </c>
+      <c r="H10" s="42">
+        <v>6</v>
+      </c>
+      <c r="I10" s="42">
         <v>6</v>
       </c>
       <c r="J10" s="3">
@@ -13096,19 +13191,19 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="43">
-        <v>6</v>
-      </c>
-      <c r="N10" s="43">
-        <v>6</v>
-      </c>
-      <c r="O10" s="43">
-        <v>6</v>
-      </c>
-      <c r="P10" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="43">
+      <c r="M10" s="42">
+        <v>6</v>
+      </c>
+      <c r="N10" s="42">
+        <v>6</v>
+      </c>
+      <c r="O10" s="42">
+        <v>6</v>
+      </c>
+      <c r="P10" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="42">
         <v>6</v>
       </c>
       <c r="R10" s="3">
@@ -13131,22 +13226,22 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="43">
-        <v>6</v>
-      </c>
-      <c r="E11" s="43">
-        <v>6</v>
-      </c>
-      <c r="F11" s="43">
-        <v>6</v>
-      </c>
-      <c r="G11" s="43">
-        <v>6</v>
-      </c>
-      <c r="H11" s="43">
-        <v>6</v>
-      </c>
-      <c r="I11" s="43">
+      <c r="D11" s="42">
+        <v>6</v>
+      </c>
+      <c r="E11" s="42">
+        <v>6</v>
+      </c>
+      <c r="F11" s="42">
+        <v>6</v>
+      </c>
+      <c r="G11" s="42">
+        <v>6</v>
+      </c>
+      <c r="H11" s="42">
+        <v>6</v>
+      </c>
+      <c r="I11" s="42">
         <v>6</v>
       </c>
       <c r="J11" s="3">
@@ -13158,19 +13253,19 @@
       <c r="L11" s="3">
         <v>0</v>
       </c>
-      <c r="M11" s="43">
-        <v>6</v>
-      </c>
-      <c r="N11" s="43">
-        <v>6</v>
-      </c>
-      <c r="O11" s="43">
-        <v>6</v>
-      </c>
-      <c r="P11" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="43">
+      <c r="M11" s="42">
+        <v>6</v>
+      </c>
+      <c r="N11" s="42">
+        <v>6</v>
+      </c>
+      <c r="O11" s="42">
+        <v>6</v>
+      </c>
+      <c r="P11" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="42">
         <v>6</v>
       </c>
       <c r="R11" s="3">
@@ -13184,126 +13279,126 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="A12" s="42">
         <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
       </c>
-      <c r="C12" s="43">
-        <v>6</v>
-      </c>
-      <c r="D12" s="43">
-        <v>6</v>
-      </c>
-      <c r="E12" s="43">
-        <v>6</v>
-      </c>
-      <c r="F12" s="43">
-        <v>6</v>
-      </c>
-      <c r="G12" s="43">
-        <v>6</v>
-      </c>
-      <c r="H12" s="43">
-        <v>6</v>
-      </c>
-      <c r="I12" s="43">
-        <v>6</v>
-      </c>
-      <c r="J12" s="43">
+      <c r="C12" s="42">
+        <v>6</v>
+      </c>
+      <c r="D12" s="42">
+        <v>6</v>
+      </c>
+      <c r="E12" s="42">
+        <v>6</v>
+      </c>
+      <c r="F12" s="42">
+        <v>6</v>
+      </c>
+      <c r="G12" s="42">
+        <v>6</v>
+      </c>
+      <c r="H12" s="42">
+        <v>6</v>
+      </c>
+      <c r="I12" s="42">
+        <v>6</v>
+      </c>
+      <c r="J12" s="42">
         <v>6</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="43">
-        <v>6</v>
-      </c>
-      <c r="M12" s="43">
-        <v>6</v>
-      </c>
-      <c r="N12" s="43">
-        <v>6</v>
-      </c>
-      <c r="O12" s="43">
-        <v>6</v>
-      </c>
-      <c r="P12" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="43">
-        <v>6</v>
-      </c>
-      <c r="R12" s="43">
+      <c r="L12" s="42">
+        <v>6</v>
+      </c>
+      <c r="M12" s="42">
+        <v>6</v>
+      </c>
+      <c r="N12" s="42">
+        <v>6</v>
+      </c>
+      <c r="O12" s="42">
+        <v>6</v>
+      </c>
+      <c r="P12" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>6</v>
+      </c>
+      <c r="R12" s="42">
         <v>6</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
-      <c r="T12" s="43">
+      <c r="T12" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="42">
         <v>6</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="43">
-        <v>6</v>
-      </c>
-      <c r="D13" s="43">
-        <v>6</v>
-      </c>
-      <c r="E13" s="43">
-        <v>6</v>
-      </c>
-      <c r="F13" s="43">
-        <v>6</v>
-      </c>
-      <c r="G13" s="43">
-        <v>6</v>
-      </c>
-      <c r="H13" s="43">
-        <v>6</v>
-      </c>
-      <c r="I13" s="43">
-        <v>6</v>
-      </c>
-      <c r="J13" s="43">
+      <c r="C13" s="42">
+        <v>6</v>
+      </c>
+      <c r="D13" s="42">
+        <v>6</v>
+      </c>
+      <c r="E13" s="42">
+        <v>6</v>
+      </c>
+      <c r="F13" s="42">
+        <v>6</v>
+      </c>
+      <c r="G13" s="42">
+        <v>6</v>
+      </c>
+      <c r="H13" s="42">
+        <v>6</v>
+      </c>
+      <c r="I13" s="42">
+        <v>6</v>
+      </c>
+      <c r="J13" s="42">
         <v>6</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="43">
-        <v>6</v>
-      </c>
-      <c r="M13" s="43">
-        <v>6</v>
-      </c>
-      <c r="N13" s="43">
-        <v>6</v>
-      </c>
-      <c r="O13" s="43">
-        <v>6</v>
-      </c>
-      <c r="P13" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="43">
-        <v>6</v>
-      </c>
-      <c r="R13" s="43">
+      <c r="L13" s="42">
+        <v>6</v>
+      </c>
+      <c r="M13" s="42">
+        <v>6</v>
+      </c>
+      <c r="N13" s="42">
+        <v>6</v>
+      </c>
+      <c r="O13" s="42">
+        <v>6</v>
+      </c>
+      <c r="P13" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>6</v>
+      </c>
+      <c r="R13" s="42">
         <v>6</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
       </c>
-      <c r="T13" s="43">
+      <c r="T13" s="42">
         <v>6</v>
       </c>
     </row>
@@ -13317,22 +13412,22 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="43">
-        <v>6</v>
-      </c>
-      <c r="E14" s="43">
-        <v>6</v>
-      </c>
-      <c r="F14" s="43">
-        <v>6</v>
-      </c>
-      <c r="G14" s="43">
-        <v>6</v>
-      </c>
-      <c r="H14" s="43">
-        <v>6</v>
-      </c>
-      <c r="I14" s="43">
+      <c r="D14" s="42">
+        <v>6</v>
+      </c>
+      <c r="E14" s="42">
+        <v>6</v>
+      </c>
+      <c r="F14" s="42">
+        <v>6</v>
+      </c>
+      <c r="G14" s="42">
+        <v>6</v>
+      </c>
+      <c r="H14" s="42">
+        <v>6</v>
+      </c>
+      <c r="I14" s="42">
         <v>6</v>
       </c>
       <c r="J14" s="3">
@@ -13344,19 +13439,19 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="43">
-        <v>6</v>
-      </c>
-      <c r="N14" s="43">
-        <v>6</v>
-      </c>
-      <c r="O14" s="43">
-        <v>6</v>
-      </c>
-      <c r="P14" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="43">
+      <c r="M14" s="42">
+        <v>6</v>
+      </c>
+      <c r="N14" s="42">
+        <v>6</v>
+      </c>
+      <c r="O14" s="42">
+        <v>6</v>
+      </c>
+      <c r="P14" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="42">
         <v>6</v>
       </c>
       <c r="R14" s="3">
@@ -13379,22 +13474,22 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="43">
-        <v>6</v>
-      </c>
-      <c r="E15" s="43">
-        <v>6</v>
-      </c>
-      <c r="F15" s="43">
-        <v>6</v>
-      </c>
-      <c r="G15" s="43">
-        <v>6</v>
-      </c>
-      <c r="H15" s="43">
-        <v>6</v>
-      </c>
-      <c r="I15" s="43">
+      <c r="D15" s="42">
+        <v>6</v>
+      </c>
+      <c r="E15" s="42">
+        <v>6</v>
+      </c>
+      <c r="F15" s="42">
+        <v>6</v>
+      </c>
+      <c r="G15" s="42">
+        <v>6</v>
+      </c>
+      <c r="H15" s="42">
+        <v>6</v>
+      </c>
+      <c r="I15" s="42">
         <v>6</v>
       </c>
       <c r="J15" s="3">
@@ -13406,19 +13501,19 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
-        <v>6</v>
-      </c>
-      <c r="N15" s="43">
-        <v>6</v>
-      </c>
-      <c r="O15" s="43">
-        <v>6</v>
-      </c>
-      <c r="P15" s="43">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="43">
+      <c r="M15" s="42">
+        <v>6</v>
+      </c>
+      <c r="N15" s="42">
+        <v>6</v>
+      </c>
+      <c r="O15" s="42">
+        <v>6</v>
+      </c>
+      <c r="P15" s="42">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="42">
         <v>6</v>
       </c>
       <c r="R15" s="3">

--- a/docs/NorthPolePatrol-Maps.xlsx
+++ b/docs/NorthPolePatrol-Maps.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\BOOTCAMP\FINALPROJECT\Project3\elftacular\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\BootCamp\FINALPROJECT\Project3\elftacular\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="12090" tabRatio="408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="12090" tabRatio="408" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1-WF" sheetId="1" r:id="rId1"/>
     <sheet name="1-NPP" sheetId="2" r:id="rId2"/>
-    <sheet name="2-Original" sheetId="3" r:id="rId3"/>
+    <sheet name="2-WF" sheetId="13" r:id="rId3"/>
     <sheet name="2-New" sheetId="4" r:id="rId4"/>
     <sheet name="3-Original" sheetId="7" r:id="rId5"/>
     <sheet name="3-New" sheetId="8" r:id="rId6"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
   <si>
     <t>OPEN PATH</t>
   </si>
@@ -246,6 +246,24 @@
   </si>
   <si>
     <t>2 blobs</t>
+  </si>
+  <si>
+    <t>TRAIN3/stairs</t>
+  </si>
+  <si>
+    <t>ENGINE</t>
+  </si>
+  <si>
+    <t>CABOOSE</t>
+  </si>
+  <si>
+    <t>2 ice trolls</t>
+  </si>
+  <si>
+    <t>3 wolves</t>
+  </si>
+  <si>
+    <t>2 frost giants</t>
   </si>
 </sst>
 </file>
@@ -579,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -756,29 +774,14 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,9 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,20 +833,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -862,6 +853,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3552,68 +3585,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5">
+      <c r="B1" s="10">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>0</v>
+      </c>
+      <c r="D1" s="69">
         <v>60</v>
       </c>
-      <c r="E1" s="58">
-        <v>5</v>
-      </c>
-      <c r="F1" s="58">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1" s="58">
-        <v>5</v>
-      </c>
-      <c r="J1" s="58">
-        <v>5</v>
-      </c>
-      <c r="K1" s="58">
-        <v>5</v>
-      </c>
-      <c r="L1" s="58">
-        <v>5</v>
-      </c>
-      <c r="M1" s="58">
-        <v>5</v>
-      </c>
-      <c r="N1" s="58">
-        <v>5</v>
-      </c>
-      <c r="O1" s="58">
-        <v>5</v>
-      </c>
-      <c r="P1" s="58">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="58">
-        <v>5</v>
-      </c>
-      <c r="R1" s="67">
+      <c r="E1" s="59">
+        <v>5</v>
+      </c>
+      <c r="F1" s="76">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10">
+        <v>0</v>
+      </c>
+      <c r="H1" s="10">
+        <v>0</v>
+      </c>
+      <c r="I1" s="59">
+        <v>5</v>
+      </c>
+      <c r="J1" s="59">
+        <v>5</v>
+      </c>
+      <c r="K1" s="59">
+        <v>5</v>
+      </c>
+      <c r="L1" s="59">
+        <v>5</v>
+      </c>
+      <c r="M1" s="59">
+        <v>5</v>
+      </c>
+      <c r="N1" s="59">
+        <v>5</v>
+      </c>
+      <c r="O1" s="59">
+        <v>5</v>
+      </c>
+      <c r="P1" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="59">
+        <v>5</v>
+      </c>
+      <c r="R1" s="63">
         <v>47</v>
       </c>
-      <c r="S1" s="58">
+      <c r="S1" s="59">
         <v>5</v>
       </c>
       <c r="T1" s="60">
@@ -3645,61 +3678,61 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="58">
-        <v>5</v>
-      </c>
-      <c r="J2" s="58">
-        <v>5</v>
-      </c>
-      <c r="K2" s="83">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="59">
+        <v>5</v>
+      </c>
+      <c r="J2" s="59">
+        <v>5</v>
+      </c>
+      <c r="K2" s="76">
         <v>12</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="64">
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="89">
         <v>4</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="69">
         <v>60</v>
       </c>
-      <c r="R2" s="58">
-        <v>5</v>
-      </c>
-      <c r="S2" s="58">
+      <c r="R2" s="59">
+        <v>5</v>
+      </c>
+      <c r="S2" s="59">
         <v>5</v>
       </c>
       <c r="T2" s="60">
@@ -3708,7 +3741,7 @@
       <c r="U2" s="59">
         <v>5</v>
       </c>
-      <c r="V2" s="82">
+      <c r="V2" s="76">
         <v>13</v>
       </c>
       <c r="W2" s="59">
@@ -3731,61 +3764,61 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="58">
-        <v>5</v>
-      </c>
-      <c r="F3" s="58">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="58">
-        <v>5</v>
-      </c>
-      <c r="J3" s="58">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="59">
+        <v>5</v>
+      </c>
+      <c r="F3" s="59">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="59">
+        <v>5</v>
+      </c>
+      <c r="J3" s="59">
+        <v>5</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
         <v>0</v>
       </c>
       <c r="T3" s="16">
@@ -3803,7 +3836,7 @@
       <c r="X3" s="10">
         <v>0</v>
       </c>
-      <c r="Y3" s="76">
+      <c r="Y3" s="90">
         <v>57</v>
       </c>
       <c r="Z3" s="59">
@@ -3817,64 +3850,64 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="64">
+      <c r="A4" s="95">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="89">
         <v>4</v>
       </c>
-      <c r="E4" s="58">
-        <v>5</v>
-      </c>
-      <c r="F4" s="58">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="58">
-        <v>5</v>
-      </c>
-      <c r="J4" s="58">
-        <v>5</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="24">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="24">
+      <c r="E4" s="59">
+        <v>5</v>
+      </c>
+      <c r="F4" s="59">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="59">
+        <v>5</v>
+      </c>
+      <c r="J4" s="59">
+        <v>5</v>
+      </c>
+      <c r="K4" s="64">
+        <v>52</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="84">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
+      <c r="T4" s="84">
         <v>0</v>
       </c>
       <c r="U4" s="10">
@@ -3889,7 +3922,7 @@
       <c r="X4" s="10">
         <v>0</v>
       </c>
-      <c r="Y4" s="64">
+      <c r="Y4" s="89">
         <v>4</v>
       </c>
       <c r="Z4" s="59">
@@ -3903,76 +3936,76 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58">
-        <v>5</v>
-      </c>
-      <c r="B5" s="58">
-        <v>5</v>
-      </c>
-      <c r="C5" s="58">
-        <v>5</v>
-      </c>
-      <c r="D5" s="58">
-        <v>5</v>
-      </c>
-      <c r="E5" s="58">
-        <v>5</v>
-      </c>
-      <c r="F5" s="58">
-        <v>5</v>
-      </c>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="A5" s="59">
+        <v>5</v>
+      </c>
+      <c r="B5" s="59">
+        <v>5</v>
+      </c>
+      <c r="C5" s="59">
+        <v>5</v>
+      </c>
+      <c r="D5" s="59">
+        <v>5</v>
+      </c>
+      <c r="E5" s="59">
+        <v>5</v>
+      </c>
+      <c r="F5" s="59">
+        <v>5</v>
+      </c>
+      <c r="G5" s="84">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="69">
         <v>60</v>
       </c>
-      <c r="J5" s="58">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="30">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="65">
+      <c r="J5" s="59">
+        <v>5</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="91">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="92">
         <v>4</v>
       </c>
-      <c r="O5" s="76">
+      <c r="O5" s="90">
         <v>28</v>
       </c>
-      <c r="P5" s="62">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="58">
-        <v>5</v>
-      </c>
-      <c r="R5" s="64">
+      <c r="P5" s="93">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>5</v>
+      </c>
+      <c r="R5" s="89">
         <v>4</v>
       </c>
-      <c r="S5" s="12">
-        <v>0</v>
-      </c>
-      <c r="T5" s="88">
-        <v>0</v>
-      </c>
-      <c r="U5" s="86">
-        <v>0</v>
-      </c>
-      <c r="V5" s="16">
-        <v>19</v>
+      <c r="S5" s="83">
+        <v>0</v>
+      </c>
+      <c r="T5" s="86">
+        <v>0</v>
+      </c>
+      <c r="U5" s="80">
+        <v>0</v>
+      </c>
+      <c r="V5" s="90">
+        <v>30</v>
       </c>
       <c r="W5" s="59">
         <v>5</v>
       </c>
-      <c r="X5" s="75">
+      <c r="X5" s="69">
         <v>60</v>
       </c>
       <c r="Y5" s="59">
@@ -3989,70 +4022,70 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58">
-        <v>5</v>
-      </c>
-      <c r="B6" s="58">
-        <v>5</v>
-      </c>
-      <c r="C6" s="58">
-        <v>5</v>
-      </c>
-      <c r="D6" s="58">
-        <v>5</v>
-      </c>
-      <c r="E6" s="83">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59">
+        <v>5</v>
+      </c>
+      <c r="C6" s="59">
+        <v>5</v>
+      </c>
+      <c r="D6" s="59">
+        <v>5</v>
+      </c>
+      <c r="E6" s="76">
         <v>13</v>
       </c>
       <c r="F6" s="60">
         <v>5</v>
       </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0</v>
-      </c>
-      <c r="I6" s="58">
-        <v>5</v>
-      </c>
-      <c r="J6" s="58">
-        <v>5</v>
-      </c>
-      <c r="K6" s="58">
-        <v>5</v>
-      </c>
-      <c r="L6" s="58">
-        <v>5</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="58">
-        <v>5</v>
-      </c>
-      <c r="O6" s="61">
-        <v>5</v>
-      </c>
-      <c r="P6" s="58">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="58">
-        <v>5</v>
-      </c>
-      <c r="R6" s="16">
+      <c r="G6" s="91">
+        <v>0</v>
+      </c>
+      <c r="H6" s="80">
+        <v>0</v>
+      </c>
+      <c r="I6" s="59">
+        <v>5</v>
+      </c>
+      <c r="J6" s="59">
+        <v>5</v>
+      </c>
+      <c r="K6" s="59">
+        <v>5</v>
+      </c>
+      <c r="L6" s="59">
+        <v>5</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="59">
+        <v>5</v>
+      </c>
+      <c r="O6" s="94">
+        <v>5</v>
+      </c>
+      <c r="P6" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>5</v>
+      </c>
+      <c r="R6" s="95">
         <v>18</v>
       </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="87">
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="96">
         <v>0</v>
       </c>
       <c r="U6" s="10">
         <v>0</v>
       </c>
-      <c r="V6" s="64">
+      <c r="V6" s="89">
         <v>4</v>
       </c>
       <c r="W6" s="59">
@@ -4075,64 +4108,64 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
-        <v>5</v>
-      </c>
-      <c r="B7" s="58">
-        <v>5</v>
-      </c>
-      <c r="C7" s="58">
-        <v>5</v>
-      </c>
-      <c r="D7" s="58">
-        <v>5</v>
-      </c>
-      <c r="E7" s="58">
-        <v>5</v>
-      </c>
-      <c r="F7" s="58">
-        <v>5</v>
-      </c>
-      <c r="G7" s="31">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="58">
-        <v>5</v>
-      </c>
-      <c r="J7" s="58">
-        <v>5</v>
-      </c>
-      <c r="K7" s="67">
+      <c r="A7" s="59">
+        <v>5</v>
+      </c>
+      <c r="B7" s="59">
+        <v>5</v>
+      </c>
+      <c r="C7" s="59">
+        <v>5</v>
+      </c>
+      <c r="D7" s="59">
+        <v>5</v>
+      </c>
+      <c r="E7" s="59">
+        <v>5</v>
+      </c>
+      <c r="F7" s="59">
+        <v>5</v>
+      </c>
+      <c r="G7" s="87">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="59">
+        <v>5</v>
+      </c>
+      <c r="J7" s="59">
+        <v>5</v>
+      </c>
+      <c r="K7" s="63">
         <v>47</v>
       </c>
-      <c r="L7" s="58">
-        <v>5</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="58">
-        <v>5</v>
-      </c>
-      <c r="O7" s="58">
-        <v>5</v>
-      </c>
-      <c r="P7" s="58">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="58">
-        <v>5</v>
-      </c>
-      <c r="R7" s="58">
-        <v>5</v>
-      </c>
-      <c r="S7" s="58">
-        <v>5</v>
-      </c>
-      <c r="T7" s="12">
+      <c r="L7" s="59">
+        <v>5</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="59">
+        <v>5</v>
+      </c>
+      <c r="O7" s="59">
+        <v>5</v>
+      </c>
+      <c r="P7" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>5</v>
+      </c>
+      <c r="R7" s="59">
+        <v>5</v>
+      </c>
+      <c r="S7" s="59">
+        <v>5</v>
+      </c>
+      <c r="T7" s="83">
         <v>0</v>
       </c>
       <c r="U7" s="10">
@@ -4147,7 +4180,7 @@
       <c r="X7" s="10">
         <v>0</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="95">
         <v>17</v>
       </c>
       <c r="Z7" s="59">
@@ -4161,64 +4194,64 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83">
+      <c r="A8" s="76">
         <v>12</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="89">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="58">
-        <v>5</v>
-      </c>
-      <c r="E8" s="58">
-        <v>5</v>
-      </c>
-      <c r="F8" s="58">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="58">
-        <v>5</v>
-      </c>
-      <c r="J8" s="58">
-        <v>5</v>
-      </c>
-      <c r="K8" s="58">
-        <v>5</v>
-      </c>
-      <c r="L8" s="58">
-        <v>5</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="58">
-        <v>5</v>
-      </c>
-      <c r="O8" s="58">
-        <v>5</v>
-      </c>
-      <c r="P8" s="83">
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="59">
+        <v>5</v>
+      </c>
+      <c r="E8" s="59">
+        <v>5</v>
+      </c>
+      <c r="F8" s="59">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="59">
+        <v>5</v>
+      </c>
+      <c r="J8" s="59">
+        <v>5</v>
+      </c>
+      <c r="K8" s="59">
+        <v>5</v>
+      </c>
+      <c r="L8" s="59">
+        <v>5</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="59">
+        <v>5</v>
+      </c>
+      <c r="O8" s="59">
+        <v>5</v>
+      </c>
+      <c r="P8" s="76">
         <v>12</v>
       </c>
-      <c r="Q8" s="58">
-        <v>5</v>
-      </c>
-      <c r="R8" s="58">
-        <v>5</v>
-      </c>
-      <c r="S8" s="58">
-        <v>5</v>
-      </c>
-      <c r="T8" s="12">
+      <c r="Q8" s="59">
+        <v>5</v>
+      </c>
+      <c r="R8" s="59">
+        <v>5</v>
+      </c>
+      <c r="S8" s="59">
+        <v>5</v>
+      </c>
+      <c r="T8" s="83">
         <v>0</v>
       </c>
       <c r="U8" s="10">
@@ -4247,64 +4280,64 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="24">
-        <v>0</v>
-      </c>
-      <c r="D9" s="58">
-        <v>5</v>
-      </c>
-      <c r="E9" s="58">
-        <v>5</v>
-      </c>
-      <c r="F9" s="58">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="58">
-        <v>5</v>
-      </c>
-      <c r="J9" s="58">
-        <v>5</v>
-      </c>
-      <c r="K9" s="58">
-        <v>5</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="A9" s="10">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="84">
+        <v>0</v>
+      </c>
+      <c r="D9" s="59">
+        <v>5</v>
+      </c>
+      <c r="E9" s="59">
+        <v>5</v>
+      </c>
+      <c r="F9" s="59">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="59">
+        <v>5</v>
+      </c>
+      <c r="J9" s="59">
+        <v>5</v>
+      </c>
+      <c r="K9" s="59">
+        <v>5</v>
+      </c>
+      <c r="L9" s="69">
         <v>60</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="95">
         <v>23</v>
       </c>
-      <c r="R9" s="58">
-        <v>5</v>
-      </c>
-      <c r="S9" s="58">
-        <v>5</v>
-      </c>
-      <c r="T9" s="12">
+      <c r="R9" s="59">
+        <v>5</v>
+      </c>
+      <c r="S9" s="59">
+        <v>5</v>
+      </c>
+      <c r="T9" s="83">
         <v>0</v>
       </c>
       <c r="U9" s="10">
@@ -4313,10 +4346,10 @@
       <c r="V9" s="59">
         <v>5</v>
       </c>
-      <c r="W9" s="75">
+      <c r="W9" s="69">
         <v>60</v>
       </c>
-      <c r="X9" s="93">
+      <c r="X9" s="84">
         <v>0</v>
       </c>
       <c r="Y9" s="10">
@@ -4333,61 +4366,61 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>0</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10" s="91">
-        <v>0</v>
-      </c>
-      <c r="D10" s="62">
-        <v>5</v>
-      </c>
-      <c r="E10" s="58">
-        <v>5</v>
-      </c>
-      <c r="F10" s="58">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="64">
+      <c r="A10" s="64">
+        <v>51</v>
+      </c>
+      <c r="B10" s="83">
+        <v>0</v>
+      </c>
+      <c r="C10" s="97">
+        <v>0</v>
+      </c>
+      <c r="D10" s="93">
+        <v>5</v>
+      </c>
+      <c r="E10" s="59">
+        <v>5</v>
+      </c>
+      <c r="F10" s="59">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="89">
         <v>4</v>
       </c>
-      <c r="R10" s="58">
-        <v>5</v>
-      </c>
-      <c r="S10" s="58">
+      <c r="R10" s="59">
+        <v>5</v>
+      </c>
+      <c r="S10" s="59">
         <v>5</v>
       </c>
       <c r="T10" s="59">
@@ -4396,16 +4429,16 @@
       <c r="U10" s="59">
         <v>5</v>
       </c>
-      <c r="V10" s="68">
+      <c r="V10" s="63">
         <v>43</v>
       </c>
-      <c r="W10" s="63">
-        <v>5</v>
-      </c>
-      <c r="X10" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="86">
+      <c r="W10" s="60">
+        <v>5</v>
+      </c>
+      <c r="X10" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="80">
         <v>0</v>
       </c>
       <c r="Z10" s="59">
@@ -4419,76 +4452,76 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="31">
-        <v>0</v>
-      </c>
-      <c r="D11" s="67">
+      <c r="A11" s="59">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="87">
+        <v>0</v>
+      </c>
+      <c r="D11" s="63">
         <v>42</v>
       </c>
-      <c r="E11" s="58">
-        <v>5</v>
-      </c>
-      <c r="F11" s="58">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>0</v>
-      </c>
-      <c r="R11" s="58">
-        <v>5</v>
-      </c>
-      <c r="S11" s="58">
-        <v>5</v>
-      </c>
-      <c r="T11" s="58">
-        <v>5</v>
-      </c>
-      <c r="U11" s="76">
+      <c r="E11" s="59">
+        <v>5</v>
+      </c>
+      <c r="F11" s="59">
+        <v>5</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="84">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="83">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="80">
+        <v>0</v>
+      </c>
+      <c r="R11" s="59">
+        <v>5</v>
+      </c>
+      <c r="S11" s="59">
+        <v>5</v>
+      </c>
+      <c r="T11" s="59">
+        <v>5</v>
+      </c>
+      <c r="U11" s="90">
         <v>3</v>
       </c>
-      <c r="V11" s="76">
+      <c r="V11" s="90">
         <v>39</v>
       </c>
-      <c r="W11" s="76">
+      <c r="W11" s="90">
         <v>40</v>
       </c>
-      <c r="X11" s="96">
+      <c r="X11" s="87">
         <v>0</v>
       </c>
       <c r="Y11" s="10">
@@ -4505,70 +4538,70 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="58">
-        <v>5</v>
-      </c>
-      <c r="E12" s="58">
-        <v>5</v>
-      </c>
-      <c r="F12" s="58">
-        <v>5</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="62">
-        <v>5</v>
-      </c>
-      <c r="J12" s="58">
-        <v>5</v>
-      </c>
-      <c r="K12" s="58">
-        <v>5</v>
-      </c>
-      <c r="L12" s="64">
+      <c r="A12" s="59">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="59">
+        <v>5</v>
+      </c>
+      <c r="E12" s="59">
+        <v>5</v>
+      </c>
+      <c r="F12" s="59">
+        <v>5</v>
+      </c>
+      <c r="G12" s="83">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="93">
+        <v>5</v>
+      </c>
+      <c r="J12" s="59">
+        <v>5</v>
+      </c>
+      <c r="K12" s="59">
+        <v>5</v>
+      </c>
+      <c r="L12" s="89">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="58">
-        <v>5</v>
-      </c>
-      <c r="S12" s="58">
-        <v>5</v>
-      </c>
-      <c r="T12" s="83">
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="59">
+        <v>5</v>
+      </c>
+      <c r="S12" s="59">
+        <v>5</v>
+      </c>
+      <c r="T12" s="76">
         <v>12</v>
       </c>
       <c r="U12" s="10">
         <v>0</v>
       </c>
-      <c r="V12" s="93">
+      <c r="V12" s="84">
         <v>0</v>
       </c>
       <c r="W12" s="10">
@@ -4591,165 +4624,165 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="24">
-        <v>0</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0</v>
-      </c>
-      <c r="I13" s="58">
-        <v>5</v>
-      </c>
-      <c r="J13" s="58">
-        <v>5</v>
-      </c>
-      <c r="K13" s="58">
-        <v>5</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="30">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="53">
+      <c r="A13" s="59">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="84">
+        <v>0</v>
+      </c>
+      <c r="H13" s="87">
+        <v>0</v>
+      </c>
+      <c r="I13" s="59">
+        <v>5</v>
+      </c>
+      <c r="J13" s="59">
+        <v>5</v>
+      </c>
+      <c r="K13" s="59">
+        <v>5</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="91">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="59">
+        <v>5</v>
+      </c>
+      <c r="S13" s="59">
+        <v>5</v>
+      </c>
+      <c r="T13" s="59">
+        <v>5</v>
+      </c>
+      <c r="U13" s="83">
+        <v>0</v>
+      </c>
+      <c r="V13" s="86">
+        <v>0</v>
+      </c>
+      <c r="W13" s="80">
+        <v>0</v>
+      </c>
+      <c r="X13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="63">
+        <v>67</v>
+      </c>
+      <c r="AB13" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="59">
+        <v>5</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="83">
+        <v>0</v>
+      </c>
+      <c r="G14" s="97">
+        <v>0</v>
+      </c>
+      <c r="H14" s="80">
+        <v>0</v>
+      </c>
+      <c r="I14" s="59">
+        <v>5</v>
+      </c>
+      <c r="J14" s="59">
+        <v>5</v>
+      </c>
+      <c r="K14" s="59">
+        <v>5</v>
+      </c>
+      <c r="L14" s="95">
+        <v>22</v>
+      </c>
+      <c r="M14" s="80">
+        <v>0</v>
+      </c>
+      <c r="N14" s="80">
+        <v>0</v>
+      </c>
+      <c r="O14" s="69">
+        <v>60</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="98">
         <v>14</v>
       </c>
-      <c r="R13" s="58">
-        <v>5</v>
-      </c>
-      <c r="S13" s="58">
-        <v>5</v>
-      </c>
-      <c r="T13" s="58">
-        <v>5</v>
-      </c>
-      <c r="U13" s="92">
-        <v>0</v>
-      </c>
-      <c r="V13" s="95">
-        <v>0</v>
-      </c>
-      <c r="W13" s="86">
-        <v>0</v>
-      </c>
-      <c r="X13" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="59">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="68">
-        <v>45</v>
-      </c>
-      <c r="AB13" s="59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="91">
-        <v>0</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0</v>
-      </c>
-      <c r="I14" s="58">
-        <v>5</v>
-      </c>
-      <c r="J14" s="58">
-        <v>5</v>
-      </c>
-      <c r="K14" s="58">
-        <v>5</v>
-      </c>
-      <c r="L14" s="73">
-        <v>22</v>
-      </c>
-      <c r="M14" s="23">
-        <v>0</v>
-      </c>
-      <c r="N14" s="23">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="58">
-        <v>5</v>
-      </c>
-      <c r="S14" s="58">
+      <c r="R14" s="59">
+        <v>5</v>
+      </c>
+      <c r="S14" s="59">
         <v>5</v>
       </c>
       <c r="T14" s="60">
         <v>5</v>
       </c>
-      <c r="U14" s="81">
+      <c r="U14" s="75">
         <v>66</v>
       </c>
-      <c r="V14" s="94">
+      <c r="V14" s="85">
         <v>66</v>
       </c>
-      <c r="W14" s="81">
+      <c r="W14" s="75">
         <v>66</v>
       </c>
-      <c r="X14" s="81">
+      <c r="X14" s="75">
         <v>66</v>
       </c>
-      <c r="Y14" s="81">
+      <c r="Y14" s="75">
         <v>66</v>
       </c>
       <c r="Z14" s="59">
@@ -4763,61 +4796,61 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
-        <v>5</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="59">
+        <v>5</v>
+      </c>
+      <c r="B15" s="69">
         <v>60</v>
       </c>
-      <c r="C15" s="58">
-        <v>5</v>
-      </c>
-      <c r="D15" s="58">
-        <v>5</v>
-      </c>
-      <c r="E15" s="58">
-        <v>5</v>
-      </c>
-      <c r="F15" s="58">
-        <v>5</v>
-      </c>
-      <c r="G15" s="31">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="58">
-        <v>5</v>
-      </c>
-      <c r="J15" s="58">
-        <v>5</v>
-      </c>
-      <c r="K15" s="58">
-        <v>5</v>
-      </c>
-      <c r="L15" s="58">
-        <v>5</v>
-      </c>
-      <c r="M15" s="61">
-        <v>5</v>
-      </c>
-      <c r="N15" s="58">
-        <v>5</v>
-      </c>
-      <c r="O15" s="58">
-        <v>5</v>
-      </c>
-      <c r="P15" s="58">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>60</v>
-      </c>
-      <c r="R15" s="58">
-        <v>5</v>
-      </c>
-      <c r="S15" s="58">
+      <c r="C15" s="59">
+        <v>5</v>
+      </c>
+      <c r="D15" s="59">
+        <v>5</v>
+      </c>
+      <c r="E15" s="59">
+        <v>5</v>
+      </c>
+      <c r="F15" s="59">
+        <v>5</v>
+      </c>
+      <c r="G15" s="87">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="59">
+        <v>5</v>
+      </c>
+      <c r="J15" s="59">
+        <v>5</v>
+      </c>
+      <c r="K15" s="59">
+        <v>5</v>
+      </c>
+      <c r="L15" s="59">
+        <v>5</v>
+      </c>
+      <c r="M15" s="94">
+        <v>5</v>
+      </c>
+      <c r="N15" s="59">
+        <v>5</v>
+      </c>
+      <c r="O15" s="59">
+        <v>5</v>
+      </c>
+      <c r="P15" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="59">
+        <v>5</v>
+      </c>
+      <c r="R15" s="59">
+        <v>5</v>
+      </c>
+      <c r="S15" s="59">
         <v>5</v>
       </c>
       <c r="T15" s="60">
@@ -4867,10 +4900,10 @@
       <c r="F16" s="59">
         <v>5</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="70">
         <v>34</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="89">
         <v>4</v>
       </c>
       <c r="I16" s="59">
@@ -4906,7 +4939,7 @@
       <c r="S16" s="59">
         <v>5</v>
       </c>
-      <c r="T16" s="63">
+      <c r="T16" s="60">
         <v>5</v>
       </c>
       <c r="U16" s="59">
@@ -4954,9 +4987,9 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="84"/>
+      <c r="T17" s="78"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="89"/>
+      <c r="V17" s="81"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
@@ -4965,10 +4998,10 @@
       <c r="R18" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="T18" s="85" t="s">
+      <c r="T18" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="90" t="s">
+      <c r="V18" s="82" t="s">
         <v>70</v>
       </c>
       <c r="W18" s="33"/>
@@ -4992,7 +5025,7 @@
       <c r="K19" s="57">
         <v>47</v>
       </c>
-      <c r="L19" s="66" t="s">
+      <c r="L19" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5003,16 +5036,16 @@
       <c r="B20" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="70">
         <v>28</v>
       </c>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="71" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="57">
         <v>48</v>
       </c>
-      <c r="L20" s="66" t="s">
+      <c r="L20" s="62" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5023,16 +5056,16 @@
       <c r="B21" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="70">
         <v>29</v>
       </c>
-      <c r="G21" s="77" t="s">
+      <c r="G21" s="71" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="57">
         <v>49</v>
       </c>
-      <c r="L21" s="66" t="s">
+      <c r="L21" s="62" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5043,16 +5076,16 @@
       <c r="B22" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="70">
         <v>30</v>
       </c>
-      <c r="G22" s="77" t="s">
+      <c r="G22" s="71" t="s">
         <v>25</v>
       </c>
       <c r="K22" s="57">
         <v>50</v>
       </c>
-      <c r="L22" s="66" t="s">
+      <c r="L22" s="62" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5063,36 +5096,36 @@
       <c r="B23" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="70">
         <v>31</v>
       </c>
-      <c r="G23" s="77" t="s">
+      <c r="G23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K23" s="64">
         <v>51</v>
       </c>
-      <c r="L23" s="70" t="s">
+      <c r="L23" s="65" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76">
+      <c r="A24" s="70">
         <v>11</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="70">
         <v>32</v>
       </c>
-      <c r="G24" s="77" t="s">
+      <c r="G24" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="69">
+      <c r="K24" s="64">
         <v>52</v>
       </c>
-      <c r="L24" s="70" t="s">
+      <c r="L24" s="65" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5109,10 +5142,10 @@
       <c r="G25" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="69">
+      <c r="K25" s="64">
         <v>53</v>
       </c>
-      <c r="L25" s="70" t="s">
+      <c r="L25" s="65" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5123,16 +5156,16 @@
       <c r="B26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="70">
         <v>34</v>
       </c>
-      <c r="G26" s="77" t="s">
+      <c r="G26" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="69">
+      <c r="K26" s="64">
         <v>54</v>
       </c>
-      <c r="L26" s="70" t="s">
+      <c r="L26" s="65" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5143,16 +5176,16 @@
       <c r="B27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="70">
         <v>35</v>
       </c>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="69">
+      <c r="K27" s="64">
         <v>55</v>
       </c>
-      <c r="L27" s="70" t="s">
+      <c r="L27" s="65" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5163,110 +5196,110 @@
       <c r="B28" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="76">
+      <c r="F28" s="70">
         <v>36</v>
       </c>
-      <c r="G28" s="77" t="s">
+      <c r="G28" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="64">
         <v>56</v>
       </c>
-      <c r="L28" s="70" t="s">
+      <c r="L28" s="65" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76">
+      <c r="A29" s="70">
         <v>16</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="70">
         <v>37</v>
       </c>
-      <c r="G29" s="77" t="s">
+      <c r="G29" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="76">
+      <c r="K29" s="70">
         <v>57</v>
       </c>
-      <c r="L29" s="78" t="s">
+      <c r="L29" s="72" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71">
+      <c r="A30" s="66">
         <v>17</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="70">
         <v>3</v>
       </c>
-      <c r="G30" s="77" t="s">
+      <c r="G30" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="76">
+      <c r="K30" s="70">
         <v>58</v>
       </c>
-      <c r="L30" s="78" t="s">
+      <c r="L30" s="72" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71">
+      <c r="A31" s="66">
         <v>18</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="70">
         <v>39</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="76">
+      <c r="K31" s="70">
         <v>59</v>
       </c>
-      <c r="L31" s="78" t="s">
+      <c r="L31" s="72" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71">
+      <c r="A32" s="66">
         <v>19</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="70">
         <v>40</v>
       </c>
-      <c r="G32" s="77" t="s">
+      <c r="G32" s="71" t="s">
         <v>38</v>
       </c>
       <c r="K32" s="47">
         <v>60</v>
       </c>
-      <c r="L32" s="74" t="s">
+      <c r="L32" s="68" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71">
+      <c r="A33" s="66">
         <v>21</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="67" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="57">
         <v>41</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="62" t="s">
         <v>39</v>
       </c>
       <c r="K33" s="47">
@@ -5277,16 +5310,16 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71">
+      <c r="A34" s="66">
         <v>22</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="67" t="s">
         <v>33</v>
       </c>
       <c r="F34" s="57">
         <v>42</v>
       </c>
-      <c r="G34" s="66" t="s">
+      <c r="G34" s="62" t="s">
         <v>40</v>
       </c>
       <c r="K34" s="47">
@@ -5297,16 +5330,16 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71">
+      <c r="A35" s="66">
         <v>23</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="67" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="57">
         <v>43</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="62" t="s">
         <v>41</v>
       </c>
       <c r="K35" s="47">
@@ -5317,16 +5350,16 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71">
+      <c r="A36" s="66">
         <v>24</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="67" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="57">
         <v>44</v>
       </c>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="62" t="s">
         <v>34</v>
       </c>
       <c r="K36" s="47">
@@ -5337,16 +5370,16 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71">
+      <c r="A37" s="66">
         <v>25</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="67" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="57">
         <v>45</v>
       </c>
-      <c r="G37" s="66" t="s">
+      <c r="G37" s="62" t="s">
         <v>35</v>
       </c>
       <c r="K37" s="47">
@@ -5357,22 +5390,22 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71">
+      <c r="A38" s="66">
         <v>26</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="67" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="57">
         <v>46</v>
       </c>
-      <c r="G38" s="66" t="s">
+      <c r="G38" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="K38" s="79">
+      <c r="K38" s="73">
         <v>66</v>
       </c>
-      <c r="L38" s="80" t="s">
+      <c r="L38" s="74" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5383,951 +5416,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3">
-        <v>0</v>
-      </c>
-      <c r="I1" s="3">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3">
-        <v>0</v>
-      </c>
-      <c r="K1" s="4">
-        <v>5</v>
-      </c>
-      <c r="L1" s="4">
-        <v>5</v>
-      </c>
-      <c r="M1" s="4">
-        <v>5</v>
-      </c>
-      <c r="N1" s="4">
-        <v>5</v>
-      </c>
-      <c r="O1" s="4">
-        <v>5</v>
-      </c>
-      <c r="P1" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>5</v>
-      </c>
-      <c r="R1" s="4">
-        <v>5</v>
-      </c>
-      <c r="S1" s="4">
-        <v>5</v>
-      </c>
-      <c r="T1" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4">
-        <v>5</v>
-      </c>
-      <c r="K2" s="4">
-        <v>5</v>
-      </c>
-      <c r="L2" s="4">
-        <v>5</v>
-      </c>
-      <c r="M2" s="4">
-        <v>5</v>
-      </c>
-      <c r="N2" s="4">
-        <v>5</v>
-      </c>
-      <c r="O2" s="4">
-        <v>5</v>
-      </c>
-      <c r="P2" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>5</v>
-      </c>
-      <c r="R2" s="4">
-        <v>5</v>
-      </c>
-      <c r="S2" s="4">
-        <v>5</v>
-      </c>
-      <c r="T2" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4">
-        <v>5</v>
-      </c>
-      <c r="J3" s="4">
-        <v>5</v>
-      </c>
-      <c r="K3" s="4">
-        <v>5</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>5</v>
-      </c>
-      <c r="P3" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>5</v>
-      </c>
-      <c r="R3" s="4">
-        <v>5</v>
-      </c>
-      <c r="S3" s="4">
-        <v>5</v>
-      </c>
-      <c r="T3" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4">
-        <v>5</v>
-      </c>
-      <c r="K4" s="4">
-        <v>5</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20">
-        <v>2</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>5</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>5</v>
-      </c>
-      <c r="P5" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>5</v>
-      </c>
-      <c r="R5" s="4">
-        <v>5</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>5</v>
-      </c>
-      <c r="M6" s="4">
-        <v>5</v>
-      </c>
-      <c r="N6" s="4">
-        <v>5</v>
-      </c>
-      <c r="O6" s="4">
-        <v>5</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>5</v>
-      </c>
-      <c r="R6" s="4">
-        <v>5</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4">
-        <v>5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>5</v>
-      </c>
-      <c r="M7" s="4">
-        <v>5</v>
-      </c>
-      <c r="N7" s="4">
-        <v>5</v>
-      </c>
-      <c r="O7" s="4">
-        <v>5</v>
-      </c>
-      <c r="P7" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>5</v>
-      </c>
-      <c r="R7" s="4">
-        <v>5</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5</v>
-      </c>
-      <c r="H8" s="4">
-        <v>5</v>
-      </c>
-      <c r="I8" s="4">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
-      <c r="K8" s="4">
-        <v>5</v>
-      </c>
-      <c r="L8" s="4">
-        <v>5</v>
-      </c>
-      <c r="M8" s="4">
-        <v>5</v>
-      </c>
-      <c r="N8" s="4">
-        <v>5</v>
-      </c>
-      <c r="O8" s="4">
-        <v>5</v>
-      </c>
-      <c r="P8" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>5</v>
-      </c>
-      <c r="R8" s="4">
-        <v>5</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5</v>
-      </c>
-      <c r="L9" s="4">
-        <v>5</v>
-      </c>
-      <c r="M9" s="4">
-        <v>5</v>
-      </c>
-      <c r="N9" s="4">
-        <v>5</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>5</v>
-      </c>
-      <c r="R9" s="4">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>5</v>
-      </c>
-      <c r="H10" s="4">
-        <v>5</v>
-      </c>
-      <c r="I10" s="4">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4">
-        <v>5</v>
-      </c>
-      <c r="K10" s="4">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4">
-        <v>5</v>
-      </c>
-      <c r="K11" s="4">
-        <v>5</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4">
-        <v>5</v>
-      </c>
-      <c r="I12" s="4">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4">
-        <v>5</v>
-      </c>
-      <c r="K12" s="4">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <v>5</v>
-      </c>
-      <c r="S12" s="4">
-        <v>5</v>
-      </c>
-      <c r="T12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <v>5</v>
-      </c>
-      <c r="S13" s="4">
-        <v>5</v>
-      </c>
-      <c r="T13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5</v>
-      </c>
-      <c r="I14" s="4">
-        <v>5</v>
-      </c>
-      <c r="J14" s="4">
-        <v>5</v>
-      </c>
-      <c r="K14" s="4">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>5</v>
-      </c>
-      <c r="S14" s="4">
-        <v>5</v>
-      </c>
-      <c r="T14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4">
-        <v>5</v>
-      </c>
-      <c r="K15" s="4">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4">
-        <v>5</v>
-      </c>
-      <c r="N15" s="4">
-        <v>5</v>
-      </c>
-      <c r="O15" s="4">
-        <v>5</v>
-      </c>
-      <c r="P15" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>5</v>
-      </c>
-      <c r="R15" s="4">
-        <v>5</v>
-      </c>
-      <c r="S15" s="4">
-        <v>5</v>
-      </c>
-      <c r="T15" s="4">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB22"/>
   <sheetViews>
@@ -7770,6 +6858,1846 @@
       </c>
       <c r="H22" s="19" t="s">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="99">
+        <v>3</v>
+      </c>
+      <c r="B1" s="99">
+        <v>39</v>
+      </c>
+      <c r="C1" s="99">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5">
+        <v>65</v>
+      </c>
+      <c r="E1" s="58">
+        <v>5</v>
+      </c>
+      <c r="F1" s="58">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1" s="58">
+        <v>5</v>
+      </c>
+      <c r="J1" s="58">
+        <v>5</v>
+      </c>
+      <c r="K1" s="58">
+        <v>5</v>
+      </c>
+      <c r="L1" s="58">
+        <v>5</v>
+      </c>
+      <c r="M1" s="77">
+        <v>14</v>
+      </c>
+      <c r="N1" s="58">
+        <v>5</v>
+      </c>
+      <c r="O1" s="58">
+        <v>5</v>
+      </c>
+      <c r="P1" s="58">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="58">
+        <v>5</v>
+      </c>
+      <c r="R1" s="58">
+        <v>5</v>
+      </c>
+      <c r="S1" s="77">
+        <v>12</v>
+      </c>
+      <c r="T1" s="58">
+        <v>5</v>
+      </c>
+      <c r="U1" s="59">
+        <v>5</v>
+      </c>
+      <c r="V1" s="59">
+        <v>5</v>
+      </c>
+      <c r="W1" s="59">
+        <v>5</v>
+      </c>
+      <c r="X1" s="63">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="58">
+        <v>5</v>
+      </c>
+      <c r="J2" s="63">
+        <v>48</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="100">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="61">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>65</v>
+      </c>
+      <c r="R2" s="58">
+        <v>5</v>
+      </c>
+      <c r="S2" s="58">
+        <v>5</v>
+      </c>
+      <c r="T2" s="58">
+        <v>5</v>
+      </c>
+      <c r="U2" s="59">
+        <v>5</v>
+      </c>
+      <c r="V2" s="58">
+        <v>5</v>
+      </c>
+      <c r="W2" s="59">
+        <v>5</v>
+      </c>
+      <c r="X2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="58">
+        <v>5</v>
+      </c>
+      <c r="F3" s="58">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="58">
+        <v>5</v>
+      </c>
+      <c r="J3" s="58">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="16">
+        <v>16</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="99">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="61">
+        <v>4</v>
+      </c>
+      <c r="E4" s="58">
+        <v>5</v>
+      </c>
+      <c r="F4" s="58">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="58">
+        <v>5</v>
+      </c>
+      <c r="J4" s="58">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <v>0</v>
+      </c>
+      <c r="W4" s="10">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="61">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <v>5</v>
+      </c>
+      <c r="B5" s="58">
+        <v>5</v>
+      </c>
+      <c r="C5" s="58">
+        <v>5</v>
+      </c>
+      <c r="D5" s="58">
+        <v>5</v>
+      </c>
+      <c r="E5" s="77">
+        <v>12</v>
+      </c>
+      <c r="F5" s="58">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>65</v>
+      </c>
+      <c r="J5" s="58">
+        <v>5</v>
+      </c>
+      <c r="K5" s="99">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="61">
+        <v>4</v>
+      </c>
+      <c r="O5" s="58">
+        <v>5</v>
+      </c>
+      <c r="P5" s="58">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="58">
+        <v>5</v>
+      </c>
+      <c r="R5" s="61">
+        <v>4</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
+        <v>19</v>
+      </c>
+      <c r="W5" s="59">
+        <v>5</v>
+      </c>
+      <c r="X5" s="69">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
+        <v>5</v>
+      </c>
+      <c r="B6" s="58">
+        <v>5</v>
+      </c>
+      <c r="C6" s="58">
+        <v>5</v>
+      </c>
+      <c r="D6" s="58">
+        <v>5</v>
+      </c>
+      <c r="E6" s="58">
+        <v>5</v>
+      </c>
+      <c r="F6" s="58">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="58">
+        <v>5</v>
+      </c>
+      <c r="J6" s="58">
+        <v>5</v>
+      </c>
+      <c r="K6" s="58">
+        <v>5</v>
+      </c>
+      <c r="L6" s="58">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="58">
+        <v>5</v>
+      </c>
+      <c r="O6" s="58">
+        <v>5</v>
+      </c>
+      <c r="P6" s="58">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="58">
+        <v>5</v>
+      </c>
+      <c r="R6" s="16">
+        <v>18</v>
+      </c>
+      <c r="S6" s="58">
+        <v>5</v>
+      </c>
+      <c r="T6" s="58">
+        <v>5</v>
+      </c>
+      <c r="U6" s="58">
+        <v>5</v>
+      </c>
+      <c r="V6" s="58">
+        <v>5</v>
+      </c>
+      <c r="W6" s="59">
+        <v>5</v>
+      </c>
+      <c r="X6" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
+        <v>5</v>
+      </c>
+      <c r="B7" s="58">
+        <v>5</v>
+      </c>
+      <c r="C7" s="58">
+        <v>5</v>
+      </c>
+      <c r="D7" s="58">
+        <v>5</v>
+      </c>
+      <c r="E7" s="58">
+        <v>5</v>
+      </c>
+      <c r="F7" s="58">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="58">
+        <v>5</v>
+      </c>
+      <c r="J7" s="58">
+        <v>5</v>
+      </c>
+      <c r="K7" s="77">
+        <v>12</v>
+      </c>
+      <c r="L7" s="58">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="58">
+        <v>5</v>
+      </c>
+      <c r="O7" s="63">
+        <v>46</v>
+      </c>
+      <c r="P7" s="58">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="58">
+        <v>5</v>
+      </c>
+      <c r="R7" s="58">
+        <v>5</v>
+      </c>
+      <c r="S7" s="58">
+        <v>5</v>
+      </c>
+      <c r="T7" s="59">
+        <v>5</v>
+      </c>
+      <c r="U7" s="58">
+        <v>5</v>
+      </c>
+      <c r="V7" s="58">
+        <v>5</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="77">
+        <v>13</v>
+      </c>
+      <c r="B8" s="61">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="58">
+        <v>5</v>
+      </c>
+      <c r="E8" s="58">
+        <v>5</v>
+      </c>
+      <c r="F8" s="58">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="58">
+        <v>5</v>
+      </c>
+      <c r="J8" s="58">
+        <v>5</v>
+      </c>
+      <c r="K8" s="58">
+        <v>5</v>
+      </c>
+      <c r="L8" s="58">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="58">
+        <v>5</v>
+      </c>
+      <c r="O8" s="58">
+        <v>5</v>
+      </c>
+      <c r="P8" s="58">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="58">
+        <v>5</v>
+      </c>
+      <c r="R8" s="58">
+        <v>5</v>
+      </c>
+      <c r="S8" s="58">
+        <v>5</v>
+      </c>
+      <c r="T8" s="69">
+        <v>65</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="99">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="58">
+        <v>5</v>
+      </c>
+      <c r="E9" s="58">
+        <v>5</v>
+      </c>
+      <c r="F9" s="58">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="58">
+        <v>5</v>
+      </c>
+      <c r="J9" s="58">
+        <v>5</v>
+      </c>
+      <c r="K9" s="58">
+        <v>5</v>
+      </c>
+      <c r="L9" s="5">
+        <v>65</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>23</v>
+      </c>
+      <c r="R9" s="58">
+        <v>5</v>
+      </c>
+      <c r="S9" s="58">
+        <v>5</v>
+      </c>
+      <c r="T9" s="61">
+        <v>4</v>
+      </c>
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="101">
+        <v>53</v>
+      </c>
+      <c r="X9" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="99">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="58">
+        <v>5</v>
+      </c>
+      <c r="E10" s="63">
+        <v>41</v>
+      </c>
+      <c r="F10" s="58">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="61">
+        <v>4</v>
+      </c>
+      <c r="R10" s="58">
+        <v>5</v>
+      </c>
+      <c r="S10" s="58">
+        <v>5</v>
+      </c>
+      <c r="T10" s="59">
+        <v>5</v>
+      </c>
+      <c r="U10" s="59">
+        <v>5</v>
+      </c>
+      <c r="V10" s="59">
+        <v>5</v>
+      </c>
+      <c r="W10" s="59">
+        <v>5</v>
+      </c>
+      <c r="X10" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="58">
+        <v>5</v>
+      </c>
+      <c r="E11" s="58">
+        <v>5</v>
+      </c>
+      <c r="F11" s="58">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="58">
+        <v>5</v>
+      </c>
+      <c r="S11" s="58">
+        <v>5</v>
+      </c>
+      <c r="T11" s="58">
+        <v>5</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="61">
+        <v>4</v>
+      </c>
+      <c r="W11" s="59">
+        <v>5</v>
+      </c>
+      <c r="X11" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="58">
+        <v>5</v>
+      </c>
+      <c r="E12" s="58">
+        <v>5</v>
+      </c>
+      <c r="F12" s="58">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="58">
+        <v>5</v>
+      </c>
+      <c r="J12" s="58">
+        <v>5</v>
+      </c>
+      <c r="K12" s="58">
+        <v>5</v>
+      </c>
+      <c r="L12" s="61">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="101">
+        <v>54</v>
+      </c>
+      <c r="R12" s="58">
+        <v>5</v>
+      </c>
+      <c r="S12" s="58">
+        <v>5</v>
+      </c>
+      <c r="T12" s="58">
+        <v>5</v>
+      </c>
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
+        <v>0</v>
+      </c>
+      <c r="W12" s="59">
+        <v>5</v>
+      </c>
+      <c r="X12" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="58">
+        <v>5</v>
+      </c>
+      <c r="J13" s="58">
+        <v>5</v>
+      </c>
+      <c r="K13" s="58">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="58">
+        <v>5</v>
+      </c>
+      <c r="S13" s="58">
+        <v>5</v>
+      </c>
+      <c r="T13" s="58">
+        <v>5</v>
+      </c>
+      <c r="U13" s="10">
+        <v>0</v>
+      </c>
+      <c r="V13" s="10">
+        <v>0</v>
+      </c>
+      <c r="W13" s="69">
+        <v>65</v>
+      </c>
+      <c r="X13" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="63">
+        <v>45</v>
+      </c>
+      <c r="AB13" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="58">
+        <v>5</v>
+      </c>
+      <c r="J14" s="58">
+        <v>5</v>
+      </c>
+      <c r="K14" s="58">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="99">
+        <v>11</v>
+      </c>
+      <c r="O14" s="100">
+        <v>25</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="58">
+        <v>5</v>
+      </c>
+      <c r="S14" s="77">
+        <v>15</v>
+      </c>
+      <c r="T14" s="58">
+        <v>5</v>
+      </c>
+      <c r="U14" s="10">
+        <v>0</v>
+      </c>
+      <c r="V14" s="10">
+        <v>0</v>
+      </c>
+      <c r="W14" s="10">
+        <v>0</v>
+      </c>
+      <c r="X14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>65</v>
+      </c>
+      <c r="C15" s="58">
+        <v>5</v>
+      </c>
+      <c r="D15" s="58">
+        <v>5</v>
+      </c>
+      <c r="E15" s="58">
+        <v>5</v>
+      </c>
+      <c r="F15" s="58">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="58">
+        <v>5</v>
+      </c>
+      <c r="J15" s="58">
+        <v>5</v>
+      </c>
+      <c r="K15" s="63">
+        <v>44</v>
+      </c>
+      <c r="L15" s="58">
+        <v>5</v>
+      </c>
+      <c r="M15" s="58">
+        <v>5</v>
+      </c>
+      <c r="N15" s="58">
+        <v>5</v>
+      </c>
+      <c r="O15" s="58">
+        <v>5</v>
+      </c>
+      <c r="P15" s="58">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>65</v>
+      </c>
+      <c r="R15" s="58">
+        <v>5</v>
+      </c>
+      <c r="S15" s="58">
+        <v>5</v>
+      </c>
+      <c r="T15" s="58">
+        <v>5</v>
+      </c>
+      <c r="U15" s="10">
+        <v>0</v>
+      </c>
+      <c r="V15" s="10">
+        <v>0</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="100">
+        <v>21</v>
+      </c>
+      <c r="AA15" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59">
+        <v>5</v>
+      </c>
+      <c r="B16" s="59">
+        <v>5</v>
+      </c>
+      <c r="C16" s="59">
+        <v>5</v>
+      </c>
+      <c r="D16" s="59">
+        <v>5</v>
+      </c>
+      <c r="E16" s="77">
+        <v>15</v>
+      </c>
+      <c r="F16" s="59">
+        <v>5</v>
+      </c>
+      <c r="G16" s="99">
+        <v>36</v>
+      </c>
+      <c r="H16" s="61">
+        <v>4</v>
+      </c>
+      <c r="I16" s="59">
+        <v>5</v>
+      </c>
+      <c r="J16" s="59">
+        <v>5</v>
+      </c>
+      <c r="K16" s="59">
+        <v>5</v>
+      </c>
+      <c r="L16" s="59">
+        <v>5</v>
+      </c>
+      <c r="M16" s="77">
+        <v>13</v>
+      </c>
+      <c r="N16" s="59">
+        <v>5</v>
+      </c>
+      <c r="O16" s="59">
+        <v>5</v>
+      </c>
+      <c r="P16" s="59">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="59">
+        <v>5</v>
+      </c>
+      <c r="R16" s="59">
+        <v>5</v>
+      </c>
+      <c r="S16" s="59">
+        <v>5</v>
+      </c>
+      <c r="T16" s="59">
+        <v>5</v>
+      </c>
+      <c r="U16" s="59">
+        <v>5</v>
+      </c>
+      <c r="V16" s="59">
+        <v>5</v>
+      </c>
+      <c r="W16" s="59">
+        <v>5</v>
+      </c>
+      <c r="X16" s="59">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="59">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="59">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="59">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+    </row>
+    <row r="18" spans="1:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="T18" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" s="33"/>
+      <c r="X18" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
+        <v>0</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="55">
+        <v>27</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="57">
+        <v>47</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
+        <v>2</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="70">
+        <v>28</v>
+      </c>
+      <c r="G20" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="57">
+        <v>48</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49">
+        <v>3</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="70">
+        <v>29</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="57">
+        <v>49</v>
+      </c>
+      <c r="L21" s="62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50">
+        <v>4</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="70">
+        <v>30</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="57">
+        <v>50</v>
+      </c>
+      <c r="L22" s="62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51">
+        <v>5</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="70">
+        <v>31</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="64">
+        <v>51</v>
+      </c>
+      <c r="L23" s="65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70">
+        <v>11</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="70">
+        <v>32</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="64">
+        <v>52</v>
+      </c>
+      <c r="L24" s="65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53">
+        <v>12</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="55">
+        <v>33</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="64">
+        <v>53</v>
+      </c>
+      <c r="L25" s="65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="53">
+        <v>13</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="70">
+        <v>34</v>
+      </c>
+      <c r="G26" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="64">
+        <v>54</v>
+      </c>
+      <c r="L26" s="65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53">
+        <v>14</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="70">
+        <v>35</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="64">
+        <v>55</v>
+      </c>
+      <c r="L27" s="65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53">
+        <v>15</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="70">
+        <v>36</v>
+      </c>
+      <c r="G28" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="64">
+        <v>56</v>
+      </c>
+      <c r="L28" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="70">
+        <v>16</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="70">
+        <v>37</v>
+      </c>
+      <c r="G29" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="70">
+        <v>57</v>
+      </c>
+      <c r="L29" s="72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66">
+        <v>17</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="70">
+        <v>3</v>
+      </c>
+      <c r="G30" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="70">
+        <v>58</v>
+      </c>
+      <c r="L30" s="72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="66">
+        <v>18</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="70">
+        <v>39</v>
+      </c>
+      <c r="G31" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="70">
+        <v>59</v>
+      </c>
+      <c r="L31" s="72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66">
+        <v>19</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="70">
+        <v>40</v>
+      </c>
+      <c r="G32" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="47">
+        <v>60</v>
+      </c>
+      <c r="L32" s="68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66">
+        <v>21</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="57">
+        <v>41</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="47">
+        <v>61</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="66">
+        <v>22</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="57">
+        <v>42</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="47">
+        <v>62</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="66">
+        <v>23</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="57">
+        <v>43</v>
+      </c>
+      <c r="G35" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="47">
+        <v>63</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66">
+        <v>24</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="57">
+        <v>44</v>
+      </c>
+      <c r="G36" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="47">
+        <v>64</v>
+      </c>
+      <c r="L36" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66">
+        <v>25</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="57">
+        <v>45</v>
+      </c>
+      <c r="G37" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="47">
+        <v>65</v>
+      </c>
+      <c r="L37" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="66">
+        <v>26</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="57">
+        <v>46</v>
+      </c>
+      <c r="G38" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="73">
+        <v>66</v>
+      </c>
+      <c r="L38" s="74" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/docs/NorthPolePatrol-Maps.xlsx
+++ b/docs/NorthPolePatrol-Maps.xlsx
@@ -245,9 +245,6 @@
     <t>3 goblins</t>
   </si>
   <si>
-    <t>2 blobs</t>
-  </si>
-  <si>
     <t>TRAIN3/stairs</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>2 frost giants</t>
+  </si>
+  <si>
+    <t>1 blobs</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,6 +896,24 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,9 +922,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE81CBC"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF926A9A"/>
-      <color rgb="FFE81CBC"/>
       <color rgb="FF33CCCC"/>
       <color rgb="FFA5A5A5"/>
       <color rgb="FF9966FF"/>
@@ -3585,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4709,7 +4727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
         <v>5</v>
       </c>
@@ -4728,7 +4746,7 @@
       <c r="F14" s="83">
         <v>0</v>
       </c>
-      <c r="G14" s="97">
+      <c r="G14" s="10">
         <v>0</v>
       </c>
       <c r="H14" s="80">
@@ -4795,7 +4813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
         <v>5</v>
       </c>
@@ -5002,7 +5020,7 @@
         <v>69</v>
       </c>
       <c r="V18" s="82" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W18" s="33"/>
       <c r="X18" s="17" t="s">
@@ -6871,7 +6889,7 @@
   <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6962,14 +6980,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="24">
         <v>0</v>
       </c>
       <c r="D2" s="3">
@@ -7026,7 +7044,7 @@
       <c r="U2" s="59">
         <v>5</v>
       </c>
-      <c r="V2" s="58">
+      <c r="V2" s="103">
         <v>5</v>
       </c>
       <c r="W2" s="59">
@@ -7048,17 +7066,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="107">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="58">
@@ -7109,13 +7127,13 @@
       <c r="T3" s="16">
         <v>16</v>
       </c>
-      <c r="U3" s="10">
-        <v>0</v>
-      </c>
-      <c r="V3" s="10">
-        <v>0</v>
-      </c>
-      <c r="W3" s="10">
+      <c r="U3" s="83">
+        <v>0</v>
+      </c>
+      <c r="V3" s="86">
+        <v>0</v>
+      </c>
+      <c r="W3" s="80">
         <v>0</v>
       </c>
       <c r="X3" s="10">
@@ -7134,14 +7152,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="99">
         <v>32</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="31">
         <v>0</v>
       </c>
       <c r="D4" s="61">
@@ -7198,7 +7216,7 @@
       <c r="U4" s="10">
         <v>0</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="87">
         <v>0</v>
       </c>
       <c r="W4" s="10">
@@ -7392,7 +7410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58">
         <v>5</v>
       </c>
@@ -7429,7 +7447,7 @@
       <c r="L7" s="58">
         <v>5</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="24">
         <v>0</v>
       </c>
       <c r="N7" s="58">
@@ -7478,7 +7496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77">
         <v>13</v>
       </c>
@@ -7512,13 +7530,13 @@
       <c r="K8" s="58">
         <v>5</v>
       </c>
-      <c r="L8" s="58">
-        <v>5</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="58">
+      <c r="L8" s="104">
+        <v>5</v>
+      </c>
+      <c r="M8" s="106">
+        <v>0</v>
+      </c>
+      <c r="N8" s="105">
         <v>5</v>
       </c>
       <c r="O8" s="58">
@@ -7564,14 +7582,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="24">
         <v>0</v>
       </c>
       <c r="D9" s="58">
@@ -7601,7 +7619,7 @@
       <c r="L9" s="5">
         <v>65</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="31">
         <v>0</v>
       </c>
       <c r="N9" s="3">
@@ -7650,17 +7668,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="99">
         <v>58</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="58">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="107">
+        <v>0</v>
+      </c>
+      <c r="D10" s="105">
         <v>5</v>
       </c>
       <c r="E10" s="63">
@@ -7736,14 +7754,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58">
         <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="31">
         <v>0</v>
       </c>
       <c r="D11" s="58">
@@ -7776,7 +7794,7 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="24">
         <v>0</v>
       </c>
       <c r="O11" s="3">
@@ -7822,7 +7840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58">
         <v>5</v>
       </c>
@@ -7859,13 +7877,13 @@
       <c r="L12" s="61">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="30">
+        <v>0</v>
+      </c>
+      <c r="O12" s="23">
         <v>0</v>
       </c>
       <c r="P12" s="3">
@@ -7908,7 +7926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58">
         <v>5</v>
       </c>
@@ -7927,7 +7945,7 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="24">
         <v>0</v>
       </c>
       <c r="H13" s="3">
@@ -7948,7 +7966,7 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="31">
         <v>0</v>
       </c>
       <c r="O13" s="3">
@@ -7975,7 +7993,7 @@
       <c r="V13" s="10">
         <v>0</v>
       </c>
-      <c r="W13" s="69">
+      <c r="W13" s="102">
         <v>65</v>
       </c>
       <c r="X13" s="59">
@@ -7994,7 +8012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58">
         <v>5</v>
       </c>
@@ -8010,13 +8028,13 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
         <v>0</v>
       </c>
       <c r="I14" s="58">
@@ -8058,13 +8076,13 @@
       <c r="U14" s="10">
         <v>0</v>
       </c>
-      <c r="V14" s="10">
-        <v>0</v>
-      </c>
-      <c r="W14" s="10">
-        <v>0</v>
-      </c>
-      <c r="X14" s="10">
+      <c r="V14" s="83">
+        <v>0</v>
+      </c>
+      <c r="W14" s="86">
+        <v>0</v>
+      </c>
+      <c r="X14" s="80">
         <v>0</v>
       </c>
       <c r="Y14" s="10">
@@ -8080,7 +8098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <v>5</v>
       </c>
@@ -8099,7 +8117,7 @@
       <c r="F15" s="58">
         <v>5</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="31">
         <v>0</v>
       </c>
       <c r="H15" s="3">
@@ -8147,7 +8165,7 @@
       <c r="V15" s="10">
         <v>0</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="87">
         <v>0</v>
       </c>
       <c r="X15" s="10">
@@ -8281,13 +8299,13 @@
     </row>
     <row r="18" spans="1:25" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R18" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="T18" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="T18" s="79" t="s">
+      <c r="V18" s="82" t="s">
         <v>75</v>
-      </c>
-      <c r="V18" s="82" t="s">
-        <v>76</v>
       </c>
       <c r="W18" s="33"/>
       <c r="X18" s="17" t="s">
@@ -8322,7 +8340,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="70">
         <v>28</v>
@@ -8345,7 +8363,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="70">
         <v>29</v>
@@ -8571,7 +8589,7 @@
         <v>40</v>
       </c>
       <c r="G32" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K32" s="47">
         <v>60</v>

--- a/docs/NorthPolePatrol-Maps.xlsx
+++ b/docs/NorthPolePatrol-Maps.xlsx
@@ -440,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -601,11 +601,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF33CCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF33CCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF33CCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF33CCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,6 +937,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,10 +960,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CCCC"/>
       <color rgb="FFE81CBC"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF926A9A"/>
-      <color rgb="FF33CCCC"/>
       <color rgb="FFA5A5A5"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF6600"/>
@@ -8743,7 +8773,7 @@
   <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="U1" sqref="U1:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8834,7 +8864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -8901,7 +8931,7 @@
       <c r="V2" s="102">
         <v>5</v>
       </c>
-      <c r="W2" s="58">
+      <c r="W2" s="111">
         <v>5</v>
       </c>
       <c r="X2" s="10">
@@ -8920,7 +8950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -8957,7 +8987,7 @@
       <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="24">
         <v>0</v>
       </c>
       <c r="N3" s="3">
@@ -8984,13 +9014,13 @@
       <c r="U3" s="82">
         <v>0</v>
       </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="79">
-        <v>0</v>
-      </c>
-      <c r="X3" s="10">
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="112">
+        <v>0</v>
+      </c>
+      <c r="X3" s="79">
         <v>0</v>
       </c>
       <c r="Y3" s="58">
@@ -9006,7 +9036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>61</v>
       </c>
@@ -9040,13 +9070,13 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="110">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23">
         <v>0</v>
       </c>
       <c r="O4" s="3">
@@ -9073,7 +9103,7 @@
       <c r="V4" s="86">
         <v>0</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="86">
         <v>0</v>
       </c>
       <c r="X4" s="10">
@@ -9092,7 +9122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>5</v>
       </c>
@@ -9129,7 +9159,7 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="31">
         <v>0</v>
       </c>
       <c r="N5" s="69">
@@ -9264,7 +9294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57">
         <v>5</v>
       </c>
@@ -9337,7 +9367,7 @@
       <c r="X7" s="10">
         <v>0</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="83">
         <v>0</v>
       </c>
       <c r="Z7" s="10">
@@ -9350,7 +9380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -9369,7 +9399,7 @@
       <c r="F8" s="62">
         <v>46</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="24">
         <v>0</v>
       </c>
       <c r="H8" s="3">
@@ -9411,7 +9441,7 @@
       <c r="T8" s="60">
         <v>4</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="83">
         <v>0</v>
       </c>
       <c r="V8" s="10">
@@ -9420,13 +9450,13 @@
       <c r="W8" s="10">
         <v>0</v>
       </c>
-      <c r="X8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="10">
+      <c r="X8" s="82">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="112">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="79">
         <v>0</v>
       </c>
       <c r="AA8" s="76">
@@ -9436,7 +9466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -9452,13 +9482,13 @@
       <c r="E9" s="57">
         <v>5</v>
       </c>
-      <c r="F9" s="57">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="F9" s="103">
+        <v>5</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
         <v>0</v>
       </c>
       <c r="I9" s="57">
@@ -9494,13 +9524,13 @@
       <c r="S9" s="57">
         <v>5</v>
       </c>
-      <c r="T9" s="10">
-        <v>0</v>
-      </c>
-      <c r="U9" s="10">
-        <v>0</v>
-      </c>
-      <c r="V9" s="10">
+      <c r="T9" s="82">
+        <v>0</v>
+      </c>
+      <c r="U9" s="112">
+        <v>0</v>
+      </c>
+      <c r="V9" s="79">
         <v>0</v>
       </c>
       <c r="W9" s="58">
@@ -9509,7 +9539,7 @@
       <c r="X9" s="99">
         <v>17</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="86">
         <v>0</v>
       </c>
       <c r="Z9" s="10">
@@ -9522,14 +9552,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60">
         <v>4</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="30">
         <v>0</v>
       </c>
       <c r="D10" s="104">
@@ -9541,7 +9571,7 @@
       <c r="F10" s="57">
         <v>5</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="31">
         <v>0</v>
       </c>
       <c r="H10" s="3">
@@ -9583,7 +9613,7 @@
       <c r="T10" s="58">
         <v>5</v>
       </c>
-      <c r="U10" s="58">
+      <c r="U10" s="93">
         <v>5</v>
       </c>
       <c r="V10" s="58">
@@ -9608,7 +9638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
         <v>5</v>
       </c>
@@ -9694,7 +9724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="57">
         <v>5</v>
       </c>
@@ -9728,7 +9758,7 @@
       <c r="K12" s="57">
         <v>5</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="24">
         <v>0</v>
       </c>
       <c r="M12" s="12">
@@ -9780,7 +9810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="57">
         <v>5</v>
       </c>
@@ -9811,13 +9841,13 @@
       <c r="J13" s="57">
         <v>5</v>
       </c>
-      <c r="K13" s="57">
-        <v>5</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="K13" s="103">
+        <v>5</v>
+      </c>
+      <c r="L13" s="110">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23">
         <v>0</v>
       </c>
       <c r="N13" s="31">
@@ -9866,7 +9896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>5</v>
       </c>
@@ -9885,7 +9915,7 @@
       <c r="F14" s="12">
         <v>0</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="23">
@@ -9900,7 +9930,7 @@
       <c r="K14" s="57">
         <v>5</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="109">
         <v>61</v>
       </c>
       <c r="M14" s="3">
@@ -9952,7 +9982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57">
         <v>5</v>
       </c>
@@ -10155,7 +10185,7 @@
       <c r="R18" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="T18" s="78" t="s">
+      <c r="T18" s="108" t="s">
         <v>77</v>
       </c>
       <c r="V18" s="107" t="s">
